--- a/FIAEB Übungen/Netzplan_Übung.xlsx
+++ b/FIAEB Übungen/Netzplan_Übung.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FIAEB Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0568A751-F88A-4787-B898-8B39087695E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3131419-A830-45AE-B9F6-637FFE2799FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" r:id="rId1"/>
     <sheet name="Übung2" sheetId="2" r:id="rId2"/>
+    <sheet name="Übung3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -142,6 +143,21 @@
   </si>
   <si>
     <t>Spätester</t>
+  </si>
+  <si>
+    <t>FEZ = FAZ + D</t>
+  </si>
+  <si>
+    <t>SEZ = kleinste SAZ (Nachfolger)</t>
+  </si>
+  <si>
+    <t>FAZ = größste FEZ (Vorgänger)</t>
+  </si>
+  <si>
+    <t>SAZ = SEZ - D</t>
+  </si>
+  <si>
+    <t>kritischer Pfad</t>
   </si>
 </sst>
 </file>
@@ -291,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -456,11 +472,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,11 +605,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="37">
     <dxf>
       <font>
         <b/>
@@ -663,15 +728,121 @@
     <dxf>
       <font>
         <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1186,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="12.75"/>
@@ -1495,22 +1666,44 @@
         <v>0</v>
       </c>
       <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="F15" s="17"/>
+      <c r="C15" s="19">
+        <v>2</v>
+      </c>
+      <c r="F15" s="17">
+        <v>2</v>
+      </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="K15" s="17"/>
+      <c r="H15" s="19">
+        <v>10</v>
+      </c>
+      <c r="K15" s="17">
+        <v>10</v>
+      </c>
       <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
-      <c r="P15" s="17"/>
+      <c r="M15" s="19">
+        <v>16</v>
+      </c>
+      <c r="P15" s="17">
+        <v>16</v>
+      </c>
       <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
-      <c r="U15" s="17"/>
+      <c r="R15" s="19">
+        <v>21</v>
+      </c>
+      <c r="U15" s="17">
+        <v>21</v>
+      </c>
       <c r="V15" s="18"/>
-      <c r="W15" s="19"/>
-      <c r="Z15" s="17"/>
+      <c r="W15" s="19">
+        <v>29</v>
+      </c>
+      <c r="Z15" s="17">
+        <v>29</v>
+      </c>
       <c r="AA15" s="18"/>
-      <c r="AB15" s="19"/>
+      <c r="AB15" s="19">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:28" ht="13.5" thickBot="1">
       <c r="A16" s="20" t="s">
@@ -1554,85 +1747,146 @@
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
     </row>
-    <row r="17" spans="1:28" ht="13.5" thickBot="1">
+    <row r="17" spans="1:30" ht="13.5" thickBot="1">
       <c r="A17" s="21">
         <f>VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="22">
+        <v>0</v>
+      </c>
       <c r="C17" s="23"/>
+      <c r="D17" s="31"/>
       <c r="F17" s="21">
         <f>VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="22"/>
+      <c r="G17" s="22">
+        <v>0</v>
+      </c>
       <c r="H17" s="23"/>
       <c r="K17" s="21">
         <f>VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="L17" s="22"/>
+      <c r="L17" s="22">
+        <v>0</v>
+      </c>
       <c r="M17" s="23"/>
       <c r="P17" s="21">
         <f>VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="22"/>
+      <c r="Q17" s="22">
+        <v>0</v>
+      </c>
       <c r="R17" s="23"/>
       <c r="U17" s="21">
         <f>VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="22"/>
+      <c r="V17" s="22">
+        <v>0</v>
+      </c>
       <c r="W17" s="23"/>
       <c r="Y17" s="36"/>
       <c r="Z17" s="21">
         <f>VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="AA17" s="22"/>
+      <c r="AA17" s="22">
+        <v>0</v>
+      </c>
       <c r="AB17" s="23"/>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="24"/>
+      <c r="AD17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="24">
+        <v>0</v>
+      </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="25"/>
-      <c r="F18" s="24"/>
+      <c r="C18" s="25">
+        <v>2</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="F18" s="24">
+        <v>2</v>
+      </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="25"/>
-      <c r="K18" s="24"/>
+      <c r="H18" s="25">
+        <v>10</v>
+      </c>
+      <c r="K18" s="24">
+        <v>10</v>
+      </c>
       <c r="L18" s="18"/>
-      <c r="M18" s="25"/>
-      <c r="P18" s="24"/>
+      <c r="M18" s="25">
+        <v>16</v>
+      </c>
+      <c r="P18" s="24">
+        <v>16</v>
+      </c>
       <c r="Q18" s="18"/>
-      <c r="R18" s="25"/>
-      <c r="U18" s="24"/>
+      <c r="R18" s="25">
+        <v>21</v>
+      </c>
+      <c r="U18" s="24">
+        <v>21</v>
+      </c>
       <c r="V18" s="18"/>
-      <c r="W18" s="25"/>
+      <c r="W18" s="25">
+        <v>29</v>
+      </c>
       <c r="X18" s="33"/>
-      <c r="Z18" s="24"/>
+      <c r="Z18" s="24">
+        <v>29</v>
+      </c>
       <c r="AA18" s="18"/>
-      <c r="AB18" s="25"/>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AB18" s="25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="D19" s="33"/>
       <c r="X19" s="33"/>
     </row>
-    <row r="20" spans="1:28">
-      <c r="F20" s="17"/>
+    <row r="20" spans="1:30">
+      <c r="D20" s="33"/>
+      <c r="F20" s="17">
+        <v>2</v>
+      </c>
       <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="K20" s="17"/>
+      <c r="H20" s="19">
+        <v>10</v>
+      </c>
+      <c r="K20" s="17">
+        <v>10</v>
+      </c>
       <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
-      <c r="P20" s="17"/>
+      <c r="M20" s="19">
+        <v>18</v>
+      </c>
+      <c r="P20" s="17">
+        <v>18</v>
+      </c>
       <c r="Q20" s="18"/>
-      <c r="R20" s="19"/>
-      <c r="U20" s="17"/>
+      <c r="R20" s="19">
+        <v>24</v>
+      </c>
+      <c r="U20" s="17">
+        <v>24</v>
+      </c>
       <c r="V20" s="18"/>
-      <c r="W20" s="19"/>
+      <c r="W20" s="19">
+        <v>26</v>
+      </c>
       <c r="X20" s="33"/>
     </row>
-    <row r="21" spans="1:28" ht="13.5" thickBot="1">
+    <row r="21" spans="1:30" ht="13.5" thickBot="1">
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="20" t="s">
         <v>7</v>
       </c>
@@ -1661,65 +1915,97 @@
       <c r="W21" s="20"/>
       <c r="X21" s="35"/>
     </row>
-    <row r="22" spans="1:28" ht="13.5" thickBot="1">
+    <row r="22" spans="1:30" ht="13.5" thickBot="1">
       <c r="F22" s="21">
         <f>VLOOKUP(F21,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G22" s="22"/>
+      <c r="G22" s="22">
+        <v>3</v>
+      </c>
       <c r="H22" s="23"/>
       <c r="I22" s="31"/>
       <c r="K22" s="21">
         <f>VLOOKUP(K21,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L22" s="22"/>
+      <c r="L22" s="22">
+        <v>3</v>
+      </c>
       <c r="M22" s="23"/>
       <c r="P22" s="21">
         <f>VLOOKUP(P21,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="22"/>
+      <c r="Q22" s="22">
+        <v>3</v>
+      </c>
       <c r="R22" s="23"/>
       <c r="T22" s="30"/>
       <c r="U22" s="21">
         <f>VLOOKUP(U21,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="22"/>
+      <c r="V22" s="22">
+        <v>3</v>
+      </c>
       <c r="W22" s="23"/>
     </row>
-    <row r="23" spans="1:28">
-      <c r="F23" s="24"/>
+    <row r="23" spans="1:30">
+      <c r="F23" s="24">
+        <v>5</v>
+      </c>
       <c r="G23" s="18"/>
-      <c r="H23" s="25"/>
+      <c r="H23" s="25">
+        <v>13</v>
+      </c>
       <c r="I23" s="32"/>
-      <c r="K23" s="24"/>
+      <c r="K23" s="24">
+        <v>13</v>
+      </c>
       <c r="L23" s="18"/>
-      <c r="M23" s="25"/>
-      <c r="P23" s="24"/>
+      <c r="M23" s="25">
+        <v>21</v>
+      </c>
+      <c r="P23" s="24">
+        <v>21</v>
+      </c>
       <c r="Q23" s="18"/>
-      <c r="R23" s="25"/>
+      <c r="R23" s="25">
+        <v>27</v>
+      </c>
       <c r="S23" s="33"/>
-      <c r="U23" s="24"/>
+      <c r="U23" s="24">
+        <v>27</v>
+      </c>
       <c r="V23" s="18"/>
-      <c r="W23" s="25"/>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="W23" s="25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="I24" s="33"/>
       <c r="S24" s="33"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:30">
       <c r="I25" s="33"/>
-      <c r="K25" s="17"/>
+      <c r="K25" s="17">
+        <v>10</v>
+      </c>
       <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
-      <c r="P25" s="17"/>
+      <c r="M25" s="19">
+        <v>18</v>
+      </c>
+      <c r="P25" s="17">
+        <v>18</v>
+      </c>
       <c r="Q25" s="18"/>
-      <c r="R25" s="19"/>
+      <c r="R25" s="19">
+        <v>23</v>
+      </c>
       <c r="S25" s="33"/>
     </row>
-    <row r="26" spans="1:28" ht="13.5" thickBot="1">
+    <row r="26" spans="1:30" ht="13.5" thickBot="1">
       <c r="I26" s="33"/>
       <c r="J26" s="34"/>
       <c r="K26" s="20" t="s">
@@ -1736,29 +2022,41 @@
       <c r="R26" s="20"/>
       <c r="S26" s="35"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:30">
       <c r="K27" s="21">
         <f>VLOOKUP(K26,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L27" s="22"/>
+      <c r="L27" s="22">
+        <v>4</v>
+      </c>
       <c r="M27" s="23"/>
       <c r="P27" s="21">
         <f>VLOOKUP(P26,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q27" s="22"/>
+      <c r="Q27" s="22">
+        <v>4</v>
+      </c>
       <c r="R27" s="23"/>
     </row>
-    <row r="28" spans="1:28">
-      <c r="K28" s="24"/>
+    <row r="28" spans="1:30">
+      <c r="K28" s="24">
+        <v>14</v>
+      </c>
       <c r="L28" s="18"/>
-      <c r="M28" s="25"/>
-      <c r="P28" s="24"/>
+      <c r="M28" s="25">
+        <v>22</v>
+      </c>
+      <c r="P28" s="24">
+        <v>22</v>
+      </c>
       <c r="Q28" s="18"/>
-      <c r="R28" s="25"/>
-    </row>
-    <row r="35" spans="1:11" ht="56.25">
+      <c r="R28" s="25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="56.25">
       <c r="A35" s="37" t="s">
         <v>30</v>
       </c>
@@ -1766,7 +2064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:16">
       <c r="A36" s="17" t="s">
         <v>16</v>
       </c>
@@ -1777,15 +2075,37 @@
       <c r="D36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="H36" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="H37" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="21" t="s">
         <v>3</v>
       </c>
@@ -1798,8 +2118,19 @@
       <c r="D38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="H38" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="24" t="s">
         <v>21</v>
       </c>
@@ -1810,36 +2141,47 @@
       <c r="D39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="13.5">
+      <c r="H39" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+    </row>
+    <row r="41" spans="1:16" ht="13.5">
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" ht="13.5">
+    <row r="42" spans="1:16" ht="13.5">
       <c r="J42" s="11"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" ht="13.5">
+    <row r="43" spans="1:16" ht="13.5">
       <c r="J43" s="13"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" ht="13.5">
+    <row r="44" spans="1:16" ht="13.5">
       <c r="J44" s="11"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" ht="13.5">
+    <row r="45" spans="1:16" ht="13.5">
       <c r="J45" s="11"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" ht="13.5">
+    <row r="46" spans="1:16" ht="13.5">
       <c r="J46" s="11"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="13.5">
+    <row r="47" spans="1:16" ht="13.5">
       <c r="J47" s="11"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="13.5">
+    <row r="48" spans="1:16" ht="13.5">
       <c r="J48" s="11"/>
       <c r="K48" s="10"/>
     </row>
@@ -2066,11 +2408,15 @@
       <c r="I67" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
+    <mergeCell ref="H36:P36"/>
+    <mergeCell ref="H37:P37"/>
     <mergeCell ref="K26:M26"/>
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="A37:C37"/>
+    <mergeCell ref="H38:P38"/>
+    <mergeCell ref="H39:P39"/>
     <mergeCell ref="P16:R16"/>
     <mergeCell ref="U16:W16"/>
     <mergeCell ref="Z16:AB16"/>
@@ -2085,67 +2431,67 @@
     <mergeCell ref="K16:M16"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2163,7 +2509,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -2311,7 +2657,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>13</v>
@@ -2335,12 +2681,8 @@
       <c r="E9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="4">
         <v>6</v>
       </c>
@@ -2354,9 +2696,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="4">
@@ -2609,10 +2949,534 @@
     <mergeCell ref="K13:M13"/>
   </mergeCells>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V14">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E524FB-B682-44FE-8792-8A0C735BF777}">
+  <dimension ref="A1:W27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="64" width="3.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="19"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="19"/>
+    </row>
+    <row r="13" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+    </row>
+    <row r="14" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A14" s="21">
+        <f>VLOOKUP(A13,$A$2:$H$10,8)</f>
+        <v>15</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="31"/>
+      <c r="F14" s="21">
+        <f>VLOOKUP(F13,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="P14" s="21">
+        <f>VLOOKUP(P13,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="21">
+        <f>VLOOKUP(U13,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="V14" s="22"/>
+      <c r="W14" s="23"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="24"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="32"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="25"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="33"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="25"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="C16" s="46"/>
+      <c r="D16" s="33"/>
+      <c r="S16" s="33"/>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="S17" s="33"/>
+    </row>
+    <row r="18" spans="3:19">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="33"/>
+    </row>
+    <row r="19" spans="3:19" ht="13.5" thickBot="1">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="35"/>
+    </row>
+    <row r="20" spans="3:19" ht="13.5" thickBot="1">
+      <c r="C20" s="33"/>
+      <c r="F20" s="21">
+        <f>VLOOKUP(F19,$A$2:$H$10,8)</f>
+        <v>14</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="40"/>
+      <c r="K20" s="21">
+        <f>VLOOKUP(K19,$A$2:$H$10,8)</f>
+        <v>15</v>
+      </c>
+      <c r="L20" s="22"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="21">
+        <f>VLOOKUP(P19,$A$2:$H$10,8)</f>
+        <v>15</v>
+      </c>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="23"/>
+    </row>
+    <row r="21" spans="3:19">
+      <c r="C21" s="33"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="25"/>
+    </row>
+    <row r="22" spans="3:19">
+      <c r="C22" s="33"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="39"/>
+    </row>
+    <row r="23" spans="3:19">
+      <c r="C23" s="33"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="39"/>
+    </row>
+    <row r="24" spans="3:19">
+      <c r="C24" s="33"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="45">
+        <f>H18</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="18"/>
+      <c r="M24" s="19">
+        <f>K24+K26</f>
+        <v>14</v>
+      </c>
+      <c r="N24" s="33"/>
+      <c r="O24" s="39"/>
+    </row>
+    <row r="25" spans="3:19" ht="13.5" thickBot="1">
+      <c r="C25" s="33"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="39"/>
+    </row>
+    <row r="26" spans="3:19">
+      <c r="F26" s="21">
+        <f>VLOOKUP(F25,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="K26" s="21">
+        <f>VLOOKUP(K25,$A$2:$H$10,8)</f>
+        <v>14</v>
+      </c>
+      <c r="L26" s="22"/>
+      <c r="M26" s="23"/>
+    </row>
+    <row r="27" spans="3:19">
+      <c r="F27" s="24"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="25"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="P13:R13"/>
+  </mergeCells>
   <conditionalFormatting sqref="B14">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>0</formula>
@@ -2628,7 +3492,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+  <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/FIAEB Übungen/Netzplan_Übung.xlsx
+++ b/FIAEB Übungen/Netzplan_Übung.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FIAEB Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3131419-A830-45AE-B9F6-637FFE2799FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D2BD8B-C223-40F2-BB06-09FA59827821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" r:id="rId1"/>
     <sheet name="Übung2" sheetId="2" r:id="rId2"/>
     <sheet name="Übung3" sheetId="3" r:id="rId3"/>
+    <sheet name="Übung 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -307,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -503,16 +504,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,9 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -562,9 +592,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,15 +605,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -603,11 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,11 +637,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="43">
     <dxf>
       <font>
         <b/>
@@ -712,18 +751,74 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFF0000"/>
         <name val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -815,19 +910,6 @@
         <name val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
@@ -1369,707 +1451,707 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="4">
+      <c r="G2" s="5"/>
+      <c r="H2" s="3">
         <v>2</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <f>SUM(CH2:CU2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3">
         <v>8</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <f>SUM(CH3:CU3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4">
+      <c r="G4" s="5"/>
+      <c r="H4" s="3">
         <v>8</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <f>SUM(CH4:CU4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3">
         <v>6</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f>SUM(CH5:CU5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3">
         <v>8</v>
       </c>
-      <c r="I6" s="7">
-        <f>SUM(BR6:CE6)</f>
+      <c r="I6" s="6">
+        <f t="shared" ref="I6:I13" si="0">SUM(BR6:CE6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3">
         <v>8</v>
       </c>
-      <c r="I7" s="7">
-        <f>SUM(BR7:CE7)</f>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4">
+      <c r="G8" s="5"/>
+      <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="I8" s="7">
-        <f>SUM(BR8:CE8)</f>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3">
         <v>6</v>
       </c>
-      <c r="I9" s="7">
-        <f>SUM(BR9:CE9)</f>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3">
         <v>5</v>
       </c>
-      <c r="I10" s="7">
-        <f>SUM(BR10:CE10)</f>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="4">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="3">
         <v>8</v>
       </c>
-      <c r="I11" s="7">
-        <f>SUM(BR11:CE11)</f>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="4">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="I12" s="7">
-        <f>SUM(BR12:CE12)</f>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="4">
+      <c r="D13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="3">
         <v>4</v>
       </c>
-      <c r="I13" s="7">
-        <f>SUM(BR13:CE13)</f>
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="17">
+      <c r="A15" s="15">
         <v>0</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17">
         <v>2</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="15">
         <v>2</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19">
+      <c r="G15" s="16"/>
+      <c r="H15" s="17">
         <v>10</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="15">
         <v>10</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19">
+      <c r="L15" s="16"/>
+      <c r="M15" s="17">
         <v>16</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="15">
         <v>16</v>
       </c>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19">
+      <c r="Q15" s="16"/>
+      <c r="R15" s="17">
         <v>21</v>
       </c>
-      <c r="U15" s="17">
+      <c r="U15" s="15">
         <v>21</v>
       </c>
-      <c r="V15" s="18"/>
-      <c r="W15" s="19">
+      <c r="V15" s="16"/>
+      <c r="W15" s="17">
         <v>29</v>
       </c>
-      <c r="Z15" s="17">
+      <c r="Z15" s="15">
         <v>29</v>
       </c>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="19">
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="17">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.5" thickBot="1">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="20" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="26" t="s">
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="20" t="s">
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="20" t="s">
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="20" t="s">
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
     </row>
     <row r="17" spans="1:30" ht="13.5" thickBot="1">
-      <c r="A17" s="21">
+      <c r="A17" s="18">
         <f>VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="19">
         <v>0</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="31"/>
-      <c r="F17" s="21">
+      <c r="C17" s="20"/>
+      <c r="D17" s="25"/>
+      <c r="F17" s="18">
         <f>VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="19">
         <v>0</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="K17" s="21">
+      <c r="H17" s="20"/>
+      <c r="K17" s="18">
         <f>VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="19">
         <v>0</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="P17" s="21">
+      <c r="M17" s="20"/>
+      <c r="P17" s="18">
         <f>VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q17" s="19">
         <v>0</v>
       </c>
-      <c r="R17" s="23"/>
-      <c r="U17" s="21">
+      <c r="R17" s="20"/>
+      <c r="U17" s="18">
         <f>VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="22">
+      <c r="V17" s="19">
         <v>0</v>
       </c>
-      <c r="W17" s="23"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="21">
+      <c r="W17" s="20"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="18">
         <f>VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="AA17" s="22">
+      <c r="AA17" s="19">
         <v>0</v>
       </c>
-      <c r="AB17" s="23"/>
+      <c r="AB17" s="20"/>
       <c r="AD17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="24">
+      <c r="A18" s="21">
         <v>0</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="22">
         <v>2</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="F18" s="24">
+      <c r="D18" s="26"/>
+      <c r="F18" s="21">
         <v>2</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="25">
+      <c r="G18" s="16"/>
+      <c r="H18" s="22">
         <v>10</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="21">
         <v>10</v>
       </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="25">
+      <c r="L18" s="16"/>
+      <c r="M18" s="22">
         <v>16</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="21">
         <v>16</v>
       </c>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="25">
+      <c r="Q18" s="16"/>
+      <c r="R18" s="22">
         <v>21</v>
       </c>
-      <c r="U18" s="24">
+      <c r="U18" s="21">
         <v>21</v>
       </c>
-      <c r="V18" s="18"/>
-      <c r="W18" s="25">
+      <c r="V18" s="16"/>
+      <c r="W18" s="22">
         <v>29</v>
       </c>
-      <c r="X18" s="33"/>
-      <c r="Z18" s="24">
+      <c r="X18" s="27"/>
+      <c r="Z18" s="21">
         <v>29</v>
       </c>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="25">
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="22">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="D19" s="33"/>
-      <c r="X19" s="33"/>
+      <c r="D19" s="27"/>
+      <c r="X19" s="27"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="D20" s="33"/>
-      <c r="F20" s="17">
+      <c r="D20" s="27"/>
+      <c r="F20" s="15">
         <v>2</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19">
+      <c r="G20" s="16"/>
+      <c r="H20" s="17">
         <v>10</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="15">
         <v>10</v>
       </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19">
+      <c r="L20" s="16"/>
+      <c r="M20" s="17">
         <v>18</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P20" s="15">
         <v>18</v>
       </c>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="19">
+      <c r="Q20" s="16"/>
+      <c r="R20" s="17">
         <v>24</v>
       </c>
-      <c r="U20" s="17">
+      <c r="U20" s="15">
         <v>24</v>
       </c>
-      <c r="V20" s="18"/>
-      <c r="W20" s="19">
+      <c r="V20" s="16"/>
+      <c r="W20" s="17">
         <v>26</v>
       </c>
-      <c r="X20" s="33"/>
+      <c r="X20" s="27"/>
     </row>
     <row r="21" spans="1:30" ht="13.5" thickBot="1">
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="20" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="20" t="s">
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="20" t="s">
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="20" t="s">
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="35"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="29"/>
     </row>
     <row r="22" spans="1:30" ht="13.5" thickBot="1">
-      <c r="F22" s="21">
+      <c r="F22" s="18">
         <f>VLOOKUP(F21,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="19">
         <v>3</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="31"/>
-      <c r="K22" s="21">
+      <c r="H22" s="20"/>
+      <c r="I22" s="25"/>
+      <c r="K22" s="18">
         <f>VLOOKUP(K21,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="19">
         <v>3</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="P22" s="21">
+      <c r="M22" s="20"/>
+      <c r="P22" s="18">
         <f>VLOOKUP(P21,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="19">
         <v>3</v>
       </c>
-      <c r="R22" s="23"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="21">
+      <c r="R22" s="20"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="18">
         <f>VLOOKUP(U21,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="22">
+      <c r="V22" s="19">
         <v>3</v>
       </c>
-      <c r="W22" s="23"/>
+      <c r="W22" s="20"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="F23" s="24">
+      <c r="F23" s="21">
         <v>5</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="25">
+      <c r="G23" s="16"/>
+      <c r="H23" s="22">
         <v>13</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="K23" s="24">
+      <c r="I23" s="26"/>
+      <c r="K23" s="21">
         <v>13</v>
       </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="25">
+      <c r="L23" s="16"/>
+      <c r="M23" s="22">
         <v>21</v>
       </c>
-      <c r="P23" s="24">
+      <c r="P23" s="21">
         <v>21</v>
       </c>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="25">
+      <c r="Q23" s="16"/>
+      <c r="R23" s="22">
         <v>27</v>
       </c>
-      <c r="S23" s="33"/>
-      <c r="U23" s="24">
+      <c r="S23" s="27"/>
+      <c r="U23" s="21">
         <v>27</v>
       </c>
-      <c r="V23" s="18"/>
-      <c r="W23" s="25">
+      <c r="V23" s="16"/>
+      <c r="W23" s="22">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:30">
-      <c r="I24" s="33"/>
-      <c r="S24" s="33"/>
+      <c r="I24" s="27"/>
+      <c r="S24" s="27"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="I25" s="33"/>
-      <c r="K25" s="17">
+      <c r="I25" s="27"/>
+      <c r="K25" s="15">
         <v>10</v>
       </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19">
+      <c r="L25" s="16"/>
+      <c r="M25" s="17">
         <v>18</v>
       </c>
-      <c r="P25" s="17">
+      <c r="P25" s="15">
         <v>18</v>
       </c>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="19">
+      <c r="Q25" s="16"/>
+      <c r="R25" s="17">
         <v>23</v>
       </c>
-      <c r="S25" s="33"/>
+      <c r="S25" s="27"/>
     </row>
     <row r="26" spans="1:30" ht="13.5" thickBot="1">
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="20" t="s">
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="20" t="s">
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="35"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="29"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="K27" s="21">
+      <c r="K27" s="18">
         <f>VLOOKUP(K26,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="19">
         <v>4</v>
       </c>
-      <c r="M27" s="23"/>
-      <c r="P27" s="21">
+      <c r="M27" s="20"/>
+      <c r="P27" s="18">
         <f>VLOOKUP(P26,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q27" s="22">
+      <c r="Q27" s="19">
         <v>4</v>
       </c>
-      <c r="R27" s="23"/>
+      <c r="R27" s="20"/>
     </row>
     <row r="28" spans="1:30">
-      <c r="K28" s="24">
+      <c r="K28" s="21">
         <v>14</v>
       </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="25">
+      <c r="L28" s="16"/>
+      <c r="M28" s="22">
         <v>22</v>
       </c>
-      <c r="P28" s="24">
+      <c r="P28" s="21">
         <v>22</v>
       </c>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="25">
+      <c r="Q28" s="16"/>
+      <c r="R28" s="22">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="56.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D36" t="s">
@@ -2088,11 +2170,11 @@
       <c r="P36" s="41"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
       <c r="H37" s="41" t="s">
         <v>37</v>
       </c>
@@ -2106,13 +2188,13 @@
       <c r="P37" s="41"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D38" t="s">
@@ -2131,11 +2213,11 @@
       <c r="P38" s="41"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D39" t="s">
@@ -2154,261 +2236,273 @@
       <c r="P39" s="41"/>
     </row>
     <row r="41" spans="1:16" ht="13.5">
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:16" ht="13.5">
-      <c r="J42" s="11"/>
-      <c r="K42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:16" ht="13.5">
-      <c r="J43" s="13"/>
-      <c r="K43" s="10"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:16" ht="13.5">
-      <c r="J44" s="11"/>
-      <c r="K44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:16" ht="13.5">
-      <c r="J45" s="11"/>
-      <c r="K45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:16" ht="13.5">
-      <c r="J46" s="11"/>
-      <c r="K46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:16" ht="13.5">
-      <c r="J47" s="11"/>
-      <c r="K47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:16" ht="13.5">
-      <c r="J48" s="11"/>
-      <c r="K48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11" ht="13.5">
-      <c r="J49" s="11"/>
-      <c r="K49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11" ht="13.5">
-      <c r="J50" s="11"/>
-      <c r="K50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="9"/>
     </row>
     <row r="51" spans="1:11" ht="13.5">
-      <c r="J51" s="11"/>
-      <c r="K51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" ht="13.5">
-      <c r="J52" s="11"/>
-      <c r="K52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11" ht="13.5">
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" ht="13.5">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" ht="13.5">
-      <c r="A55" s="9"/>
-      <c r="B55" s="11" t="s">
+      <c r="A55" s="8"/>
+      <c r="B55" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11" t="s">
+      <c r="C55" s="10"/>
+      <c r="D55" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
     </row>
     <row r="56" spans="1:11" ht="13.5">
-      <c r="A56" s="9"/>
-      <c r="B56" s="1" t="s">
+      <c r="A56" s="8"/>
+      <c r="B56" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="13" t="s">
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:11" ht="13.5">
-      <c r="A57" s="9"/>
-      <c r="B57" s="14" t="s">
+      <c r="A57" s="8"/>
+      <c r="B57" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
     </row>
     <row r="58" spans="1:11" ht="13.5">
-      <c r="A58" s="9"/>
-      <c r="B58" s="11" t="s">
+      <c r="A58" s="8"/>
+      <c r="B58" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11" t="s">
+      <c r="C58" s="10"/>
+      <c r="D58" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
     </row>
     <row r="59" spans="1:11" ht="13.5">
-      <c r="A59" s="9"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
     </row>
     <row r="60" spans="1:11" ht="13.5">
-      <c r="A60" s="9"/>
-      <c r="B60" s="15" t="s">
+      <c r="A60" s="8"/>
+      <c r="B60" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
     </row>
     <row r="61" spans="1:11" ht="13.5">
-      <c r="A61" s="9"/>
-      <c r="B61" s="15" t="s">
+      <c r="A61" s="8"/>
+      <c r="B61" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
     </row>
     <row r="62" spans="1:11" ht="13.5">
-      <c r="A62" s="9"/>
-      <c r="B62" s="15" t="s">
+      <c r="A62" s="8"/>
+      <c r="B62" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
     </row>
     <row r="63" spans="1:11" ht="13.5">
-      <c r="A63" s="9"/>
-      <c r="B63" s="15" t="s">
+      <c r="A63" s="8"/>
+      <c r="B63" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
     </row>
     <row r="64" spans="1:11" ht="13.5">
-      <c r="A64" s="9"/>
-      <c r="B64" s="14" t="s">
+      <c r="A64" s="8"/>
+      <c r="B64" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
     </row>
     <row r="65" spans="1:9" ht="13.5">
-      <c r="A65" s="9"/>
-      <c r="B65" s="12" t="s">
+      <c r="A65" s="8"/>
+      <c r="B65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
     </row>
     <row r="66" spans="1:9" ht="13.5">
-      <c r="A66" s="9"/>
-      <c r="B66" s="16" t="s">
+      <c r="A66" s="8"/>
+      <c r="B66" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
     </row>
     <row r="67" spans="1:9" ht="13.5">
-      <c r="A67" s="9"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="U21:W21"/>
     <mergeCell ref="H36:P36"/>
     <mergeCell ref="H37:P37"/>
     <mergeCell ref="K26:M26"/>
@@ -2417,81 +2511,69 @@
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="H38:P38"/>
     <mergeCell ref="H39:P39"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="K16:M16"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2518,483 +2600,482 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="4">
+      <c r="G2" s="5"/>
+      <c r="H2" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4">
+      <c r="G4" s="5"/>
+      <c r="H4" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4">
+      <c r="G8" s="5"/>
+      <c r="H8" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="19"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="19"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="17"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="17"/>
     </row>
     <row r="13" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="20" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="20" t="s">
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="20" t="s">
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="20" t="s">
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
     </row>
     <row r="14" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <f>VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="31"/>
-      <c r="F14" s="21">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="25"/>
+      <c r="F14" s="18">
         <f>VLOOKUP(F13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="K14" s="21">
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="K14" s="18">
         <f>VLOOKUP(K13,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
-      <c r="P14" s="21">
+      <c r="L14" s="19"/>
+      <c r="M14" s="20"/>
+      <c r="P14" s="18">
         <f>VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>3</v>
       </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="21">
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="18">
         <f>VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>2</v>
       </c>
-      <c r="V14" s="22"/>
-      <c r="W14" s="23"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="20"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="24"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="32"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="25"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="25"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="33"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="25"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="26"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="22"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="22"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="27"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="22"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="D16" s="33"/>
-      <c r="S16" s="33"/>
+      <c r="D16" s="27"/>
+      <c r="S16" s="27"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="33"/>
-      <c r="S17" s="33"/>
+      <c r="D17" s="27"/>
+      <c r="S17" s="27"/>
     </row>
     <row r="18" spans="4:19">
-      <c r="D18" s="33"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="33"/>
+      <c r="D18" s="27"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="17"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="27"/>
     </row>
     <row r="19" spans="4:19" ht="13.5" thickBot="1">
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="20" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="20" t="s">
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="20" t="s">
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="35"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="29"/>
     </row>
     <row r="20" spans="4:19" ht="13.5" thickBot="1">
-      <c r="F20" s="21">
+      <c r="F20" s="18">
         <f>VLOOKUP(F19,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="31"/>
-      <c r="K20" s="21">
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="25"/>
+      <c r="K20" s="18">
         <f>VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="21">
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="18">
         <f>VLOOKUP(P19,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="23"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
     </row>
     <row r="21" spans="4:19">
-      <c r="F21" s="24"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="32"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="33"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="25"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="26"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="27"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="22"/>
     </row>
     <row r="22" spans="4:19">
-      <c r="I22" s="33"/>
-      <c r="N22" s="33"/>
+      <c r="I22" s="27"/>
+      <c r="N22" s="27"/>
     </row>
     <row r="23" spans="4:19">
-      <c r="I23" s="33"/>
-      <c r="N23" s="33"/>
+      <c r="I23" s="27"/>
+      <c r="N23" s="27"/>
     </row>
     <row r="24" spans="4:19">
-      <c r="I24" s="33"/>
-      <c r="K24" s="17">
+      <c r="I24" s="27"/>
+      <c r="K24" s="15">
         <f>H18</f>
         <v>0</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="19">
+      <c r="L24" s="16"/>
+      <c r="M24" s="17">
         <f>K24+K26</f>
         <v>5</v>
       </c>
-      <c r="N24" s="33"/>
+      <c r="N24" s="27"/>
     </row>
     <row r="25" spans="4:19" ht="13.5" thickBot="1">
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="20" t="s">
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="35"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="29"/>
     </row>
     <row r="26" spans="4:19">
-      <c r="K26" s="21">
+      <c r="K26" s="18">
         <f>VLOOKUP(K25,$A$2:$H$10,8)</f>
         <v>5</v>
       </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="20"/>
     </row>
     <row r="27" spans="4:19">
-      <c r="K27" s="24"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="25"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K13:M13"/>
     <mergeCell ref="K25:M25"/>
     <mergeCell ref="P13:R13"/>
     <mergeCell ref="U13:W13"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="P19:R19"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="K13:M13"/>
   </mergeCells>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3011,7 +3092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E524FB-B682-44FE-8792-8A0C735BF777}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -3021,503 +3102,1095 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4">
+      <c r="G8" s="5"/>
+      <c r="H8" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4">
+      <c r="D10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="19"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="19"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="17"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="17"/>
     </row>
     <row r="13" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="20" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="20" t="s">
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="20" t="s">
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
     </row>
     <row r="14" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <f>VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="31"/>
-      <c r="F14" s="21">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="25"/>
+      <c r="F14" s="18">
         <f>VLOOKUP(F13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="P14" s="21">
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="P14" s="18">
         <f>VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="21">
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="18">
         <f>VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="V14" s="22"/>
-      <c r="W14" s="23"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="20"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="24"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="32"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="25"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="33"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="25"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="26"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="22"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="27"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="22"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="C16" s="46"/>
-      <c r="D16" s="33"/>
-      <c r="S16" s="33"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="27"/>
+      <c r="S16" s="27"/>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="S17" s="33"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="S17" s="27"/>
     </row>
     <row r="18" spans="3:19">
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="33"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="17"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="27"/>
     </row>
     <row r="19" spans="3:19" ht="13.5" thickBot="1">
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="20" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="20" t="s">
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="20" t="s">
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="35"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="29"/>
     </row>
     <row r="20" spans="3:19" ht="13.5" thickBot="1">
-      <c r="C20" s="33"/>
-      <c r="F20" s="21">
+      <c r="C20" s="27"/>
+      <c r="F20" s="18">
         <f>VLOOKUP(F19,$A$2:$H$10,8)</f>
         <v>14</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="40"/>
-      <c r="K20" s="21">
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="33"/>
+      <c r="K20" s="18">
         <f>VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="21">
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="18">
         <f>VLOOKUP(P19,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="23"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
     </row>
     <row r="21" spans="3:19">
-      <c r="C21" s="33"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="25"/>
+      <c r="C21" s="27"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="34"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="27"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="22"/>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="33"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="39"/>
+      <c r="C22" s="27"/>
+      <c r="N22" s="27"/>
     </row>
     <row r="23" spans="3:19">
-      <c r="C23" s="33"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="39"/>
+      <c r="C23" s="27"/>
+      <c r="N23" s="27"/>
     </row>
     <row r="24" spans="3:19">
-      <c r="C24" s="33"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="45">
+      <c r="C24" s="27"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="35"/>
+      <c r="K24" s="37">
         <f>H18</f>
         <v>0</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="19">
+      <c r="L24" s="16"/>
+      <c r="M24" s="17">
         <f>K24+K26</f>
         <v>14</v>
       </c>
-      <c r="N24" s="33"/>
-      <c r="O24" s="39"/>
+      <c r="N24" s="27"/>
     </row>
     <row r="25" spans="3:19" ht="13.5" thickBot="1">
-      <c r="C25" s="33"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="20" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="28" t="s">
+      <c r="G25" s="42"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="39"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="29"/>
     </row>
     <row r="26" spans="3:19">
-      <c r="F26" s="21">
+      <c r="F26" s="18">
         <f>VLOOKUP(F25,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="K26" s="21">
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="K26" s="18">
         <f>VLOOKUP(K25,$A$2:$H$10,8)</f>
         <v>14</v>
       </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="20"/>
     </row>
     <row r="27" spans="3:19">
-      <c r="F27" s="24"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="25"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="25"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="22"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="U13:W13"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="P19:R19"/>
     <mergeCell ref="K25:M25"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F25:H25"/>
     <mergeCell ref="P13:R13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V14">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559B4883-E629-4891-9D84-A4D18D9F93F4}">
+  <dimension ref="A1:AB29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="64" width="3.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="17"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="17"/>
+    </row>
+    <row r="15" spans="1:24" ht="13.5" thickBot="1">
+      <c r="A15" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="23"/>
+    </row>
+    <row r="16" spans="1:24" ht="13.5" thickBot="1">
+      <c r="A16" s="18">
+        <f>VLOOKUP(A15,$A$2:$H$12,8)</f>
+        <v>4</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="25"/>
+      <c r="F16" s="18">
+        <f>VLOOKUP(F15,$A$2:$H$12,8)</f>
+        <v>9</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="P16" s="18">
+        <f>VLOOKUP(P15,$A$2:$H$12,8)</f>
+        <v>11</v>
+      </c>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="18">
+        <f>VLOOKUP(U15,$A$2:$H$12,8)</f>
+        <v>10</v>
+      </c>
+      <c r="V16" s="19"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="51"/>
+    </row>
+    <row r="17" spans="1:28" ht="13.5" thickBot="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="26"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="22"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="17"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="C18" s="38"/>
+      <c r="D18" s="27"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="Z18" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="47"/>
+    </row>
+    <row r="19" spans="1:28" ht="13.5" thickBot="1">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="18">
+        <f>VLOOKUP(Z18,$A$2:$H$12,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="20"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="17"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="50"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="22"/>
+    </row>
+    <row r="21" spans="1:28" ht="13.5" thickBot="1">
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="29"/>
+    </row>
+    <row r="22" spans="1:28" ht="13.5" thickBot="1">
+      <c r="C22" s="27"/>
+      <c r="F22" s="18">
+        <f>VLOOKUP(F21,$A$2:$H$12,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="33"/>
+      <c r="K22" s="18">
+        <f>VLOOKUP(K21,$A$2:$H$12,8)</f>
+        <v>15</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="18">
+        <f>VLOOKUP(P21,$A$2:$H$12,8)</f>
+        <v>7</v>
+      </c>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20"/>
+      <c r="U22" s="18">
+        <f>VLOOKUP(U21,$A$2:$H$12,8)</f>
+        <v>10</v>
+      </c>
+      <c r="V22" s="19"/>
+      <c r="W22" s="20"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="C23" s="27"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="34"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="27"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="22"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="22"/>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="C24" s="27"/>
+      <c r="N24" s="27"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="C25" s="27"/>
+      <c r="N25" s="27"/>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="C26" s="27"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="35"/>
+      <c r="K26" s="37">
+        <f>H20</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="16"/>
+      <c r="M26" s="17">
+        <f>K26+K28</f>
+        <v>13</v>
+      </c>
+      <c r="N26" s="27"/>
+    </row>
+    <row r="27" spans="1:28" ht="13.5" thickBot="1">
+      <c r="C27" s="27"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="29"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="F28" s="18">
+        <f>VLOOKUP(F27,$A$2:$H$12,8)</f>
+        <v>15</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="K28" s="18">
+        <f>VLOOKUP(K27,$A$2:$H$12,8)</f>
+        <v>13</v>
+      </c>
+      <c r="L28" s="19"/>
+      <c r="M28" s="20"/>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="F29" s="21"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="22"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="U15:W15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+  <conditionalFormatting sqref="G28">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="L22">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="L28">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
+  <conditionalFormatting sqref="Q16">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
+  <conditionalFormatting sqref="Q22">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
+  <conditionalFormatting sqref="V16">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
+  <conditionalFormatting sqref="V22">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V14">
+  <conditionalFormatting sqref="AA19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/FIAEB Übungen/Netzplan_Übung.xlsx
+++ b/FIAEB Übungen/Netzplan_Übung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FIAEB Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D2BD8B-C223-40F2-BB06-09FA59827821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4FD4AD-C42E-446D-82E8-7022EA1429F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>kritischer Pfad</t>
+  </si>
+  <si>
+    <t>FP = kleinste FAZ(Nachfolger)- FEZ</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,79 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="51">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2513,67 +2588,67 @@
     <mergeCell ref="H39:P39"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="42" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="41" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2590,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -2786,21 +2861,50 @@
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="15"/>
+      <c r="A12" s="15">
+        <v>0</v>
+      </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="17">
+        <f>A12+A14</f>
+        <v>6</v>
+      </c>
+      <c r="F12" s="15">
+        <f>C12</f>
+        <v>6</v>
+      </c>
       <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="K12" s="15"/>
+      <c r="H12" s="17">
+        <f>F12+F14</f>
+        <v>13</v>
+      </c>
+      <c r="K12" s="15">
+        <f>H12</f>
+        <v>13</v>
+      </c>
       <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-      <c r="P12" s="15"/>
+      <c r="M12" s="17">
+        <f>K12+K14</f>
+        <v>17</v>
+      </c>
+      <c r="P12" s="15">
+        <f>M12</f>
+        <v>17</v>
+      </c>
       <c r="Q12" s="16"/>
-      <c r="R12" s="17"/>
-      <c r="U12" s="15"/>
+      <c r="R12" s="17">
+        <f>P12+P14</f>
+        <v>20</v>
+      </c>
+      <c r="U12" s="15">
+        <f>MAX(R12,R18)</f>
+        <v>24</v>
+      </c>
       <c r="V12" s="16"/>
-      <c r="W12" s="17"/>
+      <c r="W12" s="17">
+        <f>U12+U14</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="13.5" thickBot="1">
       <c r="A13" s="42" t="s">
@@ -2842,54 +2946,113 @@
         <f>VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="19">
+        <f>C15-C12</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="20">
+        <f>MIN(F12,F18)-C12</f>
+        <v>0</v>
+      </c>
       <c r="D14" s="25"/>
       <c r="F14" s="18">
         <f>VLOOKUP(F13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="19">
+        <f>H15-H12</f>
+        <v>4</v>
+      </c>
+      <c r="H14" s="20">
+        <f>K12-H12</f>
+        <v>0</v>
+      </c>
       <c r="K14" s="18">
         <f>VLOOKUP(K13,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
+      <c r="L14" s="19">
+        <f>M15-M12</f>
+        <v>4</v>
+      </c>
+      <c r="M14" s="20">
+        <f>P12-M12</f>
+        <v>0</v>
+      </c>
       <c r="P14" s="18">
         <f>VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>3</v>
       </c>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="20"/>
+      <c r="Q14" s="19">
+        <f>R15-R12</f>
+        <v>4</v>
+      </c>
+      <c r="R14" s="20">
+        <f>U12-R12</f>
+        <v>4</v>
+      </c>
       <c r="S14" s="33"/>
       <c r="T14" s="30"/>
       <c r="U14" s="18">
         <f>VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>2</v>
       </c>
-      <c r="V14" s="19"/>
-      <c r="W14" s="20"/>
+      <c r="V14" s="19">
+        <f>W15-W12</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="21"/>
+      <c r="A15" s="21">
+        <f>C15-A14</f>
+        <v>0</v>
+      </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="22"/>
+      <c r="C15" s="22">
+        <f>MIN(F15,F21)</f>
+        <v>6</v>
+      </c>
       <c r="D15" s="26"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21">
+        <f>H15-F14</f>
+        <v>10</v>
+      </c>
       <c r="G15" s="16"/>
-      <c r="H15" s="22"/>
-      <c r="K15" s="21"/>
+      <c r="H15" s="22">
+        <f>K15</f>
+        <v>17</v>
+      </c>
+      <c r="K15" s="21">
+        <f>M15-K14</f>
+        <v>17</v>
+      </c>
       <c r="L15" s="16"/>
-      <c r="M15" s="22"/>
-      <c r="P15" s="21"/>
+      <c r="M15" s="22">
+        <f>P15</f>
+        <v>21</v>
+      </c>
+      <c r="P15" s="21">
+        <f>R15-P14</f>
+        <v>21</v>
+      </c>
       <c r="Q15" s="16"/>
-      <c r="R15" s="22"/>
+      <c r="R15" s="22">
+        <f>U15</f>
+        <v>24</v>
+      </c>
       <c r="S15" s="27"/>
-      <c r="U15" s="21"/>
+      <c r="U15" s="21">
+        <f>W15-U14</f>
+        <v>24</v>
+      </c>
       <c r="V15" s="16"/>
-      <c r="W15" s="22"/>
+      <c r="W15" s="22">
+        <f>W12</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:23">
       <c r="D16" s="27"/>
@@ -2901,15 +3064,33 @@
     </row>
     <row r="18" spans="4:19">
       <c r="D18" s="27"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="15">
+        <f>C12</f>
+        <v>6</v>
+      </c>
       <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="K18" s="15"/>
+      <c r="H18" s="17">
+        <f>F18+F20</f>
+        <v>13</v>
+      </c>
+      <c r="K18" s="15">
+        <f>H18</f>
+        <v>13</v>
+      </c>
       <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-      <c r="P18" s="15"/>
+      <c r="M18" s="17">
+        <f>K18+K20</f>
+        <v>17</v>
+      </c>
+      <c r="P18" s="15">
+        <f>MAX(M18,M24)</f>
+        <v>18</v>
+      </c>
       <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
+      <c r="R18" s="17">
+        <f>P18+P20</f>
+        <v>24</v>
+      </c>
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="4:19" ht="13.5" thickBot="1">
@@ -2941,35 +3122,71 @@
         <f>VLOOKUP(F19,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+      <c r="G20" s="19">
+        <f>H21-H18</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="20">
+        <f>MIN(K18,K24)-H18</f>
+        <v>0</v>
+      </c>
       <c r="I20" s="25"/>
       <c r="K20" s="18">
         <f>VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
+      <c r="L20" s="19">
+        <f>M21-M18</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="20">
+        <f>P18-M18</f>
+        <v>1</v>
+      </c>
       <c r="O20" s="30"/>
       <c r="P20" s="18">
         <f>VLOOKUP(P19,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
+      <c r="Q20" s="19">
+        <f>R21-R18</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="20">
+        <f>U12-R18</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="4:19">
-      <c r="F21" s="21"/>
+      <c r="F21" s="21">
+        <f>H21-F20</f>
+        <v>6</v>
+      </c>
       <c r="G21" s="16"/>
-      <c r="H21" s="22"/>
+      <c r="H21" s="22">
+        <f>MIN(K21,K27)</f>
+        <v>13</v>
+      </c>
       <c r="I21" s="26"/>
-      <c r="K21" s="21"/>
+      <c r="K21" s="21">
+        <f>M21-K20</f>
+        <v>14</v>
+      </c>
       <c r="L21" s="16"/>
-      <c r="M21" s="22"/>
+      <c r="M21" s="22">
+        <f>P21</f>
+        <v>18</v>
+      </c>
       <c r="N21" s="27"/>
-      <c r="P21" s="21"/>
+      <c r="P21" s="21">
+        <f>R21-P20</f>
+        <v>18</v>
+      </c>
       <c r="Q21" s="16"/>
-      <c r="R21" s="22"/>
+      <c r="R21" s="22">
+        <f>U15</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="4:19">
       <c r="I22" s="27"/>
@@ -2983,12 +3200,12 @@
       <c r="I24" s="27"/>
       <c r="K24" s="15">
         <f>H18</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L24" s="16"/>
       <c r="M24" s="17">
         <f>K24+K26</f>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N24" s="27"/>
     </row>
@@ -3007,13 +3224,25 @@
         <f>VLOOKUP(K25,$A$2:$H$10,8)</f>
         <v>5</v>
       </c>
-      <c r="L26" s="19"/>
-      <c r="M26" s="20"/>
+      <c r="L26" s="19">
+        <f>M27-M24</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="20">
+        <f>P18-M24</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="4:19">
-      <c r="K27" s="21"/>
+      <c r="K27" s="21">
+        <f>M27-K26</f>
+        <v>13</v>
+      </c>
       <c r="L27" s="16"/>
-      <c r="M27" s="22"/>
+      <c r="M27" s="22">
+        <f>P21</f>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3029,53 +3258,53 @@
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="P19:R19"/>
   </mergeCells>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V14">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3093,7 +3322,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3270,6 +3499,16 @@
       <c r="H9" s="3">
         <v>15</v>
       </c>
+      <c r="P9" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="3" t="s">
@@ -3290,18 +3529,34 @@
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="15"/>
+      <c r="A12" s="15">
+        <v>0</v>
+      </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="17">
+        <v>15</v>
+      </c>
+      <c r="F12" s="15">
+        <v>15</v>
+      </c>
       <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="P12" s="15"/>
+      <c r="H12" s="17">
+        <v>21</v>
+      </c>
+      <c r="P12" s="15">
+        <v>21</v>
+      </c>
       <c r="Q12" s="16"/>
-      <c r="R12" s="17"/>
-      <c r="U12" s="15"/>
+      <c r="R12" s="17">
+        <v>28</v>
+      </c>
+      <c r="U12" s="15">
+        <v>59</v>
+      </c>
       <c r="V12" s="16"/>
-      <c r="W12" s="17"/>
+      <c r="W12" s="17">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="13.5" thickBot="1">
       <c r="A13" s="42" t="s">
@@ -3341,45 +3596,77 @@
         <f>VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="19">
+        <v>0</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
       <c r="D14" s="25"/>
       <c r="F14" s="18">
         <f>VLOOKUP(F13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="19">
+        <v>31</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0</v>
+      </c>
       <c r="P14" s="18">
         <f>VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="20"/>
+      <c r="Q14" s="19">
+        <v>31</v>
+      </c>
+      <c r="R14" s="20">
+        <v>31</v>
+      </c>
       <c r="S14" s="33"/>
       <c r="T14" s="30"/>
       <c r="U14" s="18">
         <f>VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="V14" s="19"/>
-      <c r="W14" s="20"/>
+      <c r="V14" s="19">
+        <v>0</v>
+      </c>
+      <c r="W14" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="21"/>
+      <c r="A15" s="21">
+        <v>0</v>
+      </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="22"/>
+      <c r="C15" s="22">
+        <v>15</v>
+      </c>
       <c r="D15" s="26"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21">
+        <v>46</v>
+      </c>
       <c r="G15" s="16"/>
-      <c r="H15" s="22"/>
-      <c r="P15" s="21"/>
+      <c r="H15" s="22">
+        <v>52</v>
+      </c>
+      <c r="P15" s="21">
+        <v>52</v>
+      </c>
       <c r="Q15" s="16"/>
-      <c r="R15" s="22"/>
+      <c r="R15" s="22">
+        <v>59</v>
+      </c>
       <c r="S15" s="27"/>
-      <c r="U15" s="21"/>
+      <c r="U15" s="21">
+        <v>59</v>
+      </c>
       <c r="V15" s="16"/>
-      <c r="W15" s="22"/>
+      <c r="W15" s="22">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:23">
       <c r="C16" s="38"/>
@@ -3394,15 +3681,27 @@
     <row r="18" spans="3:19">
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="15">
+        <v>15</v>
+      </c>
       <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="K18" s="15"/>
+      <c r="H18" s="17">
+        <v>29</v>
+      </c>
+      <c r="K18" s="15">
+        <v>29</v>
+      </c>
       <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-      <c r="P18" s="15"/>
+      <c r="M18" s="17">
+        <v>44</v>
+      </c>
+      <c r="P18" s="15">
+        <v>44</v>
+      </c>
       <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
+      <c r="R18" s="17">
+        <v>59</v>
+      </c>
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="3:19" ht="13.5" thickBot="1">
@@ -3436,35 +3735,59 @@
         <f>VLOOKUP(F19,$A$2:$H$10,8)</f>
         <v>14</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+      <c r="G20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="20">
+        <v>0</v>
+      </c>
       <c r="I20" s="33"/>
       <c r="K20" s="18">
         <f>VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
+      <c r="L20" s="19">
+        <v>0</v>
+      </c>
+      <c r="M20" s="20">
+        <v>0</v>
+      </c>
       <c r="O20" s="30"/>
       <c r="P20" s="18">
         <f>VLOOKUP(P19,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
+      <c r="Q20" s="19">
+        <v>0</v>
+      </c>
+      <c r="R20" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="3:19">
       <c r="C21" s="27"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="21">
+        <v>15</v>
+      </c>
       <c r="G21" s="16"/>
-      <c r="H21" s="34"/>
-      <c r="K21" s="36"/>
+      <c r="H21" s="34">
+        <v>29</v>
+      </c>
+      <c r="K21" s="36">
+        <v>29</v>
+      </c>
       <c r="L21" s="16"/>
-      <c r="M21" s="22"/>
+      <c r="M21" s="22">
+        <v>44</v>
+      </c>
       <c r="N21" s="27"/>
-      <c r="P21" s="36"/>
+      <c r="P21" s="36">
+        <v>44</v>
+      </c>
       <c r="Q21" s="16"/>
-      <c r="R21" s="22"/>
+      <c r="R21" s="22">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="3:19">
       <c r="C22" s="27"/>
@@ -3476,17 +3799,19 @@
     </row>
     <row r="24" spans="3:19">
       <c r="C24" s="27"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="15">
+        <v>15</v>
+      </c>
       <c r="G24" s="16"/>
-      <c r="H24" s="35"/>
+      <c r="H24" s="35">
+        <v>21</v>
+      </c>
       <c r="K24" s="37">
-        <f>H18</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L24" s="16"/>
       <c r="M24" s="17">
-        <f>K24+K26</f>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N24" s="27"/>
     </row>
@@ -3513,25 +3838,42 @@
         <f>VLOOKUP(F25,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
+      <c r="G26" s="19">
+        <v>9</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0</v>
+      </c>
       <c r="K26" s="18">
         <f>VLOOKUP(K25,$A$2:$H$10,8)</f>
         <v>14</v>
       </c>
-      <c r="L26" s="19"/>
-      <c r="M26" s="20"/>
+      <c r="L26" s="19">
+        <v>9</v>
+      </c>
+      <c r="M26" s="20">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="3:19">
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>24</v>
+      </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="22"/>
-      <c r="K27" s="21"/>
+      <c r="H27" s="22">
+        <v>30</v>
+      </c>
+      <c r="K27" s="21">
+        <v>30</v>
+      </c>
       <c r="L27" s="16"/>
-      <c r="M27" s="22"/>
+      <c r="M27" s="22">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="P9:W9"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A13:C13"/>
@@ -3545,47 +3887,47 @@
     <mergeCell ref="P13:R13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3602,7 +3944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559B4883-E629-4891-9D84-A4D18D9F93F4}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -4141,57 +4483,57 @@
     <mergeCell ref="U15:W15"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/FIAEB Übungen/Netzplan_Übung.xlsx
+++ b/FIAEB Übungen/Netzplan_Übung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FIAEB Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4FD4AD-C42E-446D-82E8-7022EA1429F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A223213-1A34-40A4-AF1C-102EF8005F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -640,17 +640,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,87 +658,17 @@
     <xf numFmtId="49" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
+  <dxfs count="43">
     <dxf>
       <font>
         <b/>
@@ -1863,46 +1790,46 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.5" thickBot="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="23"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="23"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="45" t="s">
+      <c r="K16" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="48"/>
       <c r="N16" s="23"/>
       <c r="O16" s="24"/>
-      <c r="P16" s="42" t="s">
+      <c r="P16" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
       <c r="S16" s="23"/>
       <c r="T16" s="24"/>
-      <c r="U16" s="42" t="s">
+      <c r="U16" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
       <c r="X16" s="23"/>
       <c r="Y16" s="24"/>
-      <c r="Z16" s="42" t="s">
+      <c r="Z16" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
     </row>
     <row r="17" spans="1:30" ht="13.5" thickBot="1">
       <c r="A17" s="18">
@@ -2044,32 +1971,32 @@
     <row r="21" spans="1:30" ht="13.5" thickBot="1">
       <c r="D21" s="27"/>
       <c r="E21" s="28"/>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="23"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
       <c r="N21" s="23"/>
       <c r="O21" s="24"/>
-      <c r="P21" s="42" t="s">
+      <c r="P21" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
       <c r="S21" s="23"/>
       <c r="T21" s="24"/>
-      <c r="U21" s="42" t="s">
+      <c r="U21" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
       <c r="X21" s="29"/>
     </row>
     <row r="22" spans="1:30" ht="13.5" thickBot="1">
@@ -2165,18 +2092,18 @@
     <row r="26" spans="1:30" ht="13.5" thickBot="1">
       <c r="I26" s="27"/>
       <c r="J26" s="28"/>
-      <c r="K26" s="42" t="s">
+      <c r="K26" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
       <c r="N26" s="23"/>
       <c r="O26" s="24"/>
-      <c r="P26" s="42" t="s">
+      <c r="P26" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
       <c r="S26" s="29"/>
     </row>
     <row r="27" spans="1:30">
@@ -2232,35 +2159,35 @@
       <c r="D36" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="41" t="s">
+      <c r="H36" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="H37" s="41" t="s">
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="H37" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="18" t="s">
@@ -2275,17 +2202,17 @@
       <c r="D38" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="41" t="s">
+      <c r="H38" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="21" t="s">
@@ -2298,17 +2225,17 @@
       <c r="D39" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="41" t="s">
+      <c r="H39" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
     </row>
     <row r="41" spans="1:16" ht="13.5">
       <c r="J41" s="9"/>
@@ -2392,11 +2319,11 @@
     </row>
     <row r="56" spans="1:11" ht="13.5">
       <c r="A56" s="8"/>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11" t="s">
         <v>18</v>
@@ -2566,18 +2493,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="U21:W21"/>
     <mergeCell ref="H36:P36"/>
     <mergeCell ref="H37:P37"/>
     <mergeCell ref="K26:M26"/>
@@ -2586,69 +2501,81 @@
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="H38:P38"/>
     <mergeCell ref="H39:P39"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="K16:M16"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="50" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="49" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="48" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="47" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="46" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17">
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2666,7 +2593,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -2866,80 +2793,71 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17">
-        <f>A12+A14</f>
         <v>6</v>
       </c>
       <c r="F12" s="15">
-        <f>C12</f>
         <v>6</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="17">
-        <f>F12+F14</f>
         <v>13</v>
       </c>
       <c r="K12" s="15">
-        <f>H12</f>
         <v>13</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="17">
-        <f>K12+K14</f>
         <v>17</v>
       </c>
       <c r="P12" s="15">
-        <f>M12</f>
         <v>17</v>
       </c>
       <c r="Q12" s="16"/>
       <c r="R12" s="17">
-        <f>P12+P14</f>
         <v>20</v>
       </c>
       <c r="U12" s="15">
-        <f>MAX(R12,R18)</f>
         <v>24</v>
       </c>
       <c r="V12" s="16"/>
       <c r="W12" s="17">
-        <f>U12+U14</f>
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
       <c r="I13" s="23"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="42" t="s">
+      <c r="K13" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
       <c r="N13" s="23"/>
       <c r="O13" s="24"/>
-      <c r="P13" s="42" t="s">
+      <c r="P13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
       <c r="S13" s="23"/>
       <c r="T13" s="24"/>
-      <c r="U13" s="42" t="s">
+      <c r="U13" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
     </row>
     <row r="14" spans="1:23" ht="13.5" thickBot="1">
       <c r="A14" s="18">
@@ -2947,11 +2865,9 @@
         <v>6</v>
       </c>
       <c r="B14" s="19">
-        <f>C15-C12</f>
         <v>0</v>
       </c>
       <c r="C14" s="20">
-        <f>MIN(F12,F18)-C12</f>
         <v>0</v>
       </c>
       <c r="D14" s="25"/>
@@ -2960,11 +2876,9 @@
         <v>7</v>
       </c>
       <c r="G14" s="19">
-        <f>H15-H12</f>
         <v>4</v>
       </c>
       <c r="H14" s="20">
-        <f>K12-H12</f>
         <v>0</v>
       </c>
       <c r="K14" s="18">
@@ -2972,11 +2886,9 @@
         <v>4</v>
       </c>
       <c r="L14" s="19">
-        <f>M15-M12</f>
         <v>4</v>
       </c>
       <c r="M14" s="20">
-        <f>P12-M12</f>
         <v>0</v>
       </c>
       <c r="P14" s="18">
@@ -2984,11 +2896,9 @@
         <v>3</v>
       </c>
       <c r="Q14" s="19">
-        <f>R15-R12</f>
         <v>4</v>
       </c>
       <c r="R14" s="20">
-        <f>U12-R12</f>
         <v>4</v>
       </c>
       <c r="S14" s="33"/>
@@ -2998,7 +2908,6 @@
         <v>2</v>
       </c>
       <c r="V14" s="19">
-        <f>W15-W12</f>
         <v>0</v>
       </c>
       <c r="W14" s="20">
@@ -3007,50 +2916,40 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="21">
-        <f>C15-A14</f>
         <v>0</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="22">
-        <f>MIN(F15,F21)</f>
         <v>6</v>
       </c>
       <c r="D15" s="26"/>
       <c r="F15" s="21">
-        <f>H15-F14</f>
         <v>10</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="22">
-        <f>K15</f>
         <v>17</v>
       </c>
       <c r="K15" s="21">
-        <f>M15-K14</f>
         <v>17</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="22">
-        <f>P15</f>
         <v>21</v>
       </c>
       <c r="P15" s="21">
-        <f>R15-P14</f>
         <v>21</v>
       </c>
       <c r="Q15" s="16"/>
       <c r="R15" s="22">
-        <f>U15</f>
         <v>24</v>
       </c>
       <c r="S15" s="27"/>
       <c r="U15" s="21">
-        <f>W15-U14</f>
         <v>24</v>
       </c>
       <c r="V15" s="16"/>
       <c r="W15" s="22">
-        <f>W12</f>
         <v>26</v>
       </c>
     </row>
@@ -3065,30 +2964,24 @@
     <row r="18" spans="4:19">
       <c r="D18" s="27"/>
       <c r="F18" s="15">
-        <f>C12</f>
         <v>6</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="17">
-        <f>F18+F20</f>
         <v>13</v>
       </c>
       <c r="K18" s="15">
-        <f>H18</f>
         <v>13</v>
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="17">
-        <f>K18+K20</f>
         <v>17</v>
       </c>
       <c r="P18" s="15">
-        <f>MAX(M18,M24)</f>
         <v>18</v>
       </c>
       <c r="Q18" s="16"/>
       <c r="R18" s="17">
-        <f>P18+P20</f>
         <v>24</v>
       </c>
       <c r="S18" s="27"/>
@@ -3096,25 +2989,25 @@
     <row r="19" spans="4:19" ht="13.5" thickBot="1">
       <c r="D19" s="27"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="23"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="42" t="s">
+      <c r="K19" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
       <c r="N19" s="23"/>
       <c r="O19" s="24"/>
-      <c r="P19" s="42" t="s">
+      <c r="P19" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
       <c r="S19" s="29"/>
     </row>
     <row r="20" spans="4:19" ht="13.5" thickBot="1">
@@ -3123,11 +3016,9 @@
         <v>7</v>
       </c>
       <c r="G20" s="19">
-        <f>H21-H18</f>
         <v>0</v>
       </c>
       <c r="H20" s="20">
-        <f>MIN(K18,K24)-H18</f>
         <v>0</v>
       </c>
       <c r="I20" s="25"/>
@@ -3136,11 +3027,9 @@
         <v>4</v>
       </c>
       <c r="L20" s="19">
-        <f>M21-M18</f>
         <v>1</v>
       </c>
       <c r="M20" s="20">
-        <f>P18-M18</f>
         <v>1</v>
       </c>
       <c r="O20" s="30"/>
@@ -3149,42 +3038,34 @@
         <v>6</v>
       </c>
       <c r="Q20" s="19">
-        <f>R21-R18</f>
         <v>0</v>
       </c>
       <c r="R20" s="20">
-        <f>U12-R18</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="4:19">
       <c r="F21" s="21">
-        <f>H21-F20</f>
         <v>6</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="22">
-        <f>MIN(K21,K27)</f>
         <v>13</v>
       </c>
       <c r="I21" s="26"/>
       <c r="K21" s="21">
-        <f>M21-K20</f>
         <v>14</v>
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="22">
-        <f>P21</f>
         <v>18</v>
       </c>
       <c r="N21" s="27"/>
       <c r="P21" s="21">
-        <f>R21-P20</f>
         <v>18</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="22">
-        <f>U15</f>
         <v>24</v>
       </c>
     </row>
@@ -3199,12 +3080,10 @@
     <row r="24" spans="4:19">
       <c r="I24" s="27"/>
       <c r="K24" s="15">
-        <f>H18</f>
         <v>13</v>
       </c>
       <c r="L24" s="16"/>
       <c r="M24" s="17">
-        <f>K24+K26</f>
         <v>18</v>
       </c>
       <c r="N24" s="27"/>
@@ -3212,11 +3091,11 @@
     <row r="25" spans="4:19" ht="13.5" thickBot="1">
       <c r="I25" s="27"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="42" t="s">
+      <c r="K25" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="29"/>
     </row>
     <row r="26" spans="4:19">
@@ -3225,86 +3104,82 @@
         <v>5</v>
       </c>
       <c r="L26" s="19">
-        <f>M27-M24</f>
         <v>0</v>
       </c>
       <c r="M26" s="20">
-        <f>P18-M24</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="4:19">
       <c r="K27" s="21">
-        <f>M27-K26</f>
         <v>13</v>
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="22">
-        <f>P21</f>
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="K13:M13"/>
     <mergeCell ref="K25:M25"/>
     <mergeCell ref="P13:R13"/>
     <mergeCell ref="U13:W13"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="P19:R19"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K13:M13"/>
   </mergeCells>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3322,7 +3197,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3499,16 +3374,16 @@
       <c r="H9" s="3">
         <v>15</v>
       </c>
-      <c r="P9" s="41" t="s">
+      <c r="P9" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="3" t="s">
@@ -3529,48 +3404,32 @@
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="15">
-        <v>0</v>
-      </c>
+      <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="17">
-        <v>15</v>
-      </c>
-      <c r="F12" s="15">
-        <v>15</v>
-      </c>
+      <c r="C12" s="17"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="17">
-        <v>21</v>
-      </c>
-      <c r="P12" s="15">
-        <v>21</v>
-      </c>
+      <c r="H12" s="17"/>
+      <c r="P12" s="15"/>
       <c r="Q12" s="16"/>
-      <c r="R12" s="17">
-        <v>28</v>
-      </c>
-      <c r="U12" s="15">
-        <v>59</v>
-      </c>
+      <c r="R12" s="17"/>
+      <c r="U12" s="15"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="17">
-        <v>63</v>
-      </c>
+      <c r="W12" s="17"/>
     </row>
     <row r="13" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
       <c r="I13" s="23"/>
       <c r="J13" s="24"/>
       <c r="K13" s="23"/>
@@ -3578,95 +3437,63 @@
       <c r="M13" s="24"/>
       <c r="N13" s="23"/>
       <c r="O13" s="24"/>
-      <c r="P13" s="42" t="s">
+      <c r="P13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
       <c r="S13" s="23"/>
       <c r="T13" s="24"/>
-      <c r="U13" s="42" t="s">
+      <c r="U13" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
     </row>
     <row r="14" spans="1:23" ht="13.5" thickBot="1">
       <c r="A14" s="18">
         <f>VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="B14" s="19">
-        <v>0</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0</v>
-      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="25"/>
       <c r="F14" s="18">
         <f>VLOOKUP(F13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G14" s="19">
-        <v>31</v>
-      </c>
-      <c r="H14" s="20">
-        <v>0</v>
-      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
       <c r="P14" s="18">
         <f>VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="Q14" s="19">
-        <v>31</v>
-      </c>
-      <c r="R14" s="20">
-        <v>31</v>
-      </c>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20"/>
       <c r="S14" s="33"/>
       <c r="T14" s="30"/>
       <c r="U14" s="18">
         <f>VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="V14" s="19">
-        <v>0</v>
-      </c>
-      <c r="W14" s="20">
-        <v>0</v>
-      </c>
+      <c r="V14" s="19"/>
+      <c r="W14" s="20"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="21">
-        <v>0</v>
-      </c>
+      <c r="A15" s="21"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="22">
-        <v>15</v>
-      </c>
+      <c r="C15" s="22"/>
       <c r="D15" s="26"/>
-      <c r="F15" s="21">
-        <v>46</v>
-      </c>
+      <c r="F15" s="21"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="22">
-        <v>52</v>
-      </c>
-      <c r="P15" s="21">
-        <v>52</v>
-      </c>
+      <c r="H15" s="22"/>
+      <c r="P15" s="21"/>
       <c r="Q15" s="16"/>
-      <c r="R15" s="22">
-        <v>59</v>
-      </c>
+      <c r="R15" s="22"/>
       <c r="S15" s="27"/>
-      <c r="U15" s="21">
-        <v>59</v>
-      </c>
+      <c r="U15" s="21"/>
       <c r="V15" s="16"/>
-      <c r="W15" s="22">
-        <v>63</v>
-      </c>
+      <c r="W15" s="22"/>
     </row>
     <row r="16" spans="1:23">
       <c r="C16" s="38"/>
@@ -3681,52 +3508,40 @@
     <row r="18" spans="3:19">
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="F18" s="15">
-        <v>15</v>
-      </c>
+      <c r="F18" s="15"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="17">
-        <v>29</v>
-      </c>
-      <c r="K18" s="15">
-        <v>29</v>
-      </c>
+      <c r="H18" s="17"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="17">
-        <v>44</v>
-      </c>
-      <c r="P18" s="15">
-        <v>44</v>
-      </c>
+      <c r="M18" s="17"/>
+      <c r="P18" s="15"/>
       <c r="Q18" s="16"/>
-      <c r="R18" s="17">
-        <v>59</v>
-      </c>
+      <c r="R18" s="17"/>
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="3:19" ht="13.5" thickBot="1">
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="23"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="42" t="s">
+      <c r="K19" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
       <c r="N19" s="23"/>
       <c r="O19" s="24"/>
-      <c r="P19" s="42" t="s">
+      <c r="P19" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
       <c r="S19" s="29"/>
     </row>
     <row r="20" spans="3:19" ht="13.5" thickBot="1">
@@ -3735,59 +3550,35 @@
         <f>VLOOKUP(F19,$A$2:$H$10,8)</f>
         <v>14</v>
       </c>
-      <c r="G20" s="19">
-        <v>0</v>
-      </c>
-      <c r="H20" s="20">
-        <v>0</v>
-      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="33"/>
       <c r="K20" s="18">
         <f>VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="L20" s="19">
-        <v>0</v>
-      </c>
-      <c r="M20" s="20">
-        <v>0</v>
-      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
       <c r="O20" s="30"/>
       <c r="P20" s="18">
         <f>VLOOKUP(P19,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="Q20" s="19">
-        <v>0</v>
-      </c>
-      <c r="R20" s="20">
-        <v>0</v>
-      </c>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
     </row>
     <row r="21" spans="3:19">
       <c r="C21" s="27"/>
-      <c r="F21" s="21">
-        <v>15</v>
-      </c>
+      <c r="F21" s="21"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="34">
-        <v>29</v>
-      </c>
-      <c r="K21" s="36">
-        <v>29</v>
-      </c>
+      <c r="H21" s="34"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="22">
-        <v>44</v>
-      </c>
+      <c r="M21" s="22"/>
       <c r="N21" s="27"/>
-      <c r="P21" s="36">
-        <v>44</v>
-      </c>
+      <c r="P21" s="36"/>
       <c r="Q21" s="16"/>
-      <c r="R21" s="22">
-        <v>59</v>
-      </c>
+      <c r="R21" s="22"/>
     </row>
     <row r="22" spans="3:19">
       <c r="C22" s="27"/>
@@ -3799,38 +3590,30 @@
     </row>
     <row r="24" spans="3:19">
       <c r="C24" s="27"/>
-      <c r="F24" s="15">
-        <v>15</v>
-      </c>
+      <c r="F24" s="15"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="35">
-        <v>21</v>
-      </c>
-      <c r="K24" s="37">
-        <v>21</v>
-      </c>
+      <c r="H24" s="35"/>
+      <c r="K24" s="37"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="17">
-        <v>35</v>
-      </c>
+      <c r="M24" s="17"/>
       <c r="N24" s="27"/>
     </row>
     <row r="25" spans="3:19" ht="13.5" thickBot="1">
       <c r="C25" s="27"/>
       <c r="D25" s="39"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="40"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="47" t="s">
+      <c r="K25" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="29"/>
     </row>
     <row r="26" spans="3:19">
@@ -3838,46 +3621,25 @@
         <f>VLOOKUP(F25,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G26" s="19">
-        <v>9</v>
-      </c>
-      <c r="H26" s="20">
-        <v>0</v>
-      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
       <c r="K26" s="18">
         <f>VLOOKUP(K25,$A$2:$H$10,8)</f>
         <v>14</v>
       </c>
-      <c r="L26" s="19">
-        <v>9</v>
-      </c>
-      <c r="M26" s="20">
-        <v>9</v>
-      </c>
+      <c r="L26" s="19"/>
+      <c r="M26" s="20"/>
     </row>
     <row r="27" spans="3:19">
-      <c r="F27" s="21">
-        <v>24</v>
-      </c>
+      <c r="F27" s="21"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="22">
-        <v>30</v>
-      </c>
-      <c r="K27" s="21">
-        <v>30</v>
-      </c>
+      <c r="H27" s="22"/>
+      <c r="K27" s="21"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="22">
-        <v>44</v>
-      </c>
+      <c r="M27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="P9:W9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="U13:W13"/>
     <mergeCell ref="F19:H19"/>
@@ -3885,49 +3647,54 @@
     <mergeCell ref="P19:R19"/>
     <mergeCell ref="K25:M25"/>
     <mergeCell ref="P13:R13"/>
+    <mergeCell ref="P9:W9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3945,7 +3712,7 @@
   <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A14" activeCellId="32" sqref="A29:AC29 L28:AC28 G28:J28 A28:E28 N27:AC27 I27:J27 A27:E27 A23:AC26 V22:AC22 Q22:T22 L22:O22 G22:J22 A22:E22 X21:AC21 S21:T21 N21:O21 I21:J21 A21:E21 A20:AC20 AA19:AC19 A19:Y19 AC18 A18:Y18 A17:AC17 V16:AC16 Q16:T16 G16:O16 B16:E16 X15:AC15 S15:T15 I15:O15 D15:E15 A14:AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -4194,18 +3961,18 @@
       <c r="W14" s="17"/>
     </row>
     <row r="15" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="23"/>
       <c r="J15" s="24"/>
       <c r="K15" s="23"/>
@@ -4213,18 +3980,18 @@
       <c r="M15" s="24"/>
       <c r="N15" s="23"/>
       <c r="O15" s="24"/>
-      <c r="P15" s="42" t="s">
+      <c r="P15" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
       <c r="S15" s="23"/>
       <c r="T15" s="24"/>
-      <c r="U15" s="42" t="s">
+      <c r="U15" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
       <c r="X15" s="23"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" thickBot="1">
@@ -4248,14 +4015,14 @@
       <c r="Q16" s="19"/>
       <c r="R16" s="20"/>
       <c r="S16" s="33"/>
-      <c r="T16" s="48"/>
+      <c r="T16" s="41"/>
       <c r="U16" s="18">
         <f>VLOOKUP(U15,$A$2:$H$12,8)</f>
         <v>10</v>
       </c>
       <c r="V16" s="19"/>
       <c r="W16" s="20"/>
-      <c r="X16" s="51"/>
+      <c r="X16" s="43"/>
     </row>
     <row r="17" spans="1:28" ht="13.5" thickBot="1">
       <c r="A17" s="21"/>
@@ -4268,12 +4035,10 @@
       <c r="P17" s="21"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="34"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="36"/>
+      <c r="U17" s="21"/>
       <c r="V17" s="16"/>
       <c r="W17" s="22"/>
-      <c r="X17" s="50"/>
+      <c r="X17" s="42"/>
       <c r="Y17" s="28"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="16"/>
@@ -4282,19 +4047,15 @@
     <row r="18" spans="1:28">
       <c r="C18" s="38"/>
       <c r="D18" s="27"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="Z18" s="45" t="s">
+      <c r="Z18" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="48"/>
     </row>
     <row r="19" spans="1:28" ht="13.5" thickBot="1">
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
       <c r="Y19" s="24"/>
       <c r="Z19" s="18">
         <f>VLOOKUP(Z18,$A$2:$H$12,8)</f>
@@ -4314,13 +4075,11 @@
       <c r="M20" s="17"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="16"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
+      <c r="R20" s="17"/>
       <c r="U20" s="37"/>
       <c r="V20" s="16"/>
       <c r="W20" s="17"/>
-      <c r="X20" s="50"/>
+      <c r="X20" s="42"/>
       <c r="Z20" s="21"/>
       <c r="AA20" s="16"/>
       <c r="AB20" s="22"/>
@@ -4329,32 +4088,32 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="28"/>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="23"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
       <c r="N21" s="23"/>
       <c r="O21" s="24"/>
-      <c r="P21" s="42" t="s">
+      <c r="P21" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="46"/>
       <c r="S21" s="40"/>
       <c r="T21" s="40"/>
-      <c r="U21" s="47" t="s">
+      <c r="U21" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
       <c r="X21" s="29"/>
     </row>
     <row r="22" spans="1:28" ht="13.5" thickBot="1">
@@ -4390,12 +4149,12 @@
       <c r="C23" s="27"/>
       <c r="F23" s="21"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="34"/>
-      <c r="K23" s="36"/>
+      <c r="H23" s="22"/>
+      <c r="K23" s="21"/>
       <c r="L23" s="16"/>
       <c r="M23" s="22"/>
       <c r="N23" s="27"/>
-      <c r="P23" s="36"/>
+      <c r="P23" s="21"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="22"/>
       <c r="U23" s="21"/>
@@ -4414,34 +4173,28 @@
       <c r="C26" s="27"/>
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="35"/>
-      <c r="K26" s="37">
-        <f>H20</f>
-        <v>0</v>
-      </c>
+      <c r="H26" s="17"/>
+      <c r="K26" s="37"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="17">
-        <f>K26+K28</f>
-        <v>13</v>
-      </c>
+      <c r="M26" s="17"/>
       <c r="N26" s="27"/>
     </row>
     <row r="27" spans="1:28" ht="13.5" thickBot="1">
       <c r="C27" s="27"/>
       <c r="D27" s="39"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="47" t="s">
+      <c r="K27" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
       <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:28">
@@ -4468,6 +4221,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="P15:R15"/>
     <mergeCell ref="Z18:AB18"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="K21:M21"/>
@@ -4475,65 +4234,59 @@
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="U21:W21"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="U15:W15"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/FIAEB Übungen/Netzplan_Übung.xlsx
+++ b/FIAEB Übungen/Netzplan_Übung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FIAEB Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A223213-1A34-40A4-AF1C-102EF8005F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AB7444-AED8-4176-A311-5FFBC06A695B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -628,15 +628,6 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -668,7 +659,187 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="63">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1456,16 +1627,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1790,46 +1961,46 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.5" thickBot="1">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="23"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
       <c r="I16" s="23"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="46" t="s">
+      <c r="K16" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
       <c r="N16" s="23"/>
       <c r="O16" s="24"/>
-      <c r="P16" s="45" t="s">
+      <c r="P16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
       <c r="S16" s="23"/>
       <c r="T16" s="24"/>
-      <c r="U16" s="45" t="s">
+      <c r="U16" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
       <c r="X16" s="23"/>
       <c r="Y16" s="24"/>
-      <c r="Z16" s="45" t="s">
+      <c r="Z16" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
     </row>
     <row r="17" spans="1:30" ht="13.5" thickBot="1">
       <c r="A17" s="18">
@@ -1971,32 +2142,32 @@
     <row r="21" spans="1:30" ht="13.5" thickBot="1">
       <c r="D21" s="27"/>
       <c r="E21" s="28"/>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
       <c r="I21" s="23"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="45" t="s">
+      <c r="K21" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
       <c r="N21" s="23"/>
       <c r="O21" s="24"/>
-      <c r="P21" s="45" t="s">
+      <c r="P21" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
       <c r="S21" s="23"/>
       <c r="T21" s="24"/>
-      <c r="U21" s="45" t="s">
+      <c r="U21" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
       <c r="X21" s="29"/>
     </row>
     <row r="22" spans="1:30" ht="13.5" thickBot="1">
@@ -2092,18 +2263,18 @@
     <row r="26" spans="1:30" ht="13.5" thickBot="1">
       <c r="I26" s="27"/>
       <c r="J26" s="28"/>
-      <c r="K26" s="45" t="s">
+      <c r="K26" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
       <c r="N26" s="23"/>
       <c r="O26" s="24"/>
-      <c r="P26" s="45" t="s">
+      <c r="P26" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
       <c r="S26" s="29"/>
     </row>
     <row r="27" spans="1:30">
@@ -2159,35 +2330,35 @@
       <c r="D36" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="49" t="s">
+      <c r="H36" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="H37" s="49" t="s">
+      <c r="A37" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="H37" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="18" t="s">
@@ -2202,17 +2373,17 @@
       <c r="D38" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="49" t="s">
+      <c r="H38" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="21" t="s">
@@ -2225,17 +2396,17 @@
       <c r="D39" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="49" t="s">
+      <c r="H39" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
     </row>
     <row r="41" spans="1:16" ht="13.5">
       <c r="J41" s="9"/>
@@ -2319,11 +2490,11 @@
     </row>
     <row r="56" spans="1:11" ht="13.5">
       <c r="A56" s="8"/>
-      <c r="B56" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
+      <c r="B56" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11" t="s">
         <v>18</v>
@@ -2515,67 +2686,67 @@
     <mergeCell ref="K16:M16"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="42" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="41" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2592,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -2605,16 +2776,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2825,39 +2996,39 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
       <c r="I13" s="23"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="45" t="s">
+      <c r="K13" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
       <c r="N13" s="23"/>
       <c r="O13" s="24"/>
-      <c r="P13" s="45" t="s">
+      <c r="P13" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
       <c r="S13" s="23"/>
       <c r="T13" s="24"/>
-      <c r="U13" s="45" t="s">
+      <c r="U13" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
     </row>
     <row r="14" spans="1:23" ht="13.5" thickBot="1">
       <c r="A14" s="18">
@@ -2989,25 +3160,25 @@
     <row r="19" spans="4:19" ht="13.5" thickBot="1">
       <c r="D19" s="27"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
       <c r="I19" s="23"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="45" t="s">
+      <c r="K19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
       <c r="N19" s="23"/>
       <c r="O19" s="24"/>
-      <c r="P19" s="45" t="s">
+      <c r="P19" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
       <c r="S19" s="29"/>
     </row>
     <row r="20" spans="4:19" ht="13.5" thickBot="1">
@@ -3091,11 +3262,11 @@
     <row r="25" spans="4:19" ht="13.5" thickBot="1">
       <c r="I25" s="27"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="45" t="s">
+      <c r="K25" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
       <c r="N25" s="29"/>
     </row>
     <row r="26" spans="4:19">
@@ -3134,52 +3305,52 @@
     <mergeCell ref="K13:M13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3194,10 +3365,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E524FB-B682-44FE-8792-8A0C735BF777}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3205,25 +3376,25 @@
     <col min="1" max="64" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:28">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:28">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3243,7 +3414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -3261,7 +3432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:28">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -3279,7 +3450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:28">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,7 +3468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:28">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -3315,7 +3486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:28">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -3333,7 +3504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:28">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -3355,7 +3526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:28">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -3374,18 +3545,18 @@
       <c r="H9" s="3">
         <v>15</v>
       </c>
-      <c r="P9" s="49" t="s">
+      <c r="P9" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -3403,100 +3574,193 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="15"/>
+    <row r="12" spans="1:28">
+      <c r="A12" s="15">
+        <v>0</v>
+      </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="17">
+        <f>A12+A14</f>
+        <v>15</v>
+      </c>
+      <c r="F12" s="15">
+        <f>C12</f>
+        <v>15</v>
+      </c>
       <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="P12" s="15"/>
+      <c r="H12" s="17">
+        <f>F12+F14</f>
+        <v>21</v>
+      </c>
+      <c r="P12" s="15">
+        <f>H12</f>
+        <v>21</v>
+      </c>
       <c r="Q12" s="16"/>
-      <c r="R12" s="17"/>
-      <c r="U12" s="15"/>
+      <c r="R12" s="17">
+        <f>P12+P14</f>
+        <v>28</v>
+      </c>
+      <c r="U12" s="15">
+        <f>MAX(R12,R18)</f>
+        <v>59</v>
+      </c>
       <c r="V12" s="16"/>
-      <c r="W12" s="17"/>
-    </row>
-    <row r="13" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A13" s="45" t="s">
+      <c r="W12" s="17">
+        <f>U12+U14</f>
+        <v>63</v>
+      </c>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="17">
+        <f>Z12+Z14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="13.5" thickBot="1">
+      <c r="A13" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
       <c r="I13" s="23"/>
       <c r="J13" s="24"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="40"/>
+      <c r="L13" s="37"/>
       <c r="M13" s="24"/>
       <c r="N13" s="23"/>
       <c r="O13" s="24"/>
-      <c r="P13" s="45" t="s">
+      <c r="P13" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
       <c r="S13" s="23"/>
       <c r="T13" s="24"/>
-      <c r="U13" s="45" t="s">
+      <c r="U13" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-    </row>
-    <row r="14" spans="1:23" ht="13.5" thickBot="1">
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+    </row>
+    <row r="14" spans="1:28" ht="13.5" thickBot="1">
       <c r="A14" s="18">
         <f>VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="19">
+        <f>C15-C12</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="20">
+        <f>MIN(F12,F18,F24)-C12</f>
+        <v>0</v>
+      </c>
       <c r="D14" s="25"/>
       <c r="F14" s="18">
         <f>VLOOKUP(F13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="19">
+        <f>H15-H12</f>
+        <v>31</v>
+      </c>
+      <c r="H14" s="20">
+        <f>P12-H12</f>
+        <v>0</v>
+      </c>
       <c r="P14" s="18">
         <f>VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="20"/>
+      <c r="Q14" s="19">
+        <f>R15-R12</f>
+        <v>31</v>
+      </c>
+      <c r="R14" s="20">
+        <f>U12-R12</f>
+        <v>31</v>
+      </c>
       <c r="S14" s="33"/>
       <c r="T14" s="30"/>
       <c r="U14" s="18">
         <f>VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="V14" s="19"/>
-      <c r="W14" s="20"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="21"/>
+      <c r="V14" s="19">
+        <f>W15-W12</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="19">
+        <f>AB15-AB12</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="21">
+        <f>C15-A14</f>
+        <v>0</v>
+      </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="22"/>
+      <c r="C15" s="22">
+        <f>MIN(F15,F21,F27)</f>
+        <v>15</v>
+      </c>
       <c r="D15" s="26"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21">
+        <f>H15-F14</f>
+        <v>46</v>
+      </c>
       <c r="G15" s="16"/>
-      <c r="H15" s="22"/>
-      <c r="P15" s="21"/>
+      <c r="H15" s="22">
+        <f>P15</f>
+        <v>52</v>
+      </c>
+      <c r="P15" s="21">
+        <f>R15-P14</f>
+        <v>52</v>
+      </c>
       <c r="Q15" s="16"/>
-      <c r="R15" s="22"/>
+      <c r="R15" s="22">
+        <f>U15</f>
+        <v>59</v>
+      </c>
       <c r="S15" s="27"/>
-      <c r="U15" s="21"/>
+      <c r="U15" s="21">
+        <f>W15-U14</f>
+        <v>59</v>
+      </c>
       <c r="V15" s="16"/>
-      <c r="W15" s="22"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="C16" s="38"/>
+      <c r="W15" s="22">
+        <f>W12</f>
+        <v>63</v>
+      </c>
+      <c r="Z15" s="21">
+        <f>AB15-Z14</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="22"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="C16" s="35"/>
       <c r="D16" s="27"/>
       <c r="S16" s="27"/>
     </row>
@@ -3508,40 +3772,58 @@
     <row r="18" spans="3:19">
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="15">
+        <f>C12</f>
+        <v>15</v>
+      </c>
       <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="K18" s="15"/>
+      <c r="H18" s="17">
+        <f>F18+F20</f>
+        <v>29</v>
+      </c>
+      <c r="K18" s="15">
+        <f>H18</f>
+        <v>29</v>
+      </c>
       <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-      <c r="P18" s="15"/>
+      <c r="M18" s="17">
+        <f>K18+K20</f>
+        <v>44</v>
+      </c>
+      <c r="P18" s="15">
+        <f>MAX(M18,M24)</f>
+        <v>44</v>
+      </c>
       <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
+      <c r="R18" s="17">
+        <f>P18+P20</f>
+        <v>59</v>
+      </c>
       <c r="S18" s="27"/>
     </row>
     <row r="19" spans="3:19" ht="13.5" thickBot="1">
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
       <c r="I19" s="23"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="45" t="s">
+      <c r="K19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
       <c r="N19" s="23"/>
       <c r="O19" s="24"/>
-      <c r="P19" s="45" t="s">
+      <c r="P19" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
       <c r="S19" s="29"/>
     </row>
     <row r="20" spans="3:19" ht="13.5" thickBot="1">
@@ -3550,35 +3832,71 @@
         <f>VLOOKUP(F19,$A$2:$H$10,8)</f>
         <v>14</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+      <c r="G20" s="19">
+        <f>H21-H18</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="20">
+        <f>K18-H18</f>
+        <v>0</v>
+      </c>
       <c r="I20" s="33"/>
       <c r="K20" s="18">
         <f>VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
+      <c r="L20" s="19">
+        <f>M21-M18</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="20">
+        <f>P18-M18</f>
+        <v>0</v>
+      </c>
       <c r="O20" s="30"/>
       <c r="P20" s="18">
         <f>VLOOKUP(P19,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
+      <c r="Q20" s="19">
+        <f>R21-R18</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="20">
+        <f>U12-R18</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="3:19">
       <c r="C21" s="27"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="21">
+        <f>H21-F20</f>
+        <v>15</v>
+      </c>
       <c r="G21" s="16"/>
-      <c r="H21" s="34"/>
-      <c r="K21" s="36"/>
+      <c r="H21" s="22">
+        <f>K21</f>
+        <v>29</v>
+      </c>
+      <c r="K21" s="21">
+        <f>M21-K20</f>
+        <v>29</v>
+      </c>
       <c r="L21" s="16"/>
-      <c r="M21" s="22"/>
+      <c r="M21" s="22">
+        <f>P21</f>
+        <v>44</v>
+      </c>
       <c r="N21" s="27"/>
-      <c r="P21" s="36"/>
+      <c r="P21" s="21">
+        <f>R21-P20</f>
+        <v>44</v>
+      </c>
       <c r="Q21" s="16"/>
-      <c r="R21" s="22"/>
+      <c r="R21" s="22">
+        <f>U15</f>
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="3:19">
       <c r="C22" s="27"/>
@@ -3590,30 +3908,42 @@
     </row>
     <row r="24" spans="3:19">
       <c r="C24" s="27"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="15">
+        <f>C12</f>
+        <v>15</v>
+      </c>
       <c r="G24" s="16"/>
-      <c r="H24" s="35"/>
-      <c r="K24" s="37"/>
+      <c r="H24" s="17">
+        <f>F24+F26</f>
+        <v>21</v>
+      </c>
+      <c r="K24" s="15">
+        <f>H24</f>
+        <v>21</v>
+      </c>
       <c r="L24" s="16"/>
-      <c r="M24" s="17"/>
+      <c r="M24" s="17">
+        <f>K24+K26</f>
+        <v>35</v>
+      </c>
       <c r="N24" s="27"/>
     </row>
     <row r="25" spans="3:19" ht="13.5" thickBot="1">
       <c r="C25" s="27"/>
-      <c r="D25" s="39"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="48" t="s">
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
       <c r="N25" s="29"/>
     </row>
     <row r="26" spans="3:19">
@@ -3621,25 +3951,50 @@
         <f>VLOOKUP(F25,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
+      <c r="G26" s="19">
+        <f>H27-H24</f>
+        <v>9</v>
+      </c>
+      <c r="H26" s="20">
+        <f>K24-H24</f>
+        <v>0</v>
+      </c>
       <c r="K26" s="18">
         <f>VLOOKUP(K25,$A$2:$H$10,8)</f>
         <v>14</v>
       </c>
-      <c r="L26" s="19"/>
-      <c r="M26" s="20"/>
+      <c r="L26" s="19">
+        <f>M27-M24</f>
+        <v>9</v>
+      </c>
+      <c r="M26" s="20">
+        <f>P18-M24</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="3:19">
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <f>H27-F26</f>
+        <v>24</v>
+      </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="22"/>
-      <c r="K27" s="21"/>
+      <c r="H27" s="22">
+        <f>K27</f>
+        <v>30</v>
+      </c>
+      <c r="K27" s="21">
+        <f>M27-K26</f>
+        <v>30</v>
+      </c>
       <c r="L27" s="16"/>
-      <c r="M27" s="22"/>
+      <c r="M27" s="22">
+        <f>P21</f>
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="Z13:AB13"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="U13:W13"/>
     <mergeCell ref="F19:H19"/>
@@ -3654,46 +4009,51 @@
     <mergeCell ref="F13:H13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="39" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
     <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="L20">
     <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
+  <conditionalFormatting sqref="L26">
     <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
+  <conditionalFormatting sqref="Q14">
     <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
+  <conditionalFormatting sqref="Q20">
     <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
+  <conditionalFormatting sqref="V14">
     <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V14">
+  <conditionalFormatting sqref="AA14">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3711,8 +4071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559B4883-E629-4891-9D84-A4D18D9F93F4}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" activeCellId="32" sqref="A29:AC29 L28:AC28 G28:J28 A28:E28 N27:AC27 I27:J27 A27:E27 A23:AC26 V22:AC22 Q22:T22 L22:O22 G22:J22 A22:E22 X21:AC21 S21:T21 N21:O21 I21:J21 A21:E21 A20:AC20 AA19:AC19 A19:Y19 AC18 A18:Y18 A17:AC17 V16:AC16 Q16:T16 G16:O16 B16:E16 X15:AC15 S15:T15 I15:O15 D15:E15 A14:AC14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3724,16 +4084,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -3947,51 +4307,74 @@
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="15"/>
+      <c r="A14" s="15">
+        <v>0</v>
+      </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="F14" s="15"/>
+      <c r="C14" s="17">
+        <f>A14+A16</f>
+        <v>4</v>
+      </c>
+      <c r="F14" s="15">
+        <f>C14</f>
+        <v>4</v>
+      </c>
       <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="P14" s="15"/>
+      <c r="H14" s="17">
+        <f>F14+F16</f>
+        <v>13</v>
+      </c>
+      <c r="P14" s="15">
+        <f>H14</f>
+        <v>13</v>
+      </c>
       <c r="Q14" s="16"/>
-      <c r="R14" s="17"/>
-      <c r="U14" s="15"/>
+      <c r="R14" s="17">
+        <f>P14+P16</f>
+        <v>24</v>
+      </c>
+      <c r="U14" s="15">
+        <f>R14</f>
+        <v>24</v>
+      </c>
       <c r="V14" s="16"/>
-      <c r="W14" s="17"/>
+      <c r="W14" s="17">
+        <f>U14+U16</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="23"/>
       <c r="J15" s="24"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="40"/>
+      <c r="L15" s="37"/>
       <c r="M15" s="24"/>
       <c r="N15" s="23"/>
       <c r="O15" s="24"/>
-      <c r="P15" s="45" t="s">
+      <c r="P15" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
       <c r="S15" s="23"/>
       <c r="T15" s="24"/>
-      <c r="U15" s="45" t="s">
+      <c r="U15" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
       <c r="X15" s="23"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" thickBot="1">
@@ -3999,59 +4382,113 @@
         <f>VLOOKUP(A15,$A$2:$H$12,8)</f>
         <v>4</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="19">
+        <f>C17-C14</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="20">
+        <f>MIN(F14,F20,F26)-C14</f>
+        <v>0</v>
+      </c>
       <c r="D16" s="25"/>
       <c r="F16" s="18">
         <f>VLOOKUP(F15,$A$2:$H$12,8)</f>
         <v>9</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+      <c r="G16" s="19">
+        <f>H17-H14</f>
+        <v>15</v>
+      </c>
+      <c r="H16" s="20">
+        <f>P14-H14</f>
+        <v>0</v>
+      </c>
       <c r="P16" s="18">
         <f>VLOOKUP(P15,$A$2:$H$12,8)</f>
         <v>11</v>
       </c>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="20"/>
+      <c r="Q16" s="19">
+        <f>R17-R14</f>
+        <v>15</v>
+      </c>
+      <c r="R16" s="20">
+        <f>U14-R14</f>
+        <v>0</v>
+      </c>
       <c r="S16" s="33"/>
-      <c r="T16" s="41"/>
+      <c r="T16" s="38"/>
       <c r="U16" s="18">
         <f>VLOOKUP(U15,$A$2:$H$12,8)</f>
         <v>10</v>
       </c>
-      <c r="V16" s="19"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="43"/>
+      <c r="V16" s="19">
+        <f>W17-W14</f>
+        <v>15</v>
+      </c>
+      <c r="W16" s="20">
+        <f>Z17-W14</f>
+        <v>15</v>
+      </c>
+      <c r="X16" s="40"/>
     </row>
     <row r="17" spans="1:28" ht="13.5" thickBot="1">
-      <c r="A17" s="21"/>
+      <c r="A17" s="21">
+        <f>C17-A16</f>
+        <v>0</v>
+      </c>
       <c r="B17" s="16"/>
-      <c r="C17" s="22"/>
+      <c r="C17" s="22">
+        <f>MIN(F17,F23,F29)</f>
+        <v>4</v>
+      </c>
       <c r="D17" s="26"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21">
+        <f>H17-F16</f>
+        <v>19</v>
+      </c>
       <c r="G17" s="16"/>
-      <c r="H17" s="22"/>
-      <c r="P17" s="21"/>
+      <c r="H17" s="22">
+        <f>P17</f>
+        <v>28</v>
+      </c>
+      <c r="P17" s="21">
+        <f>R17-P16</f>
+        <v>28</v>
+      </c>
       <c r="Q17" s="16"/>
-      <c r="R17" s="34"/>
-      <c r="U17" s="21"/>
+      <c r="R17" s="34">
+        <f>U17</f>
+        <v>39</v>
+      </c>
+      <c r="U17" s="21">
+        <f>W17-U16</f>
+        <v>39</v>
+      </c>
       <c r="V17" s="16"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="42"/>
+      <c r="W17" s="22">
+        <f>Z20</f>
+        <v>49</v>
+      </c>
+      <c r="X17" s="39"/>
       <c r="Y17" s="28"/>
-      <c r="Z17" s="15"/>
+      <c r="Z17" s="15">
+        <f>MAX(W14,W20)</f>
+        <v>49</v>
+      </c>
       <c r="AA17" s="16"/>
-      <c r="AB17" s="17"/>
+      <c r="AB17" s="17">
+        <f>Z17+Z19</f>
+        <v>53</v>
+      </c>
     </row>
     <row r="18" spans="1:28">
-      <c r="C18" s="38"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="27"/>
-      <c r="Z18" s="46" t="s">
+      <c r="Z18" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="48"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="45"/>
     </row>
     <row r="19" spans="1:28" ht="13.5" thickBot="1">
       <c r="C19" s="27"/>
@@ -4061,59 +4498,94 @@
         <f>VLOOKUP(Z18,$A$2:$H$12,8)</f>
         <v>4</v>
       </c>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="20"/>
+      <c r="AA19" s="19">
+        <f>AB20-AB17</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:28">
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="15">
+        <f>C14</f>
+        <v>4</v>
+      </c>
       <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="K20" s="15"/>
+      <c r="H20" s="17">
+        <f>F20+F22</f>
+        <v>11</v>
+      </c>
+      <c r="K20" s="15">
+        <f>H20</f>
+        <v>11</v>
+      </c>
       <c r="L20" s="16"/>
-      <c r="M20" s="17"/>
-      <c r="P20" s="15"/>
+      <c r="M20" s="17">
+        <f>K20+K22</f>
+        <v>26</v>
+      </c>
+      <c r="P20" s="15">
+        <f>MAX(M20,M26)</f>
+        <v>32</v>
+      </c>
       <c r="Q20" s="16"/>
-      <c r="R20" s="17"/>
-      <c r="U20" s="37"/>
+      <c r="R20" s="17">
+        <f>P20+P22</f>
+        <v>39</v>
+      </c>
+      <c r="U20" s="15">
+        <f>R20</f>
+        <v>39</v>
+      </c>
       <c r="V20" s="16"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="42"/>
-      <c r="Z20" s="21"/>
+      <c r="W20" s="17">
+        <f>U20+U22</f>
+        <v>49</v>
+      </c>
+      <c r="X20" s="39"/>
+      <c r="Z20" s="21">
+        <f>AB20-Z19</f>
+        <v>49</v>
+      </c>
       <c r="AA20" s="16"/>
-      <c r="AB20" s="22"/>
+      <c r="AB20" s="22">
+        <f>AB17</f>
+        <v>53</v>
+      </c>
     </row>
     <row r="21" spans="1:28" ht="13.5" thickBot="1">
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="28"/>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
       <c r="I21" s="23"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="45" t="s">
+      <c r="K21" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
       <c r="N21" s="23"/>
       <c r="O21" s="24"/>
-      <c r="P21" s="45" t="s">
+      <c r="P21" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="48" t="s">
+      <c r="Q21" s="42"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
       <c r="X21" s="29"/>
     </row>
     <row r="22" spans="1:28" ht="13.5" thickBot="1">
@@ -4122,44 +4594,92 @@
         <f>VLOOKUP(F21,$A$2:$H$12,8)</f>
         <v>7</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
+      <c r="G22" s="19">
+        <f>H23-H20</f>
+        <v>6</v>
+      </c>
+      <c r="H22" s="20">
+        <f>K20-H20</f>
+        <v>0</v>
+      </c>
       <c r="I22" s="33"/>
       <c r="K22" s="18">
         <f>VLOOKUP(K21,$A$2:$H$12,8)</f>
         <v>15</v>
       </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
+      <c r="L22" s="19">
+        <f>M23-M20</f>
+        <v>6</v>
+      </c>
+      <c r="M22" s="20">
+        <f>P20-M20</f>
+        <v>6</v>
+      </c>
       <c r="O22" s="30"/>
       <c r="P22" s="18">
         <f>VLOOKUP(P21,$A$2:$H$12,8)</f>
         <v>7</v>
       </c>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="20"/>
+      <c r="Q22" s="19">
+        <f>R23-R20</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="20">
+        <f>U20-R20</f>
+        <v>0</v>
+      </c>
       <c r="U22" s="18">
         <f>VLOOKUP(U21,$A$2:$H$12,8)</f>
         <v>10</v>
       </c>
-      <c r="V22" s="19"/>
-      <c r="W22" s="20"/>
+      <c r="V22" s="19">
+        <f>W23-W20</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="20">
+        <f>Z17-W20</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:28">
       <c r="C23" s="27"/>
-      <c r="F23" s="21"/>
+      <c r="F23" s="21">
+        <f>H23-F22</f>
+        <v>10</v>
+      </c>
       <c r="G23" s="16"/>
-      <c r="H23" s="22"/>
-      <c r="K23" s="21"/>
+      <c r="H23" s="34">
+        <f>K23</f>
+        <v>17</v>
+      </c>
+      <c r="K23" s="21">
+        <f>M23-K22</f>
+        <v>17</v>
+      </c>
       <c r="L23" s="16"/>
-      <c r="M23" s="22"/>
+      <c r="M23" s="34">
+        <f>P23</f>
+        <v>32</v>
+      </c>
       <c r="N23" s="27"/>
-      <c r="P23" s="21"/>
+      <c r="P23" s="21">
+        <f>R23-P22</f>
+        <v>32</v>
+      </c>
       <c r="Q23" s="16"/>
-      <c r="R23" s="22"/>
-      <c r="U23" s="21"/>
+      <c r="R23" s="34">
+        <f>U23</f>
+        <v>39</v>
+      </c>
+      <c r="U23" s="21">
+        <f>W23-U22</f>
+        <v>39</v>
+      </c>
       <c r="V23" s="16"/>
-      <c r="W23" s="22"/>
+      <c r="W23" s="22">
+        <f>Z20</f>
+        <v>49</v>
+      </c>
     </row>
     <row r="24" spans="1:28">
       <c r="C24" s="27"/>
@@ -4171,30 +4691,42 @@
     </row>
     <row r="26" spans="1:28">
       <c r="C26" s="27"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="15">
+        <f>C14</f>
+        <v>4</v>
+      </c>
       <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="K26" s="37"/>
+      <c r="H26" s="17">
+        <f>F26+F28</f>
+        <v>19</v>
+      </c>
+      <c r="K26" s="15">
+        <f>H26</f>
+        <v>19</v>
+      </c>
       <c r="L26" s="16"/>
-      <c r="M26" s="17"/>
+      <c r="M26" s="17">
+        <f>K26+K28</f>
+        <v>32</v>
+      </c>
       <c r="N26" s="27"/>
     </row>
     <row r="27" spans="1:28" ht="13.5" thickBot="1">
       <c r="C27" s="27"/>
-      <c r="D27" s="39"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="48" t="s">
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
       <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:28">
@@ -4202,22 +4734,46 @@
         <f>VLOOKUP(F27,$A$2:$H$12,8)</f>
         <v>15</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
+      <c r="G28" s="19">
+        <f>H29-H26</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="20">
+        <f>K26-H26</f>
+        <v>0</v>
+      </c>
       <c r="K28" s="18">
         <f>VLOOKUP(K27,$A$2:$H$12,8)</f>
         <v>13</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="20"/>
+      <c r="L28" s="19">
+        <f>M29-M26</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="20">
+        <f>P20-M26</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:28">
-      <c r="F29" s="21"/>
+      <c r="F29" s="21">
+        <f>H29-F28</f>
+        <v>4</v>
+      </c>
       <c r="G29" s="16"/>
-      <c r="H29" s="22"/>
-      <c r="K29" s="21"/>
+      <c r="H29" s="34">
+        <f>K29</f>
+        <v>19</v>
+      </c>
+      <c r="K29" s="21">
+        <f>M29-K28</f>
+        <v>19</v>
+      </c>
       <c r="L29" s="16"/>
-      <c r="M29" s="22"/>
+      <c r="M29" s="22">
+        <f>P23</f>
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4245,47 +4801,47 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="Q16">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="V16">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
+  <conditionalFormatting sqref="AA19">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28">
+  <conditionalFormatting sqref="V22">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q16">
+  <conditionalFormatting sqref="Q22">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
+  <conditionalFormatting sqref="L22">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V16">
+  <conditionalFormatting sqref="G22">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V22">
+  <conditionalFormatting sqref="G28">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA19">
+  <conditionalFormatting sqref="L28">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/FIAEB Übungen/Netzplan_Übung.xlsx
+++ b/FIAEB Übungen/Netzplan_Übung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FIAEB Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AB7444-AED8-4176-A311-5FFBC06A695B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5D1A0A-536E-442A-A3D1-9CBC6DC0E436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -163,12 +163,21 @@
   <si>
     <t>FP = kleinste FAZ(Nachfolger)- FEZ</t>
   </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>K(%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -230,8 +239,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +323,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -543,10 +564,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -655,8 +677,15 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="63">
@@ -1614,13 +1643,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -1638,11 +1669,18 @@
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
       <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="3" t="s">
@@ -1661,10 +1699,17 @@
       <c r="H2" s="3">
         <v>2</v>
       </c>
-      <c r="I2" s="6">
-        <f>SUM(CH2:CU2)</f>
-        <v>0</v>
-      </c>
+      <c r="I2" s="48">
+        <v>1</v>
+      </c>
+      <c r="J2" s="49">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <f>ROUNDUP(H2/(I2*J2),0)</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
@@ -1683,10 +1728,17 @@
       <c r="H3" s="3">
         <v>8</v>
       </c>
-      <c r="I3" s="6">
-        <f>SUM(CH3:CU3)</f>
-        <v>0</v>
-      </c>
+      <c r="I3" s="48">
+        <v>1</v>
+      </c>
+      <c r="J3" s="49">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K13" si="0">ROUNDUP(H3/(I3*J3),0)</f>
+        <v>8</v>
+      </c>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="3" t="s">
@@ -1707,10 +1759,17 @@
       <c r="H4" s="3">
         <v>8</v>
       </c>
-      <c r="I4" s="6">
-        <f>SUM(CH4:CU4)</f>
-        <v>0</v>
-      </c>
+      <c r="I4" s="48">
+        <v>1</v>
+      </c>
+      <c r="J4" s="49">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="3" t="s">
@@ -1729,10 +1788,17 @@
       <c r="H5" s="3">
         <v>6</v>
       </c>
-      <c r="I5" s="6">
-        <f>SUM(CH5:CU5)</f>
-        <v>0</v>
-      </c>
+      <c r="I5" s="48">
+        <v>1</v>
+      </c>
+      <c r="J5" s="49">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="3" t="s">
@@ -1751,10 +1817,17 @@
       <c r="H6" s="3">
         <v>8</v>
       </c>
-      <c r="I6" s="6">
-        <f t="shared" ref="I6:I13" si="0">SUM(BR6:CE6)</f>
-        <v>0</v>
-      </c>
+      <c r="I6" s="48">
+        <v>1</v>
+      </c>
+      <c r="J6" s="49">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="3" t="s">
@@ -1773,10 +1846,17 @@
       <c r="H7" s="3">
         <v>8</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="48">
+        <v>1</v>
+      </c>
+      <c r="J7" s="49">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="3" t="s">
@@ -1799,10 +1879,17 @@
       <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="48">
+        <v>1</v>
+      </c>
+      <c r="J8" s="49">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="3" t="s">
@@ -1821,10 +1908,17 @@
       <c r="H9" s="3">
         <v>6</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="48">
+        <v>1</v>
+      </c>
+      <c r="J9" s="49">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="3" t="s">
@@ -1843,10 +1937,17 @@
       <c r="H10" s="3">
         <v>5</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="48">
+        <v>1</v>
+      </c>
+      <c r="J10" s="49">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="3" t="s">
@@ -1865,10 +1966,17 @@
       <c r="H11" s="3">
         <v>8</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="48">
+        <v>1</v>
+      </c>
+      <c r="J11" s="49">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="3" t="s">
@@ -1889,10 +1997,17 @@
       <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="48">
+        <v>1</v>
+      </c>
+      <c r="J12" s="49">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="3" t="s">
@@ -1911,10 +2026,17 @@
       <c r="H13" s="3">
         <v>4</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="48">
+        <v>1</v>
+      </c>
+      <c r="J13" s="49">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L13" s="6"/>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="15">
@@ -2004,7 +2126,7 @@
     </row>
     <row r="17" spans="1:30" ht="13.5" thickBot="1">
       <c r="A17" s="18">
-        <f>VLOOKUP(A16,$A$2:$H$13,8)</f>
+        <f>VLOOKUP(A16,$A$2:$K$13,8)</f>
         <v>2</v>
       </c>
       <c r="B17" s="19">
@@ -2013,7 +2135,7 @@
       <c r="C17" s="20"/>
       <c r="D17" s="25"/>
       <c r="F17" s="18">
-        <f>VLOOKUP(F16,$A$2:$H$13,8)</f>
+        <f>VLOOKUP(F16,$A$2:$K$13,8)</f>
         <v>8</v>
       </c>
       <c r="G17" s="19">
@@ -2021,7 +2143,7 @@
       </c>
       <c r="H17" s="20"/>
       <c r="K17" s="18">
-        <f>VLOOKUP(K16,$A$2:$H$13,8)</f>
+        <f>VLOOKUP(K16,$A$2:$K$13,8)</f>
         <v>6</v>
       </c>
       <c r="L17" s="19">
@@ -2029,7 +2151,7 @@
       </c>
       <c r="M17" s="20"/>
       <c r="P17" s="18">
-        <f>VLOOKUP(P16,$A$2:$H$13,8)</f>
+        <f>VLOOKUP(P16,$A$2:$K$13,8)</f>
         <v>5</v>
       </c>
       <c r="Q17" s="19">
@@ -2037,7 +2159,7 @@
       </c>
       <c r="R17" s="20"/>
       <c r="U17" s="18">
-        <f>VLOOKUP(U16,$A$2:$H$13,8)</f>
+        <f>VLOOKUP(U16,$A$2:$K$13,8)</f>
         <v>8</v>
       </c>
       <c r="V17" s="19">
@@ -2046,7 +2168,7 @@
       <c r="W17" s="20"/>
       <c r="Y17" s="30"/>
       <c r="Z17" s="18">
-        <f>VLOOKUP(Z16,$A$2:$H$13,8)</f>
+        <f>VLOOKUP(Z16,$A$2:$K$13,8)</f>
         <v>4</v>
       </c>
       <c r="AA17" s="19">
@@ -2172,7 +2294,7 @@
     </row>
     <row r="22" spans="1:30" ht="13.5" thickBot="1">
       <c r="F22" s="18">
-        <f>VLOOKUP(F21,$A$2:$H$13,8)</f>
+        <f>VLOOKUP(F21,$A$2:$K$13,8)</f>
         <v>8</v>
       </c>
       <c r="G22" s="19">
@@ -2181,7 +2303,7 @@
       <c r="H22" s="20"/>
       <c r="I22" s="25"/>
       <c r="K22" s="18">
-        <f>VLOOKUP(K21,$A$2:$H$13,8)</f>
+        <f>VLOOKUP(K21,$A$2:$K$13,8)</f>
         <v>8</v>
       </c>
       <c r="L22" s="19">
@@ -2189,7 +2311,7 @@
       </c>
       <c r="M22" s="20"/>
       <c r="P22" s="18">
-        <f>VLOOKUP(P21,$A$2:$H$13,8)</f>
+        <f>VLOOKUP(P21,$A$2:$K$13,8)</f>
         <v>6</v>
       </c>
       <c r="Q22" s="19">
@@ -2198,7 +2320,7 @@
       <c r="R22" s="20"/>
       <c r="T22" s="24"/>
       <c r="U22" s="18">
-        <f>VLOOKUP(U21,$A$2:$H$13,8)</f>
+        <f>VLOOKUP(U21,$A$2:$K$13,8)</f>
         <v>2</v>
       </c>
       <c r="V22" s="19">
@@ -2279,7 +2401,7 @@
     </row>
     <row r="27" spans="1:30">
       <c r="K27" s="18">
-        <f>VLOOKUP(K26,$A$2:$H$13,8)</f>
+        <f>VLOOKUP(K26,$A$2:$K$13,8)</f>
         <v>8</v>
       </c>
       <c r="L27" s="19">
@@ -2287,7 +2409,7 @@
       </c>
       <c r="M27" s="20"/>
       <c r="P27" s="18">
-        <f>VLOOKUP(P26,$A$2:$H$13,8)</f>
+        <f>VLOOKUP(P26,$A$2:$K$13,8)</f>
         <v>5</v>
       </c>
       <c r="Q27" s="19">
@@ -4014,47 +4136,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA14">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4071,7 +4193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559B4883-E629-4891-9D84-A4D18D9F93F4}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/FIAEB Übungen/Netzplan_Übung.xlsx
+++ b/FIAEB Übungen/Netzplan_Übung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FIAEB Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5D1A0A-536E-442A-A3D1-9CBC6DC0E436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66501CF3-8106-40CC-8160-207459A1E3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1644,7 +1644,7 @@
   <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J13"/>
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="12.75"/>
@@ -1729,14 +1729,14 @@
         <v>8</v>
       </c>
       <c r="I3" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="49">
         <v>1</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" ref="K3:K13" si="0">ROUNDUP(H3/(I3*J3),0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L3" s="6"/>
     </row>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="17" spans="1:30" ht="13.5" thickBot="1">
       <c r="A17" s="18">
-        <f>VLOOKUP(A16,$A$2:$K$13,8)</f>
+        <f>VLOOKUP(A16,$A$2:$K$13,11)</f>
         <v>2</v>
       </c>
       <c r="B17" s="19">
@@ -2135,15 +2135,15 @@
       <c r="C17" s="20"/>
       <c r="D17" s="25"/>
       <c r="F17" s="18">
-        <f>VLOOKUP(F16,$A$2:$K$13,8)</f>
-        <v>8</v>
+        <f>VLOOKUP(F16,$A$2:$K$13,11)</f>
+        <v>4</v>
       </c>
       <c r="G17" s="19">
         <v>0</v>
       </c>
       <c r="H17" s="20"/>
       <c r="K17" s="18">
-        <f>VLOOKUP(K16,$A$2:$K$13,8)</f>
+        <f>VLOOKUP(K16,$A$2:$K$13,11)</f>
         <v>6</v>
       </c>
       <c r="L17" s="19">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="M17" s="20"/>
       <c r="P17" s="18">
-        <f>VLOOKUP(P16,$A$2:$K$13,8)</f>
+        <f>VLOOKUP(P16,$A$2:$K$13,11)</f>
         <v>5</v>
       </c>
       <c r="Q17" s="19">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="R17" s="20"/>
       <c r="U17" s="18">
-        <f>VLOOKUP(U16,$A$2:$K$13,8)</f>
+        <f>VLOOKUP(U16,$A$2:$K$13,11)</f>
         <v>8</v>
       </c>
       <c r="V17" s="19">
@@ -2168,7 +2168,7 @@
       <c r="W17" s="20"/>
       <c r="Y17" s="30"/>
       <c r="Z17" s="18">
-        <f>VLOOKUP(Z16,$A$2:$K$13,8)</f>
+        <f>VLOOKUP(Z16,$A$2:$K$13,11)</f>
         <v>4</v>
       </c>
       <c r="AA17" s="19">
@@ -2294,7 +2294,7 @@
     </row>
     <row r="22" spans="1:30" ht="13.5" thickBot="1">
       <c r="F22" s="18">
-        <f>VLOOKUP(F21,$A$2:$K$13,8)</f>
+        <f>VLOOKUP(F21,$A$2:$K$13,11)</f>
         <v>8</v>
       </c>
       <c r="G22" s="19">
@@ -2303,7 +2303,7 @@
       <c r="H22" s="20"/>
       <c r="I22" s="25"/>
       <c r="K22" s="18">
-        <f>VLOOKUP(K21,$A$2:$K$13,8)</f>
+        <f>VLOOKUP(K21,$A$2:$K$13,11)</f>
         <v>8</v>
       </c>
       <c r="L22" s="19">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="M22" s="20"/>
       <c r="P22" s="18">
-        <f>VLOOKUP(P21,$A$2:$K$13,8)</f>
+        <f>VLOOKUP(P21,$A$2:$K$13,11)</f>
         <v>6</v>
       </c>
       <c r="Q22" s="19">
@@ -2320,7 +2320,7 @@
       <c r="R22" s="20"/>
       <c r="T22" s="24"/>
       <c r="U22" s="18">
-        <f>VLOOKUP(U21,$A$2:$K$13,8)</f>
+        <f>VLOOKUP(U21,$A$2:$K$13,11)</f>
         <v>2</v>
       </c>
       <c r="V22" s="19">
@@ -2401,7 +2401,7 @@
     </row>
     <row r="27" spans="1:30">
       <c r="K27" s="18">
-        <f>VLOOKUP(K26,$A$2:$K$13,8)</f>
+        <f>VLOOKUP(K26,$A$2:$K$13,11)</f>
         <v>8</v>
       </c>
       <c r="L27" s="19">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="M27" s="20"/>
       <c r="P27" s="18">
-        <f>VLOOKUP(P26,$A$2:$K$13,8)</f>
+        <f>VLOOKUP(P26,$A$2:$K$13,11)</f>
         <v>5</v>
       </c>
       <c r="Q27" s="19">

--- a/FIAEB Übungen/Netzplan_Übung.xlsx
+++ b/FIAEB Übungen/Netzplan_Übung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FIAEB Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66501CF3-8106-40CC-8160-207459A1E3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D085A4-3695-431A-873B-DF80DF2C26CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,7 +688,97 @@
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="73">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1644,14 +1734,14 @@
   <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -1700,14 +1790,14 @@
         <v>2</v>
       </c>
       <c r="I2" s="48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="49">
         <v>1</v>
       </c>
       <c r="K2" s="3">
         <f>ROUNDUP(H2/(I2*J2),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" s="6"/>
     </row>
@@ -2044,42 +2134,53 @@
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="17">
-        <v>2</v>
+        <f>A15+A17</f>
+        <v>1</v>
       </c>
       <c r="F15" s="15">
-        <v>2</v>
+        <f>C15</f>
+        <v>1</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="17">
-        <v>10</v>
+        <f>F15+F17</f>
+        <v>5</v>
       </c>
       <c r="K15" s="15">
-        <v>10</v>
+        <f>H15</f>
+        <v>5</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="17">
-        <v>16</v>
+        <f>K15+K17</f>
+        <v>11</v>
       </c>
       <c r="P15" s="15">
-        <v>16</v>
+        <f>M15</f>
+        <v>11</v>
       </c>
       <c r="Q15" s="16"/>
       <c r="R15" s="17">
-        <v>21</v>
+        <f>P15+P17</f>
+        <v>16</v>
       </c>
       <c r="U15" s="15">
-        <v>21</v>
+        <f>R15</f>
+        <v>16</v>
       </c>
       <c r="V15" s="16"/>
       <c r="W15" s="17">
-        <v>29</v>
+        <f>U15+U17</f>
+        <v>24</v>
       </c>
       <c r="Z15" s="15">
-        <v>29</v>
+        <f>MAX(W15,W20)</f>
+        <v>25</v>
       </c>
       <c r="AA15" s="16"/>
       <c r="AB15" s="17">
-        <v>33</v>
+        <f>Z15+Z17</f>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.5" thickBot="1">
@@ -2127,9 +2228,10 @@
     <row r="17" spans="1:30" ht="13.5" thickBot="1">
       <c r="A17" s="18">
         <f>VLOOKUP(A16,$A$2:$K$13,11)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="19">
+        <f>C18-C15</f>
         <v>0</v>
       </c>
       <c r="C17" s="20"/>
@@ -2139,7 +2241,8 @@
         <v>4</v>
       </c>
       <c r="G17" s="19">
-        <v>0</v>
+        <f>H18-H15</f>
+        <v>5</v>
       </c>
       <c r="H17" s="20"/>
       <c r="K17" s="18">
@@ -2147,7 +2250,8 @@
         <v>6</v>
       </c>
       <c r="L17" s="19">
-        <v>0</v>
+        <f>M18-M15</f>
+        <v>5</v>
       </c>
       <c r="M17" s="20"/>
       <c r="P17" s="18">
@@ -2155,7 +2259,8 @@
         <v>5</v>
       </c>
       <c r="Q17" s="19">
-        <v>0</v>
+        <f>R18-R15</f>
+        <v>1</v>
       </c>
       <c r="R17" s="20"/>
       <c r="U17" s="18">
@@ -2163,7 +2268,8 @@
         <v>8</v>
       </c>
       <c r="V17" s="19">
-        <v>0</v>
+        <f>W18-W15</f>
+        <v>1</v>
       </c>
       <c r="W17" s="20"/>
       <c r="Y17" s="30"/>
@@ -2172,6 +2278,7 @@
         <v>4</v>
       </c>
       <c r="AA17" s="19">
+        <f>AB18-AB15</f>
         <v>0</v>
       </c>
       <c r="AB17" s="20"/>
@@ -2181,25 +2288,31 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="21">
+        <f>C18-A17</f>
         <v>0</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="22">
-        <v>2</v>
+        <f>MIN(F18,F23)</f>
+        <v>1</v>
       </c>
       <c r="D18" s="26"/>
       <c r="F18" s="21">
-        <v>2</v>
+        <f>H18-F17</f>
+        <v>6</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="22">
+        <f>K18</f>
         <v>10</v>
       </c>
       <c r="K18" s="21">
+        <f>M18-K17</f>
         <v>10</v>
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="22">
+        <f>P18</f>
         <v>16</v>
       </c>
       <c r="P18" s="21">
@@ -2207,22 +2320,27 @@
       </c>
       <c r="Q18" s="16"/>
       <c r="R18" s="22">
-        <v>21</v>
+        <f>U18</f>
+        <v>17</v>
       </c>
       <c r="U18" s="21">
-        <v>21</v>
+        <f>W18-U17</f>
+        <v>17</v>
       </c>
       <c r="V18" s="16"/>
       <c r="W18" s="22">
-        <v>29</v>
+        <f>Z18</f>
+        <v>25</v>
       </c>
       <c r="X18" s="27"/>
       <c r="Z18" s="21">
-        <v>29</v>
+        <f>AB18-Z17</f>
+        <v>25</v>
       </c>
       <c r="AA18" s="16"/>
       <c r="AB18" s="22">
-        <v>33</v>
+        <f>AB15</f>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2232,32 +2350,40 @@
     <row r="20" spans="1:30">
       <c r="D20" s="27"/>
       <c r="F20" s="15">
-        <v>2</v>
+        <f>C15</f>
+        <v>1</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17">
-        <v>10</v>
+        <f>F20+F22</f>
+        <v>9</v>
       </c>
       <c r="K20" s="15">
-        <v>10</v>
+        <f>H20</f>
+        <v>9</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="17">
-        <v>18</v>
+        <f>K20+K22</f>
+        <v>17</v>
       </c>
       <c r="P20" s="15">
-        <v>18</v>
+        <f>M20</f>
+        <v>17</v>
       </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="17">
-        <v>24</v>
+        <f>P20+P22</f>
+        <v>23</v>
       </c>
       <c r="U20" s="15">
-        <v>24</v>
+        <f>MAX(R20,R25)</f>
+        <v>23</v>
       </c>
       <c r="V20" s="16"/>
       <c r="W20" s="17">
-        <v>26</v>
+        <f>U20+U22</f>
+        <v>25</v>
       </c>
       <c r="X20" s="27"/>
     </row>
@@ -2298,7 +2424,8 @@
         <v>8</v>
       </c>
       <c r="G22" s="19">
-        <v>3</v>
+        <f>H23-H20</f>
+        <v>0</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="25"/>
@@ -2307,7 +2434,8 @@
         <v>8</v>
       </c>
       <c r="L22" s="19">
-        <v>3</v>
+        <f>M23-M20</f>
+        <v>0</v>
       </c>
       <c r="M22" s="20"/>
       <c r="P22" s="18">
@@ -2315,7 +2443,8 @@
         <v>6</v>
       </c>
       <c r="Q22" s="19">
-        <v>3</v>
+        <f>R23-R20</f>
+        <v>0</v>
       </c>
       <c r="R22" s="20"/>
       <c r="T22" s="24"/>
@@ -2324,40 +2453,49 @@
         <v>2</v>
       </c>
       <c r="V22" s="19">
-        <v>3</v>
+        <f>W23-W20</f>
+        <v>0</v>
       </c>
       <c r="W22" s="20"/>
     </row>
     <row r="23" spans="1:30">
       <c r="F23" s="21">
-        <v>5</v>
+        <f>H23-F22</f>
+        <v>1</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="22">
-        <v>13</v>
+        <f>MIN(K23,K28)</f>
+        <v>9</v>
       </c>
       <c r="I23" s="26"/>
       <c r="K23" s="21">
-        <v>13</v>
+        <f>M23-K22</f>
+        <v>9</v>
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="22">
-        <v>21</v>
+        <f>P23</f>
+        <v>17</v>
       </c>
       <c r="P23" s="21">
-        <v>21</v>
+        <f>R23-P22</f>
+        <v>17</v>
       </c>
       <c r="Q23" s="16"/>
       <c r="R23" s="22">
-        <v>27</v>
+        <f>U23</f>
+        <v>23</v>
       </c>
       <c r="S23" s="27"/>
       <c r="U23" s="21">
-        <v>27</v>
+        <f>W23-U22</f>
+        <v>23</v>
       </c>
       <c r="V23" s="16"/>
       <c r="W23" s="22">
-        <v>29</v>
+        <f>Z18</f>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2367,18 +2505,22 @@
     <row r="25" spans="1:30">
       <c r="I25" s="27"/>
       <c r="K25" s="15">
-        <v>10</v>
+        <f>H20</f>
+        <v>9</v>
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="17">
-        <v>18</v>
+        <f>K25+K27</f>
+        <v>17</v>
       </c>
       <c r="P25" s="15">
-        <v>18</v>
+        <f>M25</f>
+        <v>17</v>
       </c>
       <c r="Q25" s="16"/>
       <c r="R25" s="17">
-        <v>23</v>
+        <f>P25+P27</f>
+        <v>22</v>
       </c>
       <c r="S25" s="27"/>
     </row>
@@ -2413,24 +2555,29 @@
         <v>5</v>
       </c>
       <c r="Q27" s="19">
-        <v>4</v>
+        <f>R28-R25</f>
+        <v>1</v>
       </c>
       <c r="R27" s="20"/>
     </row>
     <row r="28" spans="1:30">
       <c r="K28" s="21">
-        <v>14</v>
+        <f>M28-K27</f>
+        <v>10</v>
       </c>
       <c r="L28" s="16"/>
       <c r="M28" s="22">
-        <v>22</v>
+        <f>P28</f>
+        <v>18</v>
       </c>
       <c r="P28" s="21">
-        <v>22</v>
+        <f>R28-P27</f>
+        <v>18</v>
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="22">
-        <v>27</v>
+        <f>U23</f>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="56.25">
@@ -2808,67 +2955,62 @@
     <mergeCell ref="K16:M16"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="61" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="22" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="cellIs" dxfId="66" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="60" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="59" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="58" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="56" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="55" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q27">
-    <cfRule type="cellIs" dxfId="53" priority="4" operator="equal">
+  <conditionalFormatting sqref="Q17 Q27">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17">
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3427,52 +3569,52 @@
     <mergeCell ref="K13:M13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="48" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4131,52 +4273,52 @@
     <mergeCell ref="F13:H13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="39" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA14">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4914,57 +5056,57 @@
     <mergeCell ref="U21:W21"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/FIAEB Übungen/Netzplan_Übung.xlsx
+++ b/FIAEB Übungen/Netzplan_Übung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FIAEB Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D085A4-3695-431A-873B-DF80DF2C26CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C59419-EB05-4979-8846-686FAB86046D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -656,11 +656,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,276 +683,12 @@
     <xf numFmtId="49" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <font>
         <b/>
@@ -1208,15 +956,6 @@
           <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1734,7 +1473,7 @@
   <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="12.75"/>
@@ -1748,16 +1487,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1789,15 +1528,15 @@
       <c r="H2" s="3">
         <v>2</v>
       </c>
-      <c r="I2" s="48">
-        <v>3</v>
-      </c>
-      <c r="J2" s="49">
+      <c r="I2" s="41">
+        <v>1</v>
+      </c>
+      <c r="J2" s="42">
         <v>1</v>
       </c>
       <c r="K2" s="3">
         <f>ROUNDUP(H2/(I2*J2),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="6"/>
     </row>
@@ -1818,15 +1557,15 @@
       <c r="H3" s="3">
         <v>8</v>
       </c>
-      <c r="I3" s="48">
-        <v>2</v>
-      </c>
-      <c r="J3" s="49">
+      <c r="I3" s="41">
+        <v>1</v>
+      </c>
+      <c r="J3" s="42">
         <v>1</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" ref="K3:K13" si="0">ROUNDUP(H3/(I3*J3),0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L3" s="6"/>
     </row>
@@ -1849,10 +1588,10 @@
       <c r="H4" s="3">
         <v>8</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="41">
         <v>1</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="42">
         <v>1</v>
       </c>
       <c r="K4" s="3">
@@ -1878,10 +1617,10 @@
       <c r="H5" s="3">
         <v>6</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="41">
         <v>1</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="42">
         <v>1</v>
       </c>
       <c r="K5" s="3">
@@ -1907,10 +1646,10 @@
       <c r="H6" s="3">
         <v>8</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="41">
         <v>1</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="42">
         <v>1</v>
       </c>
       <c r="K6" s="3">
@@ -1936,10 +1675,10 @@
       <c r="H7" s="3">
         <v>8</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="41">
         <v>1</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="42">
         <v>1</v>
       </c>
       <c r="K7" s="3">
@@ -1969,10 +1708,10 @@
       <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="41">
         <v>1</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="42">
         <v>1</v>
       </c>
       <c r="K8" s="3">
@@ -1998,10 +1737,10 @@
       <c r="H9" s="3">
         <v>6</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="41">
         <v>1</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="42">
         <v>1</v>
       </c>
       <c r="K9" s="3">
@@ -2027,10 +1766,10 @@
       <c r="H10" s="3">
         <v>5</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="41">
         <v>1</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="42">
         <v>1</v>
       </c>
       <c r="K10" s="3">
@@ -2056,10 +1795,10 @@
       <c r="H11" s="3">
         <v>8</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="41">
         <v>1</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="42">
         <v>1</v>
       </c>
       <c r="K11" s="3">
@@ -2087,10 +1826,10 @@
       <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="41">
         <v>1</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12" s="42">
         <v>1</v>
       </c>
       <c r="K12" s="3">
@@ -2116,10 +1855,10 @@
       <c r="H13" s="3">
         <v>4</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="41">
         <v>1</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="42">
         <v>1</v>
       </c>
       <c r="K13" s="3">
@@ -2135,100 +1874,100 @@
       <c r="B15" s="16"/>
       <c r="C15" s="17">
         <f>A15+A17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="15">
         <f>C15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="17">
         <f>F15+F17</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K15" s="15">
         <f>H15</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="17">
         <f>K15+K17</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P15" s="15">
         <f>M15</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="16"/>
       <c r="R15" s="17">
         <f>P15+P17</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U15" s="15">
         <f>R15</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="V15" s="16"/>
       <c r="W15" s="17">
         <f>U15+U17</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Z15" s="15">
         <f>MAX(W15,W20)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA15" s="16"/>
       <c r="AB15" s="17">
         <f>Z15+Z17</f>
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.5" thickBot="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="23"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
       <c r="I16" s="23"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="43" t="s">
+      <c r="K16" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="49"/>
       <c r="N16" s="23"/>
       <c r="O16" s="24"/>
-      <c r="P16" s="42" t="s">
+      <c r="P16" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
       <c r="S16" s="23"/>
       <c r="T16" s="24"/>
-      <c r="U16" s="42" t="s">
+      <c r="U16" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
       <c r="X16" s="23"/>
       <c r="Y16" s="24"/>
-      <c r="Z16" s="42" t="s">
+      <c r="Z16" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
     </row>
     <row r="17" spans="1:30" ht="13.5" thickBot="1">
       <c r="A17" s="18">
         <f>VLOOKUP(A16,$A$2:$K$13,11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="19">
         <f>C18-C15</f>
@@ -2238,11 +1977,11 @@
       <c r="D17" s="25"/>
       <c r="F17" s="18">
         <f>VLOOKUP(F16,$A$2:$K$13,11)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G17" s="19">
         <f>H18-H15</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H17" s="20"/>
       <c r="K17" s="18">
@@ -2251,7 +1990,7 @@
       </c>
       <c r="L17" s="19">
         <f>M18-M15</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M17" s="20"/>
       <c r="P17" s="18">
@@ -2260,7 +1999,7 @@
       </c>
       <c r="Q17" s="19">
         <f>R18-R15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="20"/>
       <c r="U17" s="18">
@@ -2269,7 +2008,7 @@
       </c>
       <c r="V17" s="19">
         <f>W18-W15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="20"/>
       <c r="Y17" s="30"/>
@@ -2294,12 +2033,12 @@
       <c r="B18" s="16"/>
       <c r="C18" s="22">
         <f>MIN(F18,F23)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="26"/>
       <c r="F18" s="21">
         <f>H18-F17</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="22">
@@ -2316,31 +2055,32 @@
         <v>16</v>
       </c>
       <c r="P18" s="21">
+        <f>R18-P17</f>
         <v>16</v>
       </c>
       <c r="Q18" s="16"/>
       <c r="R18" s="22">
         <f>U18</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U18" s="21">
         <f>W18-U17</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V18" s="16"/>
       <c r="W18" s="22">
         <f>Z18</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="X18" s="27"/>
       <c r="Z18" s="21">
         <f>AB18-Z17</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA18" s="16"/>
       <c r="AB18" s="22">
         <f>AB15</f>
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2351,71 +2091,71 @@
       <c r="D20" s="27"/>
       <c r="F20" s="15">
         <f>C15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17">
         <f>F20+F22</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K20" s="15">
         <f>H20</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="17">
         <f>K20+K22</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P20" s="15">
         <f>M20</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="17">
         <f>P20+P22</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U20" s="15">
         <f>MAX(R20,R25)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V20" s="16"/>
       <c r="W20" s="17">
         <f>U20+U22</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X20" s="27"/>
     </row>
     <row r="21" spans="1:30" ht="13.5" thickBot="1">
       <c r="D21" s="27"/>
       <c r="E21" s="28"/>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
       <c r="I21" s="23"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
       <c r="N21" s="23"/>
       <c r="O21" s="24"/>
-      <c r="P21" s="42" t="s">
+      <c r="P21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
       <c r="S21" s="23"/>
       <c r="T21" s="24"/>
-      <c r="U21" s="42" t="s">
+      <c r="U21" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
       <c r="X21" s="29"/>
     </row>
     <row r="22" spans="1:30" ht="13.5" thickBot="1">
@@ -2425,7 +2165,7 @@
       </c>
       <c r="G22" s="19">
         <f>H23-H20</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="25"/>
@@ -2435,7 +2175,7 @@
       </c>
       <c r="L22" s="19">
         <f>M23-M20</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="20"/>
       <c r="P22" s="18">
@@ -2444,7 +2184,7 @@
       </c>
       <c r="Q22" s="19">
         <f>R23-R20</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R22" s="20"/>
       <c r="T22" s="24"/>
@@ -2454,48 +2194,48 @@
       </c>
       <c r="V22" s="19">
         <f>W23-W20</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="20"/>
     </row>
     <row r="23" spans="1:30">
       <c r="F23" s="21">
         <f>H23-F22</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="22">
         <f>MIN(K23,K28)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I23" s="26"/>
       <c r="K23" s="21">
         <f>M23-K22</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="22">
         <f>P23</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P23" s="21">
         <f>R23-P22</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="16"/>
       <c r="R23" s="22">
         <f>U23</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="S23" s="27"/>
       <c r="U23" s="21">
         <f>W23-U22</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="V23" s="16"/>
       <c r="W23" s="22">
         <f>Z18</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2506,39 +2246,39 @@
       <c r="I25" s="27"/>
       <c r="K25" s="15">
         <f>H20</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="17">
         <f>K25+K27</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P25" s="15">
         <f>M25</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q25" s="16"/>
       <c r="R25" s="17">
         <f>P25+P27</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S25" s="27"/>
     </row>
     <row r="26" spans="1:30" ht="13.5" thickBot="1">
       <c r="I26" s="27"/>
       <c r="J26" s="28"/>
-      <c r="K26" s="42" t="s">
+      <c r="K26" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
       <c r="N26" s="23"/>
       <c r="O26" s="24"/>
-      <c r="P26" s="42" t="s">
+      <c r="P26" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
       <c r="S26" s="29"/>
     </row>
     <row r="27" spans="1:30">
@@ -2547,6 +2287,7 @@
         <v>8</v>
       </c>
       <c r="L27" s="19">
+        <f>M28-M25</f>
         <v>4</v>
       </c>
       <c r="M27" s="20"/>
@@ -2556,28 +2297,28 @@
       </c>
       <c r="Q27" s="19">
         <f>R28-R25</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R27" s="20"/>
     </row>
     <row r="28" spans="1:30">
       <c r="K28" s="21">
         <f>M28-K27</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L28" s="16"/>
       <c r="M28" s="22">
         <f>P28</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P28" s="21">
         <f>R28-P27</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="22">
         <f>U23</f>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="56.25">
@@ -2599,35 +2340,35 @@
       <c r="D36" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="46" t="s">
+      <c r="H36" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="H37" s="46" t="s">
+      <c r="A37" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="H37" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="18" t="s">
@@ -2642,17 +2383,17 @@
       <c r="D38" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="46" t="s">
+      <c r="H38" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="21" t="s">
@@ -2665,17 +2406,17 @@
       <c r="D39" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="H39" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
     </row>
     <row r="41" spans="1:16" ht="13.5">
       <c r="J41" s="9"/>
@@ -2759,11 +2500,11 @@
     </row>
     <row r="56" spans="1:11" ht="13.5">
       <c r="A56" s="8"/>
-      <c r="B56" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
+      <c r="B56" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11" t="s">
         <v>18</v>
@@ -2933,6 +2674,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="U21:W21"/>
     <mergeCell ref="H36:P36"/>
     <mergeCell ref="H37:P37"/>
     <mergeCell ref="K26:M26"/>
@@ -2941,75 +2694,63 @@
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="H38:P38"/>
     <mergeCell ref="H39:P39"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="K16:M16"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="72" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="71" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17 Q27">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V17">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V22">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA17">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="66" priority="17" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q17 Q27">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V17">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3040,16 +2781,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -3260,39 +3001,39 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
       <c r="I13" s="23"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="42" t="s">
+      <c r="K13" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
       <c r="N13" s="23"/>
       <c r="O13" s="24"/>
-      <c r="P13" s="42" t="s">
+      <c r="P13" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
       <c r="S13" s="23"/>
       <c r="T13" s="24"/>
-      <c r="U13" s="42" t="s">
+      <c r="U13" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
     </row>
     <row r="14" spans="1:23" ht="13.5" thickBot="1">
       <c r="A14" s="18">
@@ -3424,25 +3165,25 @@
     <row r="19" spans="4:19" ht="13.5" thickBot="1">
       <c r="D19" s="27"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
       <c r="I19" s="23"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="42" t="s">
+      <c r="K19" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
       <c r="N19" s="23"/>
       <c r="O19" s="24"/>
-      <c r="P19" s="42" t="s">
+      <c r="P19" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
       <c r="S19" s="29"/>
     </row>
     <row r="20" spans="4:19" ht="13.5" thickBot="1">
@@ -3526,11 +3267,11 @@
     <row r="25" spans="4:19" ht="13.5" thickBot="1">
       <c r="I25" s="27"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="42" t="s">
+      <c r="K25" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
       <c r="N25" s="29"/>
     </row>
     <row r="26" spans="4:19">
@@ -3556,65 +3297,65 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K13:M13"/>
     <mergeCell ref="K25:M25"/>
     <mergeCell ref="P13:R13"/>
     <mergeCell ref="U13:W13"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="P19:R19"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="K13:M13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="56" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="55" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="52" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3644,16 +3385,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -3809,16 +3550,16 @@
       <c r="H9" s="3">
         <v>15</v>
       </c>
-      <c r="P9" s="46" t="s">
+      <c r="P9" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="3" t="s">
@@ -3882,18 +3623,18 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="13.5" thickBot="1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
       <c r="I13" s="23"/>
       <c r="J13" s="24"/>
       <c r="K13" s="23"/>
@@ -3901,21 +3642,21 @@
       <c r="M13" s="24"/>
       <c r="N13" s="23"/>
       <c r="O13" s="24"/>
-      <c r="P13" s="42" t="s">
+      <c r="P13" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
       <c r="S13" s="23"/>
       <c r="T13" s="24"/>
-      <c r="U13" s="42" t="s">
+      <c r="U13" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
     </row>
     <row r="14" spans="1:28" ht="13.5" thickBot="1">
       <c r="A14" s="18">
@@ -4069,25 +3810,25 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
       <c r="I19" s="23"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="42" t="s">
+      <c r="K19" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
       <c r="N19" s="23"/>
       <c r="O19" s="24"/>
-      <c r="P19" s="42" t="s">
+      <c r="P19" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
       <c r="S19" s="29"/>
     </row>
     <row r="20" spans="3:19" ht="13.5" thickBot="1">
@@ -4196,18 +3937,18 @@
       <c r="C25" s="27"/>
       <c r="D25" s="36"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="47"/>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
-      <c r="K25" s="45" t="s">
+      <c r="K25" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
       <c r="N25" s="29"/>
     </row>
     <row r="26" spans="3:19">
@@ -4258,6 +3999,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="P9:W9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="Z13:AB13"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="U13:W13"/>
@@ -4266,59 +4012,54 @@
     <mergeCell ref="P19:R19"/>
     <mergeCell ref="K25:M25"/>
     <mergeCell ref="P13:R13"/>
-    <mergeCell ref="P9:W9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="49" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA14">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4348,16 +4089,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4608,18 +4349,18 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
       <c r="I15" s="23"/>
       <c r="J15" s="24"/>
       <c r="K15" s="23"/>
@@ -4627,18 +4368,18 @@
       <c r="M15" s="24"/>
       <c r="N15" s="23"/>
       <c r="O15" s="24"/>
-      <c r="P15" s="42" t="s">
+      <c r="P15" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
       <c r="S15" s="23"/>
       <c r="T15" s="24"/>
-      <c r="U15" s="42" t="s">
+      <c r="U15" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
       <c r="X15" s="23"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" thickBot="1">
@@ -4748,11 +4489,11 @@
     <row r="18" spans="1:28">
       <c r="C18" s="35"/>
       <c r="D18" s="27"/>
-      <c r="Z18" s="43" t="s">
+      <c r="Z18" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="45"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="49"/>
     </row>
     <row r="19" spans="1:28" ht="13.5" thickBot="1">
       <c r="C19" s="27"/>
@@ -4824,32 +4565,32 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="28"/>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
       <c r="I21" s="23"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
       <c r="N21" s="23"/>
       <c r="O21" s="24"/>
-      <c r="P21" s="42" t="s">
+      <c r="P21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="43"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="47"/>
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
-      <c r="U21" s="45" t="s">
+      <c r="U21" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
       <c r="X21" s="29"/>
     </row>
     <row r="22" spans="1:28" ht="13.5" thickBot="1">
@@ -4979,18 +4720,18 @@
       <c r="C27" s="27"/>
       <c r="D27" s="36"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="47"/>
       <c r="I27" s="37"/>
       <c r="J27" s="37"/>
-      <c r="K27" s="45" t="s">
+      <c r="K27" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
       <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:28">
@@ -5041,12 +4782,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="P15:R15"/>
     <mergeCell ref="Z18:AB18"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="K21:M21"/>
@@ -5054,59 +4789,65 @@
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="U21:W21"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="P15:R15"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V22">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/FIAEB Übungen/Netzplan_Übung.xlsx
+++ b/FIAEB Übungen/Netzplan_Übung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FIAEB Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C59419-EB05-4979-8846-686FAB86046D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83F481F-2FDE-4887-AF87-5770049DBB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -332,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -563,12 +563,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -583,9 +609,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,17 +685,11 @@
     <xf numFmtId="9" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,12 +700,514 @@
     <xf numFmtId="49" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="85">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -956,114 +1475,6 @@
           <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1470,10 +1881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD67"/>
+  <dimension ref="A1:BE67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="12.75"/>
@@ -1481,22 +1892,23 @@
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:57" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
       <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1509,9 +1921,146 @@
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="L1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="52">
+        <v>45208</v>
+      </c>
+      <c r="N1" s="52">
+        <v>45209</v>
+      </c>
+      <c r="O1" s="52">
+        <v>45210</v>
+      </c>
+      <c r="P1" s="52">
+        <v>45211</v>
+      </c>
+      <c r="Q1" s="52">
+        <v>45212</v>
+      </c>
+      <c r="R1" s="52">
+        <v>45213</v>
+      </c>
+      <c r="S1" s="52">
+        <v>45214</v>
+      </c>
+      <c r="T1" s="52">
+        <v>45215</v>
+      </c>
+      <c r="U1" s="52">
+        <v>45216</v>
+      </c>
+      <c r="V1" s="52">
+        <v>45217</v>
+      </c>
+      <c r="W1" s="52">
+        <v>45218</v>
+      </c>
+      <c r="X1" s="52">
+        <v>45219</v>
+      </c>
+      <c r="Y1" s="52">
+        <v>45220</v>
+      </c>
+      <c r="Z1" s="52">
+        <v>45221</v>
+      </c>
+      <c r="AA1" s="52">
+        <v>45222</v>
+      </c>
+      <c r="AB1" s="52">
+        <v>45223</v>
+      </c>
+      <c r="AC1" s="52">
+        <v>45224</v>
+      </c>
+      <c r="AD1" s="52">
+        <v>45225</v>
+      </c>
+      <c r="AE1" s="52">
+        <v>45226</v>
+      </c>
+      <c r="AF1" s="52">
+        <v>45227</v>
+      </c>
+      <c r="AG1" s="52">
+        <v>45228</v>
+      </c>
+      <c r="AH1" s="52">
+        <v>45229</v>
+      </c>
+      <c r="AI1" s="52">
+        <v>45230</v>
+      </c>
+      <c r="AJ1" s="52">
+        <v>45231</v>
+      </c>
+      <c r="AK1" s="52">
+        <v>45232</v>
+      </c>
+      <c r="AL1" s="52">
+        <v>45233</v>
+      </c>
+      <c r="AM1" s="52">
+        <v>45234</v>
+      </c>
+      <c r="AN1" s="52">
+        <v>45235</v>
+      </c>
+      <c r="AO1" s="52">
+        <v>45236</v>
+      </c>
+      <c r="AP1" s="52">
+        <v>45237</v>
+      </c>
+      <c r="AQ1" s="52">
+        <v>45238</v>
+      </c>
+      <c r="AR1" s="52">
+        <v>45239</v>
+      </c>
+      <c r="AS1" s="52">
+        <v>45240</v>
+      </c>
+      <c r="AT1" s="52">
+        <v>45241</v>
+      </c>
+      <c r="AU1" s="52">
+        <v>45242</v>
+      </c>
+      <c r="AV1" s="52">
+        <v>45243</v>
+      </c>
+      <c r="AW1" s="52">
+        <v>45244</v>
+      </c>
+      <c r="AX1" s="52">
+        <v>45245</v>
+      </c>
+      <c r="AY1" s="52">
+        <v>45246</v>
+      </c>
+      <c r="AZ1" s="52">
+        <v>45247</v>
+      </c>
+      <c r="BA1" s="52">
+        <v>45248</v>
+      </c>
+      <c r="BB1" s="52">
+        <v>45249</v>
+      </c>
+      <c r="BC1" s="52">
+        <v>45250</v>
+      </c>
+      <c r="BD1" s="52">
+        <v>45251</v>
+      </c>
+      <c r="BE1" s="52">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1528,27 +2077,77 @@
       <c r="H2" s="3">
         <v>2</v>
       </c>
-      <c r="I2" s="41">
-        <v>1</v>
-      </c>
-      <c r="J2" s="42">
+      <c r="I2" s="40">
+        <v>3</v>
+      </c>
+      <c r="J2" s="41">
         <v>1</v>
       </c>
       <c r="K2" s="3">
         <f>ROUNDUP(H2/(I2*J2),0)</f>
-        <v>2</v>
-      </c>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="L2" s="51">
+        <f>SUM(M2:BE2)</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="53">
+        <v>1</v>
+      </c>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
+    </row>
+    <row r="3" spans="1:57">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1557,27 +2156,75 @@
       <c r="H3" s="3">
         <v>8</v>
       </c>
-      <c r="I3" s="41">
-        <v>1</v>
-      </c>
-      <c r="J3" s="42">
-        <v>1</v>
+      <c r="I3" s="40">
+        <v>2</v>
+      </c>
+      <c r="J3" s="41">
+        <v>0.75</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" ref="K3:K13" si="0">ROUNDUP(H3/(I3*J3),0)</f>
-        <v>8</v>
-      </c>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:28">
+        <v>6</v>
+      </c>
+      <c r="L3" s="51">
+        <f t="shared" ref="L3:L13" si="1">SUM(M3:BE3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="53"/>
+      <c r="AT3" s="53"/>
+      <c r="AU3" s="53"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
+      <c r="BB3" s="53"/>
+      <c r="BC3" s="53"/>
+      <c r="BD3" s="53"/>
+      <c r="BE3" s="53"/>
+    </row>
+    <row r="4" spans="1:57">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1588,27 +2235,76 @@
       <c r="H4" s="3">
         <v>8</v>
       </c>
-      <c r="I4" s="41">
-        <v>1</v>
-      </c>
-      <c r="J4" s="42">
-        <v>1</v>
+      <c r="I4" s="40">
+        <v>2</v>
+      </c>
+      <c r="J4" s="41">
+        <f>(100%+50%)/2</f>
+        <v>0.75</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:28">
+        <v>6</v>
+      </c>
+      <c r="L4" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
+      <c r="BE4" s="53"/>
+    </row>
+    <row r="5" spans="1:57">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1617,27 +2313,75 @@
       <c r="H5" s="3">
         <v>6</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="40">
         <v>1</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="41">
         <v>1</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="L5" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="53"/>
+    </row>
+    <row r="6" spans="1:57">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1646,27 +2390,75 @@
       <c r="H6" s="3">
         <v>8</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="40">
         <v>1</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="41">
         <v>1</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="L6" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="53"/>
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="53"/>
+      <c r="BC6" s="53"/>
+      <c r="BD6" s="53"/>
+      <c r="BE6" s="53"/>
+    </row>
+    <row r="7" spans="1:57">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1675,29 +2467,77 @@
       <c r="H7" s="3">
         <v>8</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="40">
         <v>1</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="41">
         <v>1</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="L7" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="53"/>
+      <c r="AP7" s="53"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="53"/>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="53"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="53"/>
+      <c r="AX7" s="53"/>
+      <c r="AY7" s="53"/>
+      <c r="AZ7" s="53"/>
+      <c r="BA7" s="53"/>
+      <c r="BB7" s="53"/>
+      <c r="BC7" s="53"/>
+      <c r="BD7" s="53"/>
+      <c r="BE7" s="53"/>
+    </row>
+    <row r="8" spans="1:57">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1708,27 +2548,75 @@
       <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="40">
         <v>1</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="41">
         <v>1</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="L8" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="53"/>
+      <c r="AS8" s="53"/>
+      <c r="AT8" s="53"/>
+      <c r="AU8" s="53"/>
+      <c r="AV8" s="53"/>
+      <c r="AW8" s="53"/>
+      <c r="AX8" s="53"/>
+      <c r="AY8" s="53"/>
+      <c r="AZ8" s="53"/>
+      <c r="BA8" s="53"/>
+      <c r="BB8" s="53"/>
+      <c r="BC8" s="53"/>
+      <c r="BD8" s="53"/>
+      <c r="BE8" s="53"/>
+    </row>
+    <row r="9" spans="1:57">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
@@ -1737,27 +2625,75 @@
       <c r="H9" s="3">
         <v>6</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="40">
         <v>1</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="41">
         <v>1</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="L9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="53"/>
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="53"/>
+      <c r="AS9" s="53"/>
+      <c r="AT9" s="53"/>
+      <c r="AU9" s="53"/>
+      <c r="AV9" s="53"/>
+      <c r="AW9" s="53"/>
+      <c r="AX9" s="53"/>
+      <c r="AY9" s="53"/>
+      <c r="AZ9" s="53"/>
+      <c r="BA9" s="53"/>
+      <c r="BB9" s="53"/>
+      <c r="BC9" s="53"/>
+      <c r="BD9" s="53"/>
+      <c r="BE9" s="53"/>
+    </row>
+    <row r="10" spans="1:57">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1766,27 +2702,75 @@
       <c r="H10" s="3">
         <v>5</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="40">
         <v>1</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="41">
         <v>1</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="L10" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="53"/>
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53"/>
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53"/>
+      <c r="AW10" s="53"/>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="53"/>
+      <c r="AZ10" s="53"/>
+      <c r="BA10" s="53"/>
+      <c r="BB10" s="53"/>
+      <c r="BC10" s="53"/>
+      <c r="BD10" s="53"/>
+      <c r="BE10" s="53"/>
+    </row>
+    <row r="11" spans="1:57">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1795,29 +2779,77 @@
       <c r="H11" s="3">
         <v>8</v>
       </c>
-      <c r="I11" s="41">
-        <v>1</v>
-      </c>
-      <c r="J11" s="42">
+      <c r="I11" s="40">
+        <v>2</v>
+      </c>
+      <c r="J11" s="41">
         <v>1</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:28">
+        <v>4</v>
+      </c>
+      <c r="L11" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="53"/>
+      <c r="AQ11" s="53"/>
+      <c r="AR11" s="53"/>
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="53"/>
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="53"/>
+      <c r="AW11" s="53"/>
+      <c r="AX11" s="53"/>
+      <c r="AY11" s="53"/>
+      <c r="AZ11" s="53"/>
+      <c r="BA11" s="53"/>
+      <c r="BB11" s="53"/>
+      <c r="BC11" s="53"/>
+      <c r="BD11" s="53"/>
+      <c r="BE11" s="53"/>
+    </row>
+    <row r="12" spans="1:57">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1826,866 +2858,950 @@
       <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="40">
         <v>1</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="41">
         <v>1</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="L12" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
+      <c r="AP12" s="53"/>
+      <c r="AQ12" s="53"/>
+      <c r="AR12" s="53"/>
+      <c r="AS12" s="53"/>
+      <c r="AT12" s="53"/>
+      <c r="AU12" s="53"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="53"/>
+      <c r="AZ12" s="53"/>
+      <c r="BA12" s="53"/>
+      <c r="BB12" s="53"/>
+      <c r="BC12" s="53"/>
+      <c r="BD12" s="53"/>
+      <c r="BE12" s="53"/>
+    </row>
+    <row r="13" spans="1:57">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="3">
         <v>4</v>
       </c>
-      <c r="I13" s="41">
-        <v>1</v>
-      </c>
-      <c r="J13" s="42">
+      <c r="I13" s="40">
+        <v>3</v>
+      </c>
+      <c r="J13" s="41">
         <v>1</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="15">
-        <v>0</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17">
+        <v>2</v>
+      </c>
+      <c r="L13" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53"/>
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="53"/>
+      <c r="AY13" s="53"/>
+      <c r="AZ13" s="53"/>
+      <c r="BA13" s="53"/>
+      <c r="BB13" s="53"/>
+      <c r="BC13" s="53"/>
+      <c r="BD13" s="53"/>
+      <c r="BE13" s="53"/>
+    </row>
+    <row r="15" spans="1:57">
+      <c r="A15" s="14">
+        <v>0</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16">
         <f>A15+A17</f>
-        <v>2</v>
-      </c>
-      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14">
         <f>C15</f>
-        <v>2</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16">
         <f>F15+F17</f>
+        <v>7</v>
+      </c>
+      <c r="K15" s="14">
+        <f>H15</f>
+        <v>7</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16">
+        <f>K15+K17</f>
+        <v>13</v>
+      </c>
+      <c r="P15" s="14">
+        <f>M15</f>
+        <v>13</v>
+      </c>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="16">
+        <f>P15+P17</f>
+        <v>18</v>
+      </c>
+      <c r="U15" s="14">
+        <f>R15</f>
+        <v>18</v>
+      </c>
+      <c r="V15" s="15"/>
+      <c r="W15" s="16">
+        <f>U15+U17</f>
+        <v>22</v>
+      </c>
+      <c r="Z15" s="14">
+        <f>MAX(W15,W20)</f>
+        <v>23</v>
+      </c>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="16">
+        <f>Z15+Z17</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" ht="13.5" thickBot="1">
+      <c r="A16" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="45"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="15">
-        <f>H15</f>
-        <v>10</v>
-      </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="17">
-        <f>K15+K17</f>
-        <v>16</v>
-      </c>
-      <c r="P15" s="15">
-        <f>M15</f>
-        <v>16</v>
-      </c>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="17">
-        <f>P15+P17</f>
-        <v>21</v>
-      </c>
-      <c r="U15" s="15">
-        <f>R15</f>
-        <v>21</v>
-      </c>
-      <c r="V15" s="16"/>
-      <c r="W15" s="17">
-        <f>U15+U17</f>
-        <v>29</v>
-      </c>
-      <c r="Z15" s="15">
-        <f>MAX(W15,W20)</f>
-        <v>29</v>
-      </c>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="17">
-        <f>Z15+Z17</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="13.5" thickBot="1">
-      <c r="A16" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="44" t="s">
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+    </row>
+    <row r="17" spans="1:30" ht="13.5" thickBot="1">
+      <c r="A17" s="17">
+        <f>VLOOKUP(A16,$A$2:$K$13,11)</f>
+        <v>1</v>
+      </c>
+      <c r="B17" s="18">
+        <f>C18-C15</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="24"/>
+      <c r="F17" s="17">
+        <f>VLOOKUP(F16,$A$2:$K$13,11)</f>
         <v>6</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-    </row>
-    <row r="17" spans="1:30" ht="13.5" thickBot="1">
-      <c r="A17" s="18">
-        <f>VLOOKUP(A16,$A$2:$K$13,11)</f>
-        <v>2</v>
-      </c>
-      <c r="B17" s="19">
-        <f>C18-C15</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="25"/>
-      <c r="F17" s="18">
-        <f>VLOOKUP(F16,$A$2:$K$13,11)</f>
-        <v>8</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="G17" s="18">
         <f>H18-H15</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="K17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="K17" s="17">
         <f>VLOOKUP(K16,$A$2:$K$13,11)</f>
         <v>6</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="18">
         <f>M18-M15</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="20"/>
-      <c r="P17" s="18">
+        <v>1</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="P17" s="17">
         <f>VLOOKUP(P16,$A$2:$K$13,11)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17" s="18">
         <f>R18-R15</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="20"/>
-      <c r="U17" s="18">
+        <v>1</v>
+      </c>
+      <c r="R17" s="19"/>
+      <c r="U17" s="17">
         <f>VLOOKUP(U16,$A$2:$K$13,11)</f>
-        <v>8</v>
-      </c>
-      <c r="V17" s="19">
+        <v>4</v>
+      </c>
+      <c r="V17" s="18">
         <f>W18-W15</f>
-        <v>0</v>
-      </c>
-      <c r="W17" s="20"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="18">
+        <v>1</v>
+      </c>
+      <c r="W17" s="19"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="17">
         <f>VLOOKUP(Z16,$A$2:$K$13,11)</f>
-        <v>4</v>
-      </c>
-      <c r="AA17" s="19">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="18">
         <f>AB18-AB15</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="20"/>
+      <c r="AB17" s="19"/>
       <c r="AD17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <f>C18-A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="22">
+      <c r="B18" s="15"/>
+      <c r="C18" s="21">
         <f>MIN(F18,F23)</f>
-        <v>2</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="F18" s="21">
+        <v>1</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="F18" s="20">
         <f>H18-F17</f>
         <v>2</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="22">
+      <c r="G18" s="15"/>
+      <c r="H18" s="21">
         <f>K18</f>
-        <v>10</v>
-      </c>
-      <c r="K18" s="21">
+        <v>8</v>
+      </c>
+      <c r="K18" s="20">
         <f>M18-K17</f>
-        <v>10</v>
-      </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="22">
+        <v>8</v>
+      </c>
+      <c r="L18" s="15"/>
+      <c r="M18" s="21">
         <f>P18</f>
-        <v>16</v>
-      </c>
-      <c r="P18" s="21">
+        <v>14</v>
+      </c>
+      <c r="P18" s="20">
         <f>R18-P17</f>
-        <v>16</v>
-      </c>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="22">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="21">
         <f>U18</f>
+        <v>19</v>
+      </c>
+      <c r="U18" s="20">
+        <f>W18-U17</f>
+        <v>19</v>
+      </c>
+      <c r="V18" s="15"/>
+      <c r="W18" s="21">
+        <f>Z18</f>
+        <v>23</v>
+      </c>
+      <c r="X18" s="26"/>
+      <c r="Z18" s="20">
+        <f>AB18-Z17</f>
+        <v>23</v>
+      </c>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="21">
+        <f>AB15</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="D19" s="26"/>
+      <c r="X19" s="26"/>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="D20" s="26"/>
+      <c r="F20" s="14">
+        <f>C15</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16">
+        <f>F20+F22</f>
+        <v>7</v>
+      </c>
+      <c r="K20" s="14">
+        <f>H20</f>
+        <v>7</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16">
+        <f>K20+K22</f>
+        <v>15</v>
+      </c>
+      <c r="P20" s="14">
+        <f>M20</f>
+        <v>15</v>
+      </c>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16">
+        <f>P20+P22</f>
         <v>21</v>
       </c>
-      <c r="U18" s="21">
-        <f>W18-U17</f>
+      <c r="U20" s="14">
+        <f>MAX(R20,R25)</f>
         <v>21</v>
       </c>
-      <c r="V18" s="16"/>
-      <c r="W18" s="22">
-        <f>Z18</f>
-        <v>29</v>
-      </c>
-      <c r="X18" s="27"/>
-      <c r="Z18" s="21">
-        <f>AB18-Z17</f>
-        <v>29</v>
-      </c>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="22">
-        <f>AB15</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
-      <c r="D19" s="27"/>
-      <c r="X19" s="27"/>
-    </row>
-    <row r="20" spans="1:30">
-      <c r="D20" s="27"/>
-      <c r="F20" s="15">
-        <f>C15</f>
-        <v>2</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17">
-        <f>F20+F22</f>
-        <v>10</v>
-      </c>
-      <c r="K20" s="15">
-        <f>H20</f>
-        <v>10</v>
-      </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="17">
-        <f>K20+K22</f>
-        <v>18</v>
-      </c>
-      <c r="P20" s="15">
-        <f>M20</f>
-        <v>18</v>
-      </c>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="17">
-        <f>P20+P22</f>
-        <v>24</v>
-      </c>
-      <c r="U20" s="15">
-        <f>MAX(R20,R25)</f>
-        <v>24</v>
-      </c>
-      <c r="V20" s="16"/>
-      <c r="W20" s="17">
+      <c r="V20" s="15"/>
+      <c r="W20" s="16">
         <f>U20+U22</f>
-        <v>26</v>
-      </c>
-      <c r="X20" s="27"/>
+        <v>23</v>
+      </c>
+      <c r="X20" s="26"/>
     </row>
     <row r="21" spans="1:30" ht="13.5" thickBot="1">
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="44" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="44" t="s">
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="44" t="s">
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="44" t="s">
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="29"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="28"/>
     </row>
     <row r="22" spans="1:30" ht="13.5" thickBot="1">
-      <c r="F22" s="18">
+      <c r="F22" s="17">
         <f>VLOOKUP(F21,$A$2:$K$13,11)</f>
-        <v>8</v>
-      </c>
-      <c r="G22" s="19">
+        <v>6</v>
+      </c>
+      <c r="G22" s="18">
         <f>H23-H20</f>
-        <v>3</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="25"/>
-      <c r="K22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="24"/>
+      <c r="K22" s="17">
         <f>VLOOKUP(K21,$A$2:$K$13,11)</f>
         <v>8</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="18">
         <f>M23-M20</f>
-        <v>3</v>
-      </c>
-      <c r="M22" s="20"/>
-      <c r="P22" s="18">
+        <v>0</v>
+      </c>
+      <c r="M22" s="19"/>
+      <c r="P22" s="17">
         <f>VLOOKUP(P21,$A$2:$K$13,11)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q22" s="18">
         <f>R23-R20</f>
-        <v>3</v>
-      </c>
-      <c r="R22" s="20"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="18">
+        <v>0</v>
+      </c>
+      <c r="R22" s="19"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="17">
         <f>VLOOKUP(U21,$A$2:$K$13,11)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="19">
+      <c r="V22" s="18">
         <f>W23-W20</f>
-        <v>3</v>
-      </c>
-      <c r="W22" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="19"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <f>H23-F22</f>
-        <v>5</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="22">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="21">
         <f>MIN(K23,K28)</f>
-        <v>13</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="K23" s="21">
+        <v>7</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="K23" s="20">
         <f>M23-K22</f>
-        <v>13</v>
-      </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="22">
+        <v>7</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="21">
         <f>P23</f>
+        <v>15</v>
+      </c>
+      <c r="P23" s="20">
+        <f>R23-P22</f>
+        <v>15</v>
+      </c>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="21">
+        <f>U23</f>
         <v>21</v>
       </c>
-      <c r="P23" s="21">
-        <f>R23-P22</f>
+      <c r="S23" s="26"/>
+      <c r="U23" s="20">
+        <f>W23-U22</f>
         <v>21</v>
       </c>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="22">
-        <f>U23</f>
-        <v>27</v>
-      </c>
-      <c r="S23" s="27"/>
-      <c r="U23" s="21">
-        <f>W23-U22</f>
-        <v>27</v>
-      </c>
-      <c r="V23" s="16"/>
-      <c r="W23" s="22">
+      <c r="V23" s="15"/>
+      <c r="W23" s="21">
         <f>Z18</f>
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:30">
-      <c r="I24" s="27"/>
-      <c r="S24" s="27"/>
+      <c r="I24" s="26"/>
+      <c r="S24" s="26"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="I25" s="27"/>
-      <c r="K25" s="15">
+      <c r="I25" s="26"/>
+      <c r="K25" s="14">
         <f>H20</f>
-        <v>10</v>
-      </c>
-      <c r="L25" s="16"/>
-      <c r="M25" s="17">
+        <v>7</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="16">
         <f>K25+K27</f>
-        <v>18</v>
-      </c>
-      <c r="P25" s="15">
+        <v>15</v>
+      </c>
+      <c r="P25" s="14">
         <f>M25</f>
-        <v>18</v>
-      </c>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="17">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="16">
         <f>P25+P27</f>
-        <v>23</v>
-      </c>
-      <c r="S25" s="27"/>
+        <v>20</v>
+      </c>
+      <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:30" ht="13.5" thickBot="1">
-      <c r="I26" s="27"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="44" t="s">
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="44" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="29"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="28"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="K27" s="18">
+      <c r="K27" s="17">
         <f>VLOOKUP(K26,$A$2:$K$13,11)</f>
         <v>8</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="18">
         <f>M28-M25</f>
-        <v>4</v>
-      </c>
-      <c r="M27" s="20"/>
-      <c r="P27" s="18">
+        <v>1</v>
+      </c>
+      <c r="M27" s="19"/>
+      <c r="P27" s="17">
         <f>VLOOKUP(P26,$A$2:$K$13,11)</f>
         <v>5</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="Q27" s="18">
         <f>R28-R25</f>
-        <v>4</v>
-      </c>
-      <c r="R27" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="R27" s="19"/>
     </row>
     <row r="28" spans="1:30">
-      <c r="K28" s="21">
+      <c r="K28" s="20">
         <f>M28-K27</f>
-        <v>14</v>
-      </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="22">
+        <v>8</v>
+      </c>
+      <c r="L28" s="15"/>
+      <c r="M28" s="21">
         <f>P28</f>
-        <v>22</v>
-      </c>
-      <c r="P28" s="21">
+        <v>16</v>
+      </c>
+      <c r="P28" s="20">
         <f>R28-P27</f>
-        <v>22</v>
-      </c>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="22">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="21">
         <f>U23</f>
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="56.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D36" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="H37" s="43" t="s">
+      <c r="A37" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="H37" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D38" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="43" t="s">
+      <c r="H38" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="22" t="s">
+      <c r="B39" s="15"/>
+      <c r="C39" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D39" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="43" t="s">
+      <c r="H39" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
     </row>
     <row r="41" spans="1:16" ht="13.5">
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
     </row>
     <row r="42" spans="1:16" ht="13.5">
-      <c r="J42" s="10"/>
-      <c r="K42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43" spans="1:16" ht="13.5">
-      <c r="J43" s="11"/>
-      <c r="K43" s="9"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44" spans="1:16" ht="13.5">
-      <c r="J44" s="10"/>
-      <c r="K44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="8"/>
     </row>
     <row r="45" spans="1:16" ht="13.5">
-      <c r="J45" s="10"/>
-      <c r="K45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:16" ht="13.5">
-      <c r="J46" s="10"/>
-      <c r="K46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="8"/>
     </row>
     <row r="47" spans="1:16" ht="13.5">
-      <c r="J47" s="10"/>
-      <c r="K47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="8"/>
     </row>
     <row r="48" spans="1:16" ht="13.5">
-      <c r="J48" s="10"/>
-      <c r="K48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:11" ht="13.5">
-      <c r="J49" s="10"/>
-      <c r="K49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="8"/>
     </row>
     <row r="50" spans="1:11" ht="13.5">
-      <c r="J50" s="10"/>
-      <c r="K50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="8"/>
     </row>
     <row r="51" spans="1:11" ht="13.5">
-      <c r="J51" s="10"/>
-      <c r="K51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="8"/>
     </row>
     <row r="52" spans="1:11" ht="13.5">
-      <c r="J52" s="10"/>
-      <c r="K52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="8"/>
     </row>
     <row r="53" spans="1:11" ht="13.5">
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
     </row>
     <row r="54" spans="1:11" ht="13.5">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
     </row>
     <row r="55" spans="1:11" ht="13.5">
-      <c r="A55" s="8"/>
-      <c r="B55" s="10" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10" t="s">
+      <c r="C55" s="9"/>
+      <c r="D55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:11" ht="13.5">
-      <c r="A56" s="8"/>
-      <c r="B56" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="11" t="s">
+      <c r="A56" s="7"/>
+      <c r="B56" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
     </row>
     <row r="57" spans="1:11" ht="13.5">
-      <c r="A57" s="8"/>
-      <c r="B57" s="12" t="s">
+      <c r="A57" s="7"/>
+      <c r="B57" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:11" ht="13.5">
-      <c r="A58" s="8"/>
-      <c r="B58" s="10" t="s">
+      <c r="A58" s="7"/>
+      <c r="B58" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10" t="s">
+      <c r="C58" s="9"/>
+      <c r="D58" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
     </row>
     <row r="59" spans="1:11" ht="13.5">
-      <c r="A59" s="8"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:11" ht="13.5">
-      <c r="A60" s="8"/>
-      <c r="B60" s="13" t="s">
+      <c r="A60" s="7"/>
+      <c r="B60" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
     </row>
     <row r="61" spans="1:11" ht="13.5">
-      <c r="A61" s="8"/>
-      <c r="B61" s="13" t="s">
+      <c r="A61" s="7"/>
+      <c r="B61" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:11" ht="13.5">
-      <c r="A62" s="8"/>
-      <c r="B62" s="13" t="s">
+      <c r="A62" s="7"/>
+      <c r="B62" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
     </row>
     <row r="63" spans="1:11" ht="13.5">
-      <c r="A63" s="8"/>
-      <c r="B63" s="13" t="s">
+      <c r="A63" s="7"/>
+      <c r="B63" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
     </row>
     <row r="64" spans="1:11" ht="13.5">
-      <c r="A64" s="8"/>
-      <c r="B64" s="12" t="s">
+      <c r="A64" s="7"/>
+      <c r="B64" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
     </row>
     <row r="65" spans="1:9" ht="13.5">
-      <c r="A65" s="8"/>
+      <c r="A65" s="7"/>
       <c r="B65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
     </row>
     <row r="66" spans="1:9" ht="13.5">
-      <c r="A66" s="8"/>
-      <c r="B66" s="14" t="s">
+      <c r="A66" s="7"/>
+      <c r="B66" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" ht="13.5">
-      <c r="A67" s="8"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="U21:W21"/>
     <mergeCell ref="H36:P36"/>
     <mergeCell ref="H37:P37"/>
     <mergeCell ref="K26:M26"/>
@@ -2694,65 +3810,87 @@
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="H38:P38"/>
     <mergeCell ref="H39:P39"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="K16:M16"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="43" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="42" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17 Q27">
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17">
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>0</formula>
+  <conditionalFormatting sqref="M1:BE13">
+    <cfRule type="expression" dxfId="15" priority="2">
+      <formula>IF(OR(WEEKDAY(M$1)=7,WEEKDAY(M$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:BE13">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2781,16 +3919,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2817,11 +3955,11 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2835,11 +3973,11 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2855,11 +3993,11 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
@@ -2873,11 +4011,11 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
@@ -2891,11 +4029,11 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2909,13 +4047,13 @@
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2931,13 +4069,13 @@
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -2951,11 +4089,11 @@
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -2964,398 +4102,398 @@
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="15">
-        <v>0</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17">
+      <c r="A12" s="14">
+        <v>0</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16">
         <v>6</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>6</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17">
+      <c r="G12" s="15"/>
+      <c r="H12" s="16">
         <v>13</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="14">
         <v>13</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17">
+      <c r="L12" s="15"/>
+      <c r="M12" s="16">
         <v>17</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="14">
         <v>17</v>
       </c>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="17">
+      <c r="Q12" s="15"/>
+      <c r="R12" s="16">
         <v>20</v>
       </c>
-      <c r="U12" s="15">
+      <c r="U12" s="14">
         <v>24</v>
       </c>
-      <c r="V12" s="16"/>
-      <c r="W12" s="17">
+      <c r="V12" s="15"/>
+      <c r="W12" s="16">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="44" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="44" t="s">
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="44" t="s">
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="44" t="s">
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
     </row>
     <row r="14" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <f>VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B14" s="19">
-        <v>0</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="F14" s="18">
+      <c r="B14" s="18">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="F14" s="17">
         <f>VLOOKUP(F13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <v>4</v>
       </c>
-      <c r="H14" s="20">
-        <v>0</v>
-      </c>
-      <c r="K14" s="18">
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
         <f>VLOOKUP(K13,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="18">
         <v>4</v>
       </c>
-      <c r="M14" s="20">
-        <v>0</v>
-      </c>
-      <c r="P14" s="18">
+      <c r="M14" s="19">
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
         <f>VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>3</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q14" s="18">
         <v>4</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="19">
         <v>4</v>
       </c>
-      <c r="S14" s="33"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="18">
+      <c r="S14" s="32"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="17">
         <f>VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>2</v>
       </c>
-      <c r="V14" s="19">
-        <v>0</v>
-      </c>
-      <c r="W14" s="20">
+      <c r="V14" s="18">
+        <v>0</v>
+      </c>
+      <c r="W14" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="21">
-        <v>0</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="22">
+      <c r="A15" s="20">
+        <v>0</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="21">
         <v>6</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="F15" s="21">
+      <c r="D15" s="25"/>
+      <c r="F15" s="20">
         <v>10</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="22">
+      <c r="G15" s="15"/>
+      <c r="H15" s="21">
         <v>17</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="20">
         <v>17</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="22">
+      <c r="L15" s="15"/>
+      <c r="M15" s="21">
         <v>21</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="20">
         <v>21</v>
       </c>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="22">
+      <c r="Q15" s="15"/>
+      <c r="R15" s="21">
         <v>24</v>
       </c>
-      <c r="S15" s="27"/>
-      <c r="U15" s="21">
+      <c r="S15" s="26"/>
+      <c r="U15" s="20">
         <v>24</v>
       </c>
-      <c r="V15" s="16"/>
-      <c r="W15" s="22">
+      <c r="V15" s="15"/>
+      <c r="W15" s="21">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="D16" s="27"/>
-      <c r="S16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="S16" s="26"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="27"/>
-      <c r="S17" s="27"/>
+      <c r="D17" s="26"/>
+      <c r="S17" s="26"/>
     </row>
     <row r="18" spans="4:19">
-      <c r="D18" s="27"/>
-      <c r="F18" s="15">
+      <c r="D18" s="26"/>
+      <c r="F18" s="14">
         <v>6</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17">
+      <c r="G18" s="15"/>
+      <c r="H18" s="16">
         <v>13</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="14">
         <v>13</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17">
+      <c r="L18" s="15"/>
+      <c r="M18" s="16">
         <v>17</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="14">
         <v>18</v>
       </c>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="17">
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16">
         <v>24</v>
       </c>
-      <c r="S18" s="27"/>
+      <c r="S18" s="26"/>
     </row>
     <row r="19" spans="4:19" ht="13.5" thickBot="1">
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="44" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="44" t="s">
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="44" t="s">
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="29"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" spans="4:19" ht="13.5" thickBot="1">
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <f>VLOOKUP(F19,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="G20" s="19">
-        <v>0</v>
-      </c>
-      <c r="H20" s="20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="25"/>
-      <c r="K20" s="18">
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="K20" s="17">
         <f>VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="18">
         <v>1</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="19">
         <v>1</v>
       </c>
-      <c r="O20" s="30"/>
-      <c r="P20" s="18">
+      <c r="O20" s="29"/>
+      <c r="P20" s="17">
         <f>VLOOKUP(P19,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="Q20" s="19">
-        <v>0</v>
-      </c>
-      <c r="R20" s="20">
+      <c r="Q20" s="18">
+        <v>0</v>
+      </c>
+      <c r="R20" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="4:19">
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <v>6</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="22">
+      <c r="G21" s="15"/>
+      <c r="H21" s="21">
         <v>13</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="K21" s="21">
+      <c r="I21" s="25"/>
+      <c r="K21" s="20">
         <v>14</v>
       </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="22">
+      <c r="L21" s="15"/>
+      <c r="M21" s="21">
         <v>18</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="P21" s="21">
+      <c r="N21" s="26"/>
+      <c r="P21" s="20">
         <v>18</v>
       </c>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="22">
+      <c r="Q21" s="15"/>
+      <c r="R21" s="21">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="4:19">
-      <c r="I22" s="27"/>
-      <c r="N22" s="27"/>
+      <c r="I22" s="26"/>
+      <c r="N22" s="26"/>
     </row>
     <row r="23" spans="4:19">
-      <c r="I23" s="27"/>
-      <c r="N23" s="27"/>
+      <c r="I23" s="26"/>
+      <c r="N23" s="26"/>
     </row>
     <row r="24" spans="4:19">
-      <c r="I24" s="27"/>
-      <c r="K24" s="15">
+      <c r="I24" s="26"/>
+      <c r="K24" s="14">
         <v>13</v>
       </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="17">
+      <c r="L24" s="15"/>
+      <c r="M24" s="16">
         <v>18</v>
       </c>
-      <c r="N24" s="27"/>
+      <c r="N24" s="26"/>
     </row>
     <row r="25" spans="4:19" ht="13.5" thickBot="1">
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="44" t="s">
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="29"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="28"/>
     </row>
     <row r="26" spans="4:19">
-      <c r="K26" s="18">
+      <c r="K26" s="17">
         <f>VLOOKUP(K25,$A$2:$H$10,8)</f>
         <v>5</v>
       </c>
-      <c r="L26" s="19">
-        <v>0</v>
-      </c>
-      <c r="M26" s="20">
+      <c r="L26" s="18">
+        <v>0</v>
+      </c>
+      <c r="M26" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="4:19">
-      <c r="K27" s="21">
+      <c r="K27" s="20">
         <v>13</v>
       </c>
-      <c r="L27" s="16"/>
-      <c r="M27" s="22">
+      <c r="L27" s="15"/>
+      <c r="M27" s="21">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="K13:M13"/>
     <mergeCell ref="K25:M25"/>
     <mergeCell ref="P13:R13"/>
     <mergeCell ref="U13:W13"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="P19:R19"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K13:M13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3385,16 +4523,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -3423,11 +4561,11 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3441,11 +4579,11 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
@@ -3459,11 +4597,11 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
@@ -3477,11 +4615,11 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
@@ -3495,11 +4633,11 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
@@ -3513,13 +4651,13 @@
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
@@ -3535,13 +4673,13 @@
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -3550,28 +4688,28 @@
       <c r="H9" s="3">
         <v>15</v>
       </c>
-      <c r="P9" s="43" t="s">
+      <c r="P9" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -3580,430 +4718,425 @@
       </c>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="15">
-        <v>0</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17">
+      <c r="A12" s="14">
+        <v>0</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16">
         <f>A12+A14</f>
         <v>15</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <f>C12</f>
         <v>15</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17">
+      <c r="G12" s="15"/>
+      <c r="H12" s="16">
         <f>F12+F14</f>
         <v>21</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="14">
         <f>H12</f>
         <v>21</v>
       </c>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="17">
+      <c r="Q12" s="15"/>
+      <c r="R12" s="16">
         <f>P12+P14</f>
         <v>28</v>
       </c>
-      <c r="U12" s="15">
+      <c r="U12" s="14">
         <f>MAX(R12,R18)</f>
         <v>59</v>
       </c>
-      <c r="V12" s="16"/>
-      <c r="W12" s="17">
+      <c r="V12" s="15"/>
+      <c r="W12" s="16">
         <f>U12+U14</f>
         <v>63</v>
       </c>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="17">
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="16">
         <f>Z12+Z14</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="13.5" thickBot="1">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="44" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="44" t="s">
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="44" t="s">
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
     </row>
     <row r="14" spans="1:28" ht="13.5" thickBot="1">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <f>VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <f>C15-C12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <f>MIN(F12,F18,F24)-C12</f>
         <v>0</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="F14" s="18">
+      <c r="D14" s="24"/>
+      <c r="F14" s="17">
         <f>VLOOKUP(F13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <f>H15-H12</f>
         <v>31</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <f>P12-H12</f>
         <v>0</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P14" s="17">
         <f>VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q14" s="18">
         <f>R15-R12</f>
         <v>31</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="19">
         <f>U12-R12</f>
         <v>31</v>
       </c>
-      <c r="S14" s="33"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="18">
+      <c r="S14" s="32"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="17">
         <f>VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="V14" s="19">
+      <c r="V14" s="18">
         <f>W15-W12</f>
         <v>0</v>
       </c>
-      <c r="W14" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="19">
+      <c r="W14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="18">
         <f>AB15-AB12</f>
         <v>0</v>
       </c>
-      <c r="AB14" s="20">
+      <c r="AB14" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <f>C15-A14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="22">
+      <c r="B15" s="15"/>
+      <c r="C15" s="21">
         <f>MIN(F15,F21,F27)</f>
         <v>15</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="F15" s="21">
+      <c r="D15" s="25"/>
+      <c r="F15" s="20">
         <f>H15-F14</f>
         <v>46</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="22">
+      <c r="G15" s="15"/>
+      <c r="H15" s="21">
         <f>P15</f>
         <v>52</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="20">
         <f>R15-P14</f>
         <v>52</v>
       </c>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="22">
+      <c r="Q15" s="15"/>
+      <c r="R15" s="21">
         <f>U15</f>
         <v>59</v>
       </c>
-      <c r="S15" s="27"/>
-      <c r="U15" s="21">
+      <c r="S15" s="26"/>
+      <c r="U15" s="20">
         <f>W15-U14</f>
         <v>59</v>
       </c>
-      <c r="V15" s="16"/>
-      <c r="W15" s="22">
+      <c r="V15" s="15"/>
+      <c r="W15" s="21">
         <f>W12</f>
         <v>63</v>
       </c>
-      <c r="Z15" s="21">
+      <c r="Z15" s="20">
         <f>AB15-Z14</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="22"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="21"/>
     </row>
     <row r="16" spans="1:28">
-      <c r="C16" s="35"/>
-      <c r="D16" s="27"/>
-      <c r="S16" s="27"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="26"/>
+      <c r="S16" s="26"/>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="S17" s="27"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="S17" s="26"/>
     </row>
     <row r="18" spans="3:19">
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="F18" s="15">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="F18" s="14">
         <f>C12</f>
         <v>15</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17">
+      <c r="G18" s="15"/>
+      <c r="H18" s="16">
         <f>F18+F20</f>
         <v>29</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="14">
         <f>H18</f>
         <v>29</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17">
+      <c r="L18" s="15"/>
+      <c r="M18" s="16">
         <f>K18+K20</f>
         <v>44</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="14">
         <f>MAX(M18,M24)</f>
         <v>44</v>
       </c>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="17">
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16">
         <f>P18+P20</f>
         <v>59</v>
       </c>
-      <c r="S18" s="27"/>
+      <c r="S18" s="26"/>
     </row>
     <row r="19" spans="3:19" ht="13.5" thickBot="1">
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="44" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="44" t="s">
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="44" t="s">
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="29"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" spans="3:19" ht="13.5" thickBot="1">
-      <c r="C20" s="27"/>
-      <c r="F20" s="18">
+      <c r="C20" s="26"/>
+      <c r="F20" s="17">
         <f>VLOOKUP(F19,$A$2:$H$10,8)</f>
         <v>14</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="18">
         <f>H21-H18</f>
         <v>0</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <f>K18-H18</f>
         <v>0</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="K20" s="18">
+      <c r="I20" s="32"/>
+      <c r="K20" s="17">
         <f>VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="18">
         <f>M21-M18</f>
         <v>0</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="19">
         <f>P18-M18</f>
         <v>0</v>
       </c>
-      <c r="O20" s="30"/>
-      <c r="P20" s="18">
+      <c r="O20" s="29"/>
+      <c r="P20" s="17">
         <f>VLOOKUP(P19,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="Q20" s="18">
         <f>R21-R18</f>
         <v>0</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="19">
         <f>U12-R18</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:19">
-      <c r="C21" s="27"/>
-      <c r="F21" s="21">
+      <c r="C21" s="26"/>
+      <c r="F21" s="20">
         <f>H21-F20</f>
         <v>15</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="22">
+      <c r="G21" s="15"/>
+      <c r="H21" s="21">
         <f>K21</f>
         <v>29</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="20">
         <f>M21-K20</f>
         <v>29</v>
       </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="22">
+      <c r="L21" s="15"/>
+      <c r="M21" s="21">
         <f>P21</f>
         <v>44</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="P21" s="21">
+      <c r="N21" s="26"/>
+      <c r="P21" s="20">
         <f>R21-P20</f>
         <v>44</v>
       </c>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="22">
+      <c r="Q21" s="15"/>
+      <c r="R21" s="21">
         <f>U15</f>
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="27"/>
-      <c r="N22" s="27"/>
+      <c r="C22" s="26"/>
+      <c r="N22" s="26"/>
     </row>
     <row r="23" spans="3:19">
-      <c r="C23" s="27"/>
-      <c r="N23" s="27"/>
+      <c r="C23" s="26"/>
+      <c r="N23" s="26"/>
     </row>
     <row r="24" spans="3:19">
-      <c r="C24" s="27"/>
-      <c r="F24" s="15">
+      <c r="C24" s="26"/>
+      <c r="F24" s="14">
         <f>C12</f>
         <v>15</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17">
+      <c r="G24" s="15"/>
+      <c r="H24" s="16">
         <f>F24+F26</f>
         <v>21</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="14">
         <f>H24</f>
         <v>21</v>
       </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="17">
+      <c r="L24" s="15"/>
+      <c r="M24" s="16">
         <f>K24+K26</f>
         <v>35</v>
       </c>
-      <c r="N24" s="27"/>
+      <c r="N24" s="26"/>
     </row>
     <row r="25" spans="3:19" ht="13.5" thickBot="1">
-      <c r="C25" s="27"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="44" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="49" t="s">
+      <c r="G25" s="43"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="29"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="28"/>
     </row>
     <row r="26" spans="3:19">
-      <c r="F26" s="18">
+      <c r="F26" s="17">
         <f>VLOOKUP(F25,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="18">
         <f>H27-H24</f>
         <v>9</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="19">
         <f>K24-H24</f>
         <v>0</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="17">
         <f>VLOOKUP(K25,$A$2:$H$10,8)</f>
         <v>14</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="18">
         <f>M27-M24</f>
         <v>9</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="19">
         <f>P18-M24</f>
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="3:19">
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <f>H27-F26</f>
         <v>24</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="22">
+      <c r="G27" s="15"/>
+      <c r="H27" s="21">
         <f>K27</f>
         <v>30</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="20">
         <f>M27-K26</f>
         <v>30</v>
       </c>
-      <c r="L27" s="16"/>
-      <c r="M27" s="22">
+      <c r="L27" s="15"/>
+      <c r="M27" s="21">
         <f>P21</f>
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="P9:W9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
     <mergeCell ref="Z13:AB13"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="U13:W13"/>
@@ -4012,54 +5145,59 @@
     <mergeCell ref="P19:R19"/>
     <mergeCell ref="K25:M25"/>
     <mergeCell ref="P13:R13"/>
+    <mergeCell ref="P9:W9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA14">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4076,7 +5214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559B4883-E629-4891-9D84-A4D18D9F93F4}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -4089,16 +5227,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4127,11 +5265,11 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
@@ -4145,11 +5283,11 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
@@ -4163,11 +5301,11 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4181,11 +5319,11 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
@@ -4199,11 +5337,11 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
@@ -4217,13 +5355,13 @@
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4239,13 +5377,13 @@
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
@@ -4259,13 +5397,13 @@
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
         <v>4</v>
       </c>
@@ -4279,11 +5417,11 @@
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
@@ -4297,13 +5435,13 @@
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -4312,476 +5450,482 @@
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="15">
-        <v>0</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17">
+      <c r="A14" s="14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16">
         <f>A14+A16</f>
         <v>4</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <f>C14</f>
         <v>4</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17">
+      <c r="G14" s="15"/>
+      <c r="H14" s="16">
         <f>F14+F16</f>
         <v>13</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="14">
         <f>H14</f>
         <v>13</v>
       </c>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="17">
+      <c r="Q14" s="15"/>
+      <c r="R14" s="16">
         <f>P14+P16</f>
         <v>24</v>
       </c>
-      <c r="U14" s="15">
+      <c r="U14" s="14">
         <f>R14</f>
         <v>24</v>
       </c>
-      <c r="V14" s="16"/>
-      <c r="W14" s="17">
+      <c r="V14" s="15"/>
+      <c r="W14" s="16">
         <f>U14+U16</f>
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="44" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="44" t="s">
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="44" t="s">
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="23"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="22"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A16" s="18">
+      <c r="A16" s="17">
         <f>VLOOKUP(A15,$A$2:$H$12,8)</f>
         <v>4</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <f>C17-C14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <f>MIN(F14,F20,F26)-C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="F16" s="18">
+      <c r="D16" s="24"/>
+      <c r="F16" s="17">
         <f>VLOOKUP(F15,$A$2:$H$12,8)</f>
         <v>9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <f>H17-H14</f>
         <v>15</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <f>P14-H14</f>
         <v>0</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="17">
         <f>VLOOKUP(P15,$A$2:$H$12,8)</f>
         <v>11</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="18">
         <f>R17-R14</f>
         <v>15</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="19">
         <f>U14-R14</f>
         <v>0</v>
       </c>
-      <c r="S16" s="33"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="18">
+      <c r="S16" s="32"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="17">
         <f>VLOOKUP(U15,$A$2:$H$12,8)</f>
         <v>10</v>
       </c>
-      <c r="V16" s="19">
+      <c r="V16" s="18">
         <f>W17-W14</f>
         <v>15</v>
       </c>
-      <c r="W16" s="20">
+      <c r="W16" s="19">
         <f>Z17-W14</f>
         <v>15</v>
       </c>
-      <c r="X16" s="40"/>
+      <c r="X16" s="39"/>
     </row>
     <row r="17" spans="1:28" ht="13.5" thickBot="1">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <f>C17-A16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="22">
+      <c r="B17" s="15"/>
+      <c r="C17" s="21">
         <f>MIN(F17,F23,F29)</f>
         <v>4</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="F17" s="21">
+      <c r="D17" s="25"/>
+      <c r="F17" s="20">
         <f>H17-F16</f>
         <v>19</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="22">
+      <c r="G17" s="15"/>
+      <c r="H17" s="21">
         <f>P17</f>
         <v>28</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="20">
         <f>R17-P16</f>
         <v>28</v>
       </c>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="34">
+      <c r="Q17" s="15"/>
+      <c r="R17" s="33">
         <f>U17</f>
         <v>39</v>
       </c>
-      <c r="U17" s="21">
+      <c r="U17" s="20">
         <f>W17-U16</f>
         <v>39</v>
       </c>
-      <c r="V17" s="16"/>
-      <c r="W17" s="22">
+      <c r="V17" s="15"/>
+      <c r="W17" s="21">
         <f>Z20</f>
         <v>49</v>
       </c>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="15">
+      <c r="X17" s="38"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="14">
         <f>MAX(W14,W20)</f>
         <v>49</v>
       </c>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="17">
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="16">
         <f>Z17+Z19</f>
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:28">
-      <c r="C18" s="35"/>
-      <c r="D18" s="27"/>
-      <c r="Z18" s="47" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="26"/>
+      <c r="Z18" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="49"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="46"/>
     </row>
     <row r="19" spans="1:28" ht="13.5" thickBot="1">
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="18">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="17">
         <f>VLOOKUP(Z18,$A$2:$H$12,8)</f>
         <v>4</v>
       </c>
-      <c r="AA19" s="19">
+      <c r="AA19" s="18">
         <f>AB20-AB17</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="20">
+      <c r="AB19" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:28">
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="F20" s="15">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="F20" s="14">
         <f>C14</f>
         <v>4</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17">
+      <c r="G20" s="15"/>
+      <c r="H20" s="16">
         <f>F20+F22</f>
         <v>11</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="14">
         <f>H20</f>
         <v>11</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="17">
+      <c r="L20" s="15"/>
+      <c r="M20" s="16">
         <f>K20+K22</f>
         <v>26</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="14">
         <f>MAX(M20,M26)</f>
         <v>32</v>
       </c>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="17">
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16">
         <f>P20+P22</f>
         <v>39</v>
       </c>
-      <c r="U20" s="15">
+      <c r="U20" s="14">
         <f>R20</f>
         <v>39</v>
       </c>
-      <c r="V20" s="16"/>
-      <c r="W20" s="17">
+      <c r="V20" s="15"/>
+      <c r="W20" s="16">
         <f>U20+U22</f>
         <v>49</v>
       </c>
-      <c r="X20" s="39"/>
-      <c r="Z20" s="21">
+      <c r="X20" s="38"/>
+      <c r="Z20" s="20">
         <f>AB20-Z19</f>
         <v>49</v>
       </c>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="22">
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="21">
         <f>AB17</f>
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="13.5" thickBot="1">
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="44" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="44" t="s">
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="44" t="s">
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="49" t="s">
+      <c r="Q21" s="43"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="29"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="28"/>
     </row>
     <row r="22" spans="1:28" ht="13.5" thickBot="1">
-      <c r="C22" s="27"/>
-      <c r="F22" s="18">
+      <c r="C22" s="26"/>
+      <c r="F22" s="17">
         <f>VLOOKUP(F21,$A$2:$H$12,8)</f>
         <v>7</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="18">
         <f>H23-H20</f>
         <v>6</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <f>K20-H20</f>
         <v>0</v>
       </c>
-      <c r="I22" s="33"/>
-      <c r="K22" s="18">
+      <c r="I22" s="32"/>
+      <c r="K22" s="17">
         <f>VLOOKUP(K21,$A$2:$H$12,8)</f>
         <v>15</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="18">
         <f>M23-M20</f>
         <v>6</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="19">
         <f>P20-M20</f>
         <v>6</v>
       </c>
-      <c r="O22" s="30"/>
-      <c r="P22" s="18">
+      <c r="O22" s="29"/>
+      <c r="P22" s="17">
         <f>VLOOKUP(P21,$A$2:$H$12,8)</f>
         <v>7</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q22" s="18">
         <f>R23-R20</f>
         <v>0</v>
       </c>
-      <c r="R22" s="20">
+      <c r="R22" s="19">
         <f>U20-R20</f>
         <v>0</v>
       </c>
-      <c r="U22" s="18">
+      <c r="U22" s="17">
         <f>VLOOKUP(U21,$A$2:$H$12,8)</f>
         <v>10</v>
       </c>
-      <c r="V22" s="19">
+      <c r="V22" s="18">
         <f>W23-W20</f>
         <v>0</v>
       </c>
-      <c r="W22" s="20">
+      <c r="W22" s="19">
         <f>Z17-W20</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:28">
-      <c r="C23" s="27"/>
-      <c r="F23" s="21">
+      <c r="C23" s="26"/>
+      <c r="F23" s="20">
         <f>H23-F22</f>
         <v>10</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="34">
+      <c r="G23" s="15"/>
+      <c r="H23" s="33">
         <f>K23</f>
         <v>17</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="20">
         <f>M23-K22</f>
         <v>17</v>
       </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="34">
+      <c r="L23" s="15"/>
+      <c r="M23" s="33">
         <f>P23</f>
         <v>32</v>
       </c>
-      <c r="N23" s="27"/>
-      <c r="P23" s="21">
+      <c r="N23" s="26"/>
+      <c r="P23" s="20">
         <f>R23-P22</f>
         <v>32</v>
       </c>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="34">
+      <c r="Q23" s="15"/>
+      <c r="R23" s="33">
         <f>U23</f>
         <v>39</v>
       </c>
-      <c r="U23" s="21">
+      <c r="U23" s="20">
         <f>W23-U22</f>
         <v>39</v>
       </c>
-      <c r="V23" s="16"/>
-      <c r="W23" s="22">
+      <c r="V23" s="15"/>
+      <c r="W23" s="21">
         <f>Z20</f>
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:28">
-      <c r="C24" s="27"/>
-      <c r="N24" s="27"/>
+      <c r="C24" s="26"/>
+      <c r="N24" s="26"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="C25" s="27"/>
-      <c r="N25" s="27"/>
+      <c r="C25" s="26"/>
+      <c r="N25" s="26"/>
     </row>
     <row r="26" spans="1:28">
-      <c r="C26" s="27"/>
-      <c r="F26" s="15">
+      <c r="C26" s="26"/>
+      <c r="F26" s="14">
         <f>C14</f>
         <v>4</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17">
+      <c r="G26" s="15"/>
+      <c r="H26" s="16">
         <f>F26+F28</f>
         <v>19</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="14">
         <f>H26</f>
         <v>19</v>
       </c>
-      <c r="L26" s="16"/>
-      <c r="M26" s="17">
+      <c r="L26" s="15"/>
+      <c r="M26" s="16">
         <f>K26+K28</f>
         <v>32</v>
       </c>
-      <c r="N26" s="27"/>
+      <c r="N26" s="26"/>
     </row>
     <row r="27" spans="1:28" ht="13.5" thickBot="1">
-      <c r="C27" s="27"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="44" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="49" t="s">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="29"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:28">
-      <c r="F28" s="18">
+      <c r="F28" s="17">
         <f>VLOOKUP(F27,$A$2:$H$12,8)</f>
         <v>15</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="18">
         <f>H29-H26</f>
         <v>0</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <f>K26-H26</f>
         <v>0</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="17">
         <f>VLOOKUP(K27,$A$2:$H$12,8)</f>
         <v>13</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="18">
         <f>M29-M26</f>
         <v>0</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="19">
         <f>P20-M26</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:28">
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <f>H29-F28</f>
         <v>4</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="34">
+      <c r="G29" s="15"/>
+      <c r="H29" s="33">
         <f>K29</f>
         <v>19</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="20">
         <f>M29-K28</f>
         <v>19</v>
       </c>
-      <c r="L29" s="16"/>
-      <c r="M29" s="22">
+      <c r="L29" s="15"/>
+      <c r="M29" s="21">
         <f>P23</f>
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="P15:R15"/>
     <mergeCell ref="Z18:AB18"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="K21:M21"/>
@@ -4789,65 +5933,59 @@
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="U21:W21"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="P15:R15"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/FIAEB Übungen/Netzplan_Übung.xlsx
+++ b/FIAEB Übungen/Netzplan_Übung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FIAEB Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83F481F-2FDE-4887-AF87-5770049DBB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6B1A96-D41F-4075-B39F-137E7AC6FE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,7 +246,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +329,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -594,7 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,6 +697,15 @@
     <xf numFmtId="9" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,35 +727,35 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="45"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="1" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="45"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="85">
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="60">
     <dxf>
       <font>
         <color theme="0"/>
@@ -792,6 +813,26 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <color rgb="FFFF0000"/>
         <name val="Arial"/>
@@ -855,11 +896,56 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFF00"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -872,287 +958,6 @@
           <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1881,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE67"/>
+  <dimension ref="A1:BF67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="12.75"/>
@@ -1895,20 +1700,20 @@
     <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="45">
+    <row r="1" spans="1:58" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1921,7 +1726,7 @@
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="52">
@@ -1990,7 +1795,7 @@
       <c r="AH1" s="52">
         <v>45229</v>
       </c>
-      <c r="AI1" s="52">
+      <c r="AI1" s="53">
         <v>45230</v>
       </c>
       <c r="AJ1" s="52">
@@ -2059,8 +1864,9 @@
       <c r="BE1" s="52">
         <v>45252</v>
       </c>
-    </row>
-    <row r="2" spans="1:57">
+      <c r="BF1" s="54"/>
+    </row>
+    <row r="2" spans="1:58">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2087,59 +1893,58 @@
         <f>ROUNDUP(H2/(I2*J2),0)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="51">
+      <c r="L2" s="44">
         <f>SUM(M2:BE2)</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="53">
-        <v>1</v>
-      </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="53"/>
-      <c r="AX2" s="53"/>
-      <c r="AY2" s="53"/>
-      <c r="AZ2" s="53"/>
-      <c r="BA2" s="53"/>
-      <c r="BB2" s="53"/>
-      <c r="BC2" s="53"/>
-      <c r="BD2" s="53"/>
-      <c r="BE2" s="53"/>
-    </row>
-    <row r="3" spans="1:57">
+        <v>0</v>
+      </c>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="55"/>
+      <c r="BC2" s="55"/>
+      <c r="BD2" s="55"/>
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="54"/>
+    </row>
+    <row r="3" spans="1:58">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2166,57 +1971,58 @@
         <f t="shared" ref="K3:K13" si="0">ROUNDUP(H3/(I3*J3),0)</f>
         <v>6</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="44">
         <f t="shared" ref="L3:L13" si="1">SUM(M3:BE3)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="53"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
-      <c r="BB3" s="53"/>
-      <c r="BC3" s="53"/>
-      <c r="BD3" s="53"/>
-      <c r="BE3" s="53"/>
-    </row>
-    <row r="4" spans="1:57">
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="55"/>
+      <c r="BA3" s="55"/>
+      <c r="BB3" s="55"/>
+      <c r="BC3" s="55"/>
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="55"/>
+      <c r="BF3" s="54"/>
+    </row>
+    <row r="4" spans="1:58">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2246,57 +2052,58 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="53"/>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="53"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
-      <c r="BB4" s="53"/>
-      <c r="BC4" s="53"/>
-      <c r="BD4" s="53"/>
-      <c r="BE4" s="53"/>
-    </row>
-    <row r="5" spans="1:57">
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="55"/>
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55"/>
+      <c r="BB4" s="55"/>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="54"/>
+    </row>
+    <row r="5" spans="1:58">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,57 +2130,58 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-    </row>
-    <row r="6" spans="1:57">
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="55"/>
+      <c r="AV5" s="55"/>
+      <c r="AW5" s="55"/>
+      <c r="AX5" s="55"/>
+      <c r="AY5" s="55"/>
+      <c r="AZ5" s="55"/>
+      <c r="BA5" s="55"/>
+      <c r="BB5" s="55"/>
+      <c r="BC5" s="55"/>
+      <c r="BD5" s="55"/>
+      <c r="BE5" s="55"/>
+      <c r="BF5" s="54"/>
+    </row>
+    <row r="6" spans="1:58">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2400,57 +2208,58 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="53"/>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="53"/>
-      <c r="BE6" s="53"/>
-    </row>
-    <row r="7" spans="1:57">
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="55"/>
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="55"/>
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="55"/>
+      <c r="AX6" s="55"/>
+      <c r="AY6" s="55"/>
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="55"/>
+      <c r="BB6" s="55"/>
+      <c r="BC6" s="55"/>
+      <c r="BD6" s="55"/>
+      <c r="BE6" s="55"/>
+      <c r="BF6" s="54"/>
+    </row>
+    <row r="7" spans="1:58">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -2477,57 +2286,58 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="53"/>
-      <c r="AU7" s="53"/>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="53"/>
-      <c r="BA7" s="53"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="53"/>
-      <c r="BD7" s="53"/>
-      <c r="BE7" s="53"/>
-    </row>
-    <row r="8" spans="1:57">
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="55"/>
+      <c r="AL7" s="55"/>
+      <c r="AM7" s="55"/>
+      <c r="AN7" s="55"/>
+      <c r="AO7" s="55"/>
+      <c r="AP7" s="55"/>
+      <c r="AQ7" s="55"/>
+      <c r="AR7" s="55"/>
+      <c r="AS7" s="55"/>
+      <c r="AT7" s="55"/>
+      <c r="AU7" s="55"/>
+      <c r="AV7" s="55"/>
+      <c r="AW7" s="55"/>
+      <c r="AX7" s="55"/>
+      <c r="AY7" s="55"/>
+      <c r="AZ7" s="55"/>
+      <c r="BA7" s="55"/>
+      <c r="BB7" s="55"/>
+      <c r="BC7" s="55"/>
+      <c r="BD7" s="55"/>
+      <c r="BE7" s="55"/>
+      <c r="BF7" s="54"/>
+    </row>
+    <row r="8" spans="1:58">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2558,57 +2368,58 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L8" s="51">
+      <c r="L8" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="53"/>
-      <c r="AO8" s="53"/>
-      <c r="AP8" s="53"/>
-      <c r="AQ8" s="53"/>
-      <c r="AR8" s="53"/>
-      <c r="AS8" s="53"/>
-      <c r="AT8" s="53"/>
-      <c r="AU8" s="53"/>
-      <c r="AV8" s="53"/>
-      <c r="AW8" s="53"/>
-      <c r="AX8" s="53"/>
-      <c r="AY8" s="53"/>
-      <c r="AZ8" s="53"/>
-      <c r="BA8" s="53"/>
-      <c r="BB8" s="53"/>
-      <c r="BC8" s="53"/>
-      <c r="BD8" s="53"/>
-      <c r="BE8" s="53"/>
-    </row>
-    <row r="9" spans="1:57">
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="55"/>
+      <c r="AQ8" s="55"/>
+      <c r="AR8" s="55"/>
+      <c r="AS8" s="55"/>
+      <c r="AT8" s="55"/>
+      <c r="AU8" s="55"/>
+      <c r="AV8" s="55"/>
+      <c r="AW8" s="55"/>
+      <c r="AX8" s="55"/>
+      <c r="AY8" s="55"/>
+      <c r="AZ8" s="55"/>
+      <c r="BA8" s="55"/>
+      <c r="BB8" s="55"/>
+      <c r="BC8" s="55"/>
+      <c r="BD8" s="55"/>
+      <c r="BE8" s="55"/>
+      <c r="BF8" s="54"/>
+    </row>
+    <row r="9" spans="1:58">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2635,57 +2446,58 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L9" s="51">
+      <c r="L9" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="53"/>
-      <c r="AL9" s="53"/>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="53"/>
-      <c r="AO9" s="53"/>
-      <c r="AP9" s="53"/>
-      <c r="AQ9" s="53"/>
-      <c r="AR9" s="53"/>
-      <c r="AS9" s="53"/>
-      <c r="AT9" s="53"/>
-      <c r="AU9" s="53"/>
-      <c r="AV9" s="53"/>
-      <c r="AW9" s="53"/>
-      <c r="AX9" s="53"/>
-      <c r="AY9" s="53"/>
-      <c r="AZ9" s="53"/>
-      <c r="BA9" s="53"/>
-      <c r="BB9" s="53"/>
-      <c r="BC9" s="53"/>
-      <c r="BD9" s="53"/>
-      <c r="BE9" s="53"/>
-    </row>
-    <row r="10" spans="1:57">
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="55"/>
+      <c r="AL9" s="55"/>
+      <c r="AM9" s="55"/>
+      <c r="AN9" s="55"/>
+      <c r="AO9" s="58"/>
+      <c r="AP9" s="55"/>
+      <c r="AQ9" s="55"/>
+      <c r="AR9" s="55"/>
+      <c r="AS9" s="55"/>
+      <c r="AT9" s="55"/>
+      <c r="AU9" s="55"/>
+      <c r="AV9" s="55"/>
+      <c r="AW9" s="55"/>
+      <c r="AX9" s="55"/>
+      <c r="AY9" s="55"/>
+      <c r="AZ9" s="55"/>
+      <c r="BA9" s="55"/>
+      <c r="BB9" s="55"/>
+      <c r="BC9" s="55"/>
+      <c r="BD9" s="55"/>
+      <c r="BE9" s="55"/>
+      <c r="BF9" s="54"/>
+    </row>
+    <row r="10" spans="1:58">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -2712,57 +2524,58 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L10" s="51">
+      <c r="L10" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="53"/>
-      <c r="AP10" s="53"/>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="53"/>
-      <c r="AS10" s="53"/>
-      <c r="AT10" s="53"/>
-      <c r="AU10" s="53"/>
-      <c r="AV10" s="53"/>
-      <c r="AW10" s="53"/>
-      <c r="AX10" s="53"/>
-      <c r="AY10" s="53"/>
-      <c r="AZ10" s="53"/>
-      <c r="BA10" s="53"/>
-      <c r="BB10" s="53"/>
-      <c r="BC10" s="53"/>
-      <c r="BD10" s="53"/>
-      <c r="BE10" s="53"/>
-    </row>
-    <row r="11" spans="1:57">
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="55"/>
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="55"/>
+      <c r="AO10" s="54"/>
+      <c r="AP10" s="55"/>
+      <c r="AQ10" s="55"/>
+      <c r="AR10" s="55"/>
+      <c r="AS10" s="55"/>
+      <c r="AT10" s="55"/>
+      <c r="AU10" s="55"/>
+      <c r="AV10" s="55"/>
+      <c r="AW10" s="55"/>
+      <c r="AX10" s="55"/>
+      <c r="AY10" s="55"/>
+      <c r="AZ10" s="55"/>
+      <c r="BA10" s="55"/>
+      <c r="BB10" s="55"/>
+      <c r="BC10" s="55"/>
+      <c r="BD10" s="55"/>
+      <c r="BE10" s="55"/>
+      <c r="BF10" s="54"/>
+    </row>
+    <row r="11" spans="1:58">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -2789,57 +2602,58 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L11" s="51">
+      <c r="L11" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="53"/>
-      <c r="AP11" s="53"/>
-      <c r="AQ11" s="53"/>
-      <c r="AR11" s="53"/>
-      <c r="AS11" s="53"/>
-      <c r="AT11" s="53"/>
-      <c r="AU11" s="53"/>
-      <c r="AV11" s="53"/>
-      <c r="AW11" s="53"/>
-      <c r="AX11" s="53"/>
-      <c r="AY11" s="53"/>
-      <c r="AZ11" s="53"/>
-      <c r="BA11" s="53"/>
-      <c r="BB11" s="53"/>
-      <c r="BC11" s="53"/>
-      <c r="BD11" s="53"/>
-      <c r="BE11" s="53"/>
-    </row>
-    <row r="12" spans="1:57">
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="57"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="55"/>
+      <c r="AL11" s="55"/>
+      <c r="AM11" s="55"/>
+      <c r="AN11" s="55"/>
+      <c r="AO11" s="54"/>
+      <c r="AP11" s="55"/>
+      <c r="AQ11" s="55"/>
+      <c r="AR11" s="55"/>
+      <c r="AS11" s="55"/>
+      <c r="AT11" s="55"/>
+      <c r="AU11" s="55"/>
+      <c r="AV11" s="55"/>
+      <c r="AW11" s="55"/>
+      <c r="AX11" s="55"/>
+      <c r="AY11" s="55"/>
+      <c r="AZ11" s="55"/>
+      <c r="BA11" s="55"/>
+      <c r="BB11" s="55"/>
+      <c r="BC11" s="55"/>
+      <c r="BD11" s="55"/>
+      <c r="BE11" s="55"/>
+      <c r="BF11" s="54"/>
+    </row>
+    <row r="12" spans="1:58">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -2864,61 +2678,62 @@
       <c r="J12" s="41">
         <v>1</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L12" s="51">
+      <c r="L12" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="53"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="53"/>
-      <c r="AO12" s="53"/>
-      <c r="AP12" s="53"/>
-      <c r="AQ12" s="53"/>
-      <c r="AR12" s="53"/>
-      <c r="AS12" s="53"/>
-      <c r="AT12" s="53"/>
-      <c r="AU12" s="53"/>
-      <c r="AV12" s="53"/>
-      <c r="AW12" s="53"/>
-      <c r="AX12" s="53"/>
-      <c r="AY12" s="53"/>
-      <c r="AZ12" s="53"/>
-      <c r="BA12" s="53"/>
-      <c r="BB12" s="53"/>
-      <c r="BC12" s="53"/>
-      <c r="BD12" s="53"/>
-      <c r="BE12" s="53"/>
-    </row>
-    <row r="13" spans="1:57">
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="54"/>
+      <c r="AP12" s="55"/>
+      <c r="AQ12" s="55"/>
+      <c r="AR12" s="55"/>
+      <c r="AS12" s="55"/>
+      <c r="AT12" s="55"/>
+      <c r="AU12" s="55"/>
+      <c r="AV12" s="55"/>
+      <c r="AW12" s="55"/>
+      <c r="AX12" s="55"/>
+      <c r="AY12" s="55"/>
+      <c r="AZ12" s="55"/>
+      <c r="BA12" s="55"/>
+      <c r="BB12" s="55"/>
+      <c r="BC12" s="55"/>
+      <c r="BD12" s="55"/>
+      <c r="BE12" s="55"/>
+      <c r="BF12" s="54"/>
+    </row>
+    <row r="13" spans="1:58">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2945,57 +2760,58 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L13" s="51">
+      <c r="L13" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="53"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53"/>
-      <c r="AM13" s="53"/>
-      <c r="AN13" s="53"/>
-      <c r="AO13" s="53"/>
-      <c r="AP13" s="53"/>
-      <c r="AQ13" s="53"/>
-      <c r="AR13" s="53"/>
-      <c r="AS13" s="53"/>
-      <c r="AT13" s="53"/>
-      <c r="AU13" s="53"/>
-      <c r="AV13" s="53"/>
-      <c r="AW13" s="53"/>
-      <c r="AX13" s="53"/>
-      <c r="AY13" s="53"/>
-      <c r="AZ13" s="53"/>
-      <c r="BA13" s="53"/>
-      <c r="BB13" s="53"/>
-      <c r="BC13" s="53"/>
-      <c r="BD13" s="53"/>
-      <c r="BE13" s="53"/>
-    </row>
-    <row r="15" spans="1:57">
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="55"/>
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="55"/>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="55"/>
+      <c r="AQ13" s="55"/>
+      <c r="AR13" s="55"/>
+      <c r="AS13" s="55"/>
+      <c r="AT13" s="55"/>
+      <c r="AU13" s="55"/>
+      <c r="AV13" s="55"/>
+      <c r="AW13" s="55"/>
+      <c r="AX13" s="55"/>
+      <c r="AY13" s="55"/>
+      <c r="AZ13" s="55"/>
+      <c r="BA13" s="55"/>
+      <c r="BB13" s="55"/>
+      <c r="BC13" s="55"/>
+      <c r="BD13" s="55"/>
+      <c r="BE13" s="55"/>
+      <c r="BF13" s="54"/>
+    </row>
+    <row r="15" spans="1:58">
       <c r="A15" s="14">
         <v>0</v>
       </c>
@@ -3050,47 +2866,47 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A16" s="43" t="s">
+    <row r="16" spans="1:58" ht="13.5" thickBot="1">
+      <c r="A16" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="22"/>
       <c r="J16" s="23"/>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="46"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="49"/>
       <c r="N16" s="22"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="43" t="s">
+      <c r="P16" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
       <c r="S16" s="22"/>
       <c r="T16" s="23"/>
-      <c r="U16" s="43" t="s">
+      <c r="U16" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
       <c r="X16" s="22"/>
       <c r="Y16" s="23"/>
-      <c r="Z16" s="43" t="s">
+      <c r="Z16" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
     </row>
     <row r="17" spans="1:30" ht="13.5" thickBot="1">
       <c r="A17" s="17">
@@ -3258,32 +3074,32 @@
     <row r="21" spans="1:30" ht="13.5" thickBot="1">
       <c r="D21" s="26"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="22"/>
       <c r="J21" s="23"/>
-      <c r="K21" s="43" t="s">
+      <c r="K21" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
       <c r="N21" s="22"/>
       <c r="O21" s="23"/>
-      <c r="P21" s="43" t="s">
+      <c r="P21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
       <c r="S21" s="22"/>
       <c r="T21" s="23"/>
-      <c r="U21" s="43" t="s">
+      <c r="U21" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
       <c r="X21" s="28"/>
     </row>
     <row r="22" spans="1:30" ht="13.5" thickBot="1">
@@ -3395,18 +3211,18 @@
     <row r="26" spans="1:30" ht="13.5" thickBot="1">
       <c r="I26" s="26"/>
       <c r="J26" s="27"/>
-      <c r="K26" s="43" t="s">
+      <c r="K26" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
       <c r="N26" s="22"/>
       <c r="O26" s="23"/>
-      <c r="P26" s="43" t="s">
+      <c r="P26" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
       <c r="S26" s="28"/>
     </row>
     <row r="27" spans="1:30">
@@ -3468,35 +3284,35 @@
       <c r="D36" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="47" t="s">
+      <c r="H36" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="H37" s="47" t="s">
+      <c r="A37" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="H37" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="17" t="s">
@@ -3511,17 +3327,17 @@
       <c r="D38" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="47" t="s">
+      <c r="H38" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="20" t="s">
@@ -3534,17 +3350,17 @@
       <c r="D39" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="47" t="s">
+      <c r="H39" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
     </row>
     <row r="41" spans="1:16" ht="13.5">
       <c r="J41" s="8"/>
@@ -3628,11 +3444,11 @@
     </row>
     <row r="56" spans="1:11" ht="13.5">
       <c r="A56" s="7"/>
-      <c r="B56" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
+      <c r="B56" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="9"/>
       <c r="F56" s="10" t="s">
         <v>18</v>
@@ -3824,73 +3640,73 @@
     <mergeCell ref="K16:M16"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M1:BE13">
+    <cfRule type="expression" dxfId="21" priority="2">
+      <formula>IF(OR(WEEKDAY(M$1)=7,WEEKDAY(M$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:BE13">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q17 Q27">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:BE13">
-    <cfRule type="expression" dxfId="15" priority="2">
-      <formula>IF(OR(WEEKDAY(M$1)=7,WEEKDAY(M$1)=1),1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:BE13">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3919,16 +3735,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4139,39 +3955,39 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="22"/>
       <c r="J13" s="23"/>
-      <c r="K13" s="43" t="s">
+      <c r="K13" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
       <c r="N13" s="22"/>
       <c r="O13" s="23"/>
-      <c r="P13" s="43" t="s">
+      <c r="P13" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
       <c r="S13" s="22"/>
       <c r="T13" s="23"/>
-      <c r="U13" s="43" t="s">
+      <c r="U13" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
     </row>
     <row r="14" spans="1:23" ht="13.5" thickBot="1">
       <c r="A14" s="17">
@@ -4303,25 +4119,25 @@
     <row r="19" spans="4:19" ht="13.5" thickBot="1">
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="22"/>
       <c r="J19" s="23"/>
-      <c r="K19" s="43" t="s">
+      <c r="K19" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
       <c r="N19" s="22"/>
       <c r="O19" s="23"/>
-      <c r="P19" s="43" t="s">
+      <c r="P19" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
       <c r="S19" s="28"/>
     </row>
     <row r="20" spans="4:19" ht="13.5" thickBot="1">
@@ -4405,11 +4221,11 @@
     <row r="25" spans="4:19" ht="13.5" thickBot="1">
       <c r="I25" s="26"/>
       <c r="J25" s="27"/>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
       <c r="N25" s="28"/>
     </row>
     <row r="26" spans="4:19">
@@ -4448,52 +4264,52 @@
     <mergeCell ref="K13:M13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="84" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="83" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="82" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="81" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="77" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="75" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4523,16 +4339,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4688,16 +4504,16 @@
       <c r="H9" s="3">
         <v>15</v>
       </c>
-      <c r="P9" s="47" t="s">
+      <c r="P9" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="3" t="s">
@@ -4761,18 +4577,18 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="13.5" thickBot="1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="22"/>
       <c r="J13" s="23"/>
       <c r="K13" s="22"/>
@@ -4780,21 +4596,21 @@
       <c r="M13" s="23"/>
       <c r="N13" s="22"/>
       <c r="O13" s="23"/>
-      <c r="P13" s="43" t="s">
+      <c r="P13" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
       <c r="S13" s="22"/>
       <c r="T13" s="23"/>
-      <c r="U13" s="43" t="s">
+      <c r="U13" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
     </row>
     <row r="14" spans="1:28" ht="13.5" thickBot="1">
       <c r="A14" s="17">
@@ -4948,25 +4764,25 @@
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="22"/>
       <c r="J19" s="23"/>
-      <c r="K19" s="43" t="s">
+      <c r="K19" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
       <c r="N19" s="22"/>
       <c r="O19" s="23"/>
-      <c r="P19" s="43" t="s">
+      <c r="P19" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
       <c r="S19" s="28"/>
     </row>
     <row r="20" spans="3:19" ht="13.5" thickBot="1">
@@ -5075,18 +4891,18 @@
       <c r="C25" s="26"/>
       <c r="D25" s="35"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="44"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
-      <c r="K25" s="46" t="s">
+      <c r="K25" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
       <c r="N25" s="28"/>
     </row>
     <row r="26" spans="3:19">
@@ -5152,52 +4968,52 @@
     <mergeCell ref="F13:H13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="74" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="73" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="72" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="71" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="69" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA14">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5227,16 +5043,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -5487,18 +5303,18 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="22"/>
       <c r="J15" s="23"/>
       <c r="K15" s="22"/>
@@ -5506,18 +5322,18 @@
       <c r="M15" s="23"/>
       <c r="N15" s="22"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="43" t="s">
+      <c r="P15" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
       <c r="S15" s="22"/>
       <c r="T15" s="23"/>
-      <c r="U15" s="43" t="s">
+      <c r="U15" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
       <c r="X15" s="22"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" thickBot="1">
@@ -5627,11 +5443,11 @@
     <row r="18" spans="1:28">
       <c r="C18" s="34"/>
       <c r="D18" s="26"/>
-      <c r="Z18" s="44" t="s">
+      <c r="Z18" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="46"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="49"/>
     </row>
     <row r="19" spans="1:28" ht="13.5" thickBot="1">
       <c r="C19" s="26"/>
@@ -5703,32 +5519,32 @@
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="22"/>
       <c r="J21" s="23"/>
-      <c r="K21" s="43" t="s">
+      <c r="K21" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
       <c r="N21" s="22"/>
       <c r="O21" s="23"/>
-      <c r="P21" s="43" t="s">
+      <c r="P21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="44"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="47"/>
       <c r="S21" s="36"/>
       <c r="T21" s="36"/>
-      <c r="U21" s="46" t="s">
+      <c r="U21" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
       <c r="X21" s="28"/>
     </row>
     <row r="22" spans="1:28" ht="13.5" thickBot="1">
@@ -5858,18 +5674,18 @@
       <c r="C27" s="26"/>
       <c r="D27" s="35"/>
       <c r="E27" s="23"/>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
-      <c r="K27" s="46" t="s">
+      <c r="K27" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
       <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:28">
@@ -5935,57 +5751,57 @@
     <mergeCell ref="U21:W21"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="64" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="63" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" dxfId="58" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="57" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="55" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19">
-    <cfRule type="cellIs" dxfId="54" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
